--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1588791772" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1588791772" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1588791772" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1588791772"/>
+      <pm:revision xmlns:pm="smNativeData" day="1588954570" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1588954570" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1588954570" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1588954570"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="191">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -518,13 +518,91 @@
   </si>
   <si>
     <t>16, 20</t>
+  </si>
+  <si>
+    <t>10, 16, 18, 20, 21</t>
+  </si>
+  <si>
+    <t>14, 10, 16, 20, 21</t>
+  </si>
+  <si>
+    <t>10, 12, 16, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 20, 21</t>
+  </si>
+  <si>
+    <t>10, 11, 20, 21</t>
+  </si>
+  <si>
+    <t>14, 12, 20, 21, 26</t>
+  </si>
+  <si>
+    <t>20, 21, 12</t>
+  </si>
+  <si>
+    <t>15, 21, 20</t>
+  </si>
+  <si>
+    <t>10, 12, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20, 21, 15, 23 </t>
+  </si>
+  <si>
+    <t>21, 13, 15</t>
+  </si>
+  <si>
+    <t>22, 21, 12, 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21, 12, 20</t>
+  </si>
+  <si>
+    <t>20, 13, 21, 14</t>
+  </si>
+  <si>
+    <t>10, 12, 20, 21, 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 15, 20</t>
+  </si>
+  <si>
+    <t>10, 14, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 20, 21 </t>
+  </si>
+  <si>
+    <t>14, 21, 22</t>
+  </si>
+  <si>
+    <t>24, 11, 13, 14, 10, 20, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 21</t>
+  </si>
+  <si>
+    <t>14, 12, 21, 20</t>
+  </si>
+  <si>
+    <t>16, 18, 20, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 14, 21</t>
+  </si>
+  <si>
+    <t>11, 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12, 20, 21, 26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -533,7 +611,6 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="MM/DD/YY h"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -543,7 +620,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1588791772" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1588954570" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -559,7 +636,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1588791772" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1588954570" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -593,7 +670,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -604,7 +681,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -615,7 +692,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -626,7 +703,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -640,7 +717,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -657,7 +734,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -680,7 +757,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -691,7 +768,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -702,7 +779,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -725,7 +802,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -736,7 +813,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -774,7 +851,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -785,7 +862,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -802,7 +879,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588791772" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -842,7 +919,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772"/>
+          <pm:border xmlns:pm="smNativeData" id="1588954570"/>
         </ext>
       </extLst>
     </border>
@@ -861,7 +938,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -885,7 +962,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -909,7 +986,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -932,7 +1009,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -954,7 +1031,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -978,7 +1055,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1002,7 +1079,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1026,7 +1103,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1050,7 +1127,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1073,7 +1150,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1097,7 +1174,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1120,7 +1197,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1144,7 +1221,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1168,7 +1245,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1191,7 +1268,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1215,7 +1292,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1239,7 +1316,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1263,7 +1340,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1286,7 +1363,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1309,7 +1386,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1332,7 +1409,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1356,7 +1433,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1380,7 +1457,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1404,7 +1481,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1427,7 +1504,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1450,7 +1527,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1473,7 +1550,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1496,7 +1573,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1517,7 +1594,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1540,7 +1617,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1564,7 +1641,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1588,7 +1665,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1611,7 +1688,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1633,7 +1710,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1656,7 +1733,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1680,7 +1757,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1703,7 +1780,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1726,7 +1803,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1749,7 +1826,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1771,7 +1848,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772"/>
+          <pm:border xmlns:pm="smNativeData" id="1588954570"/>
         </ext>
       </extLst>
     </border>
@@ -1790,7 +1867,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1812,7 +1889,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1833,7 +1910,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1854,7 +1931,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1876,7 +1953,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1897,7 +1974,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588791772">
+          <pm:border xmlns:pm="smNativeData" id="1588954570">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2109,10 +2186,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1588791772" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1588954570" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1588791772" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1588954570" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2379,15 +2456,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:H346"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F290" sqref="F290"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
-    <col min="1" max="16384" width="20.405405" customWidth="1"/>
+    <col min="1" max="3" width="20.405405" customWidth="1"/>
+    <col min="4" max="4" width="21.216216" customWidth="1"/>
+    <col min="5" max="16384" width="20.405405" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4998,13 +5077,13 @@
       <c r="A161" s="40" t="n">
         <v>126</v>
       </c>
-      <c r="B161" s="63" t="n">
+      <c r="B161" s="12" t="n">
         <v>25</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D161" s="63" t="s">
+      <c r="D161" s="12" t="s">
         <v>120</v>
       </c>
       <c r="E161" s="66" t="s">
@@ -5015,13 +5094,13 @@
       <c r="A162" s="40" t="n">
         <v>127</v>
       </c>
-      <c r="B162" s="63" t="n">
+      <c r="B162" s="12" t="n">
         <v>25</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D162" s="63" t="s">
+      <c r="D162" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E162" s="66" t="s">
@@ -5032,13 +5111,13 @@
       <c r="A163" s="40" t="n">
         <v>128</v>
       </c>
-      <c r="B163" s="63" t="n">
+      <c r="B163" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="C163" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D163" s="63" t="s">
+      <c r="C163" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D163" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E163" s="66" t="s">
@@ -5049,13 +5128,13 @@
       <c r="A164" s="40" t="n">
         <v>129</v>
       </c>
-      <c r="B164" s="63" t="n">
+      <c r="B164" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C164" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D164" s="63" t="n">
+      <c r="C164" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D164" s="12" t="n">
         <v>18</v>
       </c>
       <c r="E164" s="66" t="s">
@@ -5066,13 +5145,13 @@
       <c r="A165" s="40" t="n">
         <v>130</v>
       </c>
-      <c r="B165" s="63" t="n">
+      <c r="B165" s="12" t="n">
         <v>65</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D165" s="63" t="n">
+      <c r="D165" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E165" s="66" t="s">
@@ -5083,13 +5162,13 @@
       <c r="A166" s="40" t="n">
         <v>131</v>
       </c>
-      <c r="B166" s="63" t="n">
+      <c r="B166" s="12" t="n">
         <v>65</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D166" s="63" t="n">
+      <c r="D166" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E166" s="66" t="s">
@@ -5100,13 +5179,13 @@
       <c r="A167" s="40" t="n">
         <v>132</v>
       </c>
-      <c r="B167" s="63" t="n">
+      <c r="B167" s="12" t="n">
         <v>75</v>
       </c>
       <c r="C167" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D167" s="63" t="n">
+      <c r="D167" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E167" s="66" t="s">
@@ -5117,13 +5196,13 @@
       <c r="A168" s="40" t="n">
         <v>133</v>
       </c>
-      <c r="B168" s="63" t="n">
+      <c r="B168" s="12" t="n">
         <v>75</v>
       </c>
       <c r="C168" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D168" s="63" t="s">
+      <c r="D168" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E168" s="66" t="s">
@@ -5134,13 +5213,13 @@
       <c r="A169" s="40" t="n">
         <v>134</v>
       </c>
-      <c r="B169" s="63" t="n">
+      <c r="B169" s="12" t="n">
         <v>45</v>
       </c>
       <c r="C169" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D169" s="63" t="s">
+      <c r="D169" s="12" t="s">
         <v>123</v>
       </c>
       <c r="E169" s="66" t="s">
@@ -5151,13 +5230,13 @@
       <c r="A170" s="40" t="n">
         <v>135</v>
       </c>
-      <c r="B170" s="63" t="n">
+      <c r="B170" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C170" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D170" s="63" t="n">
+      <c r="C170" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D170" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E170" s="66" t="s">
@@ -5168,13 +5247,13 @@
       <c r="A171" s="40" t="n">
         <v>136</v>
       </c>
-      <c r="B171" s="63" t="n">
+      <c r="B171" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="C171" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D171" s="63" t="n">
+      <c r="C171" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D171" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E171" s="66" t="s">
@@ -5185,13 +5264,13 @@
       <c r="A172" s="40" t="n">
         <v>137</v>
       </c>
-      <c r="B172" s="63" t="n">
+      <c r="B172" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="C172" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D172" s="63" t="n">
+      <c r="C172" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D172" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E172" s="66" t="s">
@@ -5202,13 +5281,13 @@
       <c r="A173" s="40" t="n">
         <v>138</v>
       </c>
-      <c r="B173" s="63" t="n">
+      <c r="B173" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="C173" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D173" s="63" t="s">
+      <c r="C173" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D173" s="12" t="s">
         <v>124</v>
       </c>
       <c r="E173" s="66" t="s">
@@ -5219,13 +5298,13 @@
       <c r="A174" s="40" t="n">
         <v>139</v>
       </c>
-      <c r="B174" s="63" t="n">
+      <c r="B174" s="12" t="n">
         <v>25</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D174" s="63" t="s">
+      <c r="D174" s="12" t="s">
         <v>85</v>
       </c>
       <c r="E174" s="66" t="s">
@@ -5236,13 +5315,13 @@
       <c r="A175" s="40" t="n">
         <v>140</v>
       </c>
-      <c r="B175" s="63" t="n">
+      <c r="B175" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="C175" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D175" s="63" t="n">
+      <c r="C175" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D175" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E175" s="66" t="s">
@@ -5253,13 +5332,13 @@
       <c r="A176" s="40" t="n">
         <v>141</v>
       </c>
-      <c r="B176" s="63" t="n">
+      <c r="B176" s="12" t="n">
         <v>75</v>
       </c>
       <c r="C176" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D176" s="63" t="s">
+      <c r="D176" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E176" s="66" t="s">
@@ -5270,13 +5349,13 @@
       <c r="A177" s="40" t="n">
         <v>142</v>
       </c>
-      <c r="B177" s="63" t="n">
+      <c r="B177" s="12" t="n">
         <v>75</v>
       </c>
       <c r="C177" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D177" s="63" t="s">
+      <c r="D177" s="12" t="s">
         <v>108</v>
       </c>
       <c r="E177" s="66" t="s">
@@ -5287,13 +5366,13 @@
       <c r="A178" s="40" t="n">
         <v>143</v>
       </c>
-      <c r="B178" s="63" t="n">
+      <c r="B178" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="C178" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D178" s="63" t="s">
+      <c r="C178" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D178" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E178" s="66" t="s">
@@ -5304,13 +5383,13 @@
       <c r="A179" s="40" t="n">
         <v>144</v>
       </c>
-      <c r="B179" s="63" t="n">
+      <c r="B179" s="12" t="n">
         <v>45</v>
       </c>
       <c r="C179" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D179" s="63" t="s">
+      <c r="D179" s="12" t="s">
         <v>126</v>
       </c>
       <c r="E179" s="66" t="s">
@@ -5321,13 +5400,13 @@
       <c r="A180" s="40" t="n">
         <v>145</v>
       </c>
-      <c r="B180" s="63" t="n">
+      <c r="B180" s="12" t="n">
         <v>85</v>
       </c>
-      <c r="C180" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D180" s="63" t="s">
+      <c r="C180" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D180" s="12" t="s">
         <v>127</v>
       </c>
       <c r="E180" s="66" t="s">
@@ -5338,13 +5417,13 @@
       <c r="A181" s="40" t="n">
         <v>146</v>
       </c>
-      <c r="B181" s="63" t="n">
+      <c r="B181" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="C181" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D181" s="63" t="s">
+      <c r="C181" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D181" s="12" t="s">
         <v>127</v>
       </c>
       <c r="E181" s="66" t="s">
@@ -5355,13 +5434,13 @@
       <c r="A182" s="40" t="n">
         <v>147</v>
       </c>
-      <c r="B182" s="63" t="n">
+      <c r="B182" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="C182" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D182" s="63" t="s">
+      <c r="C182" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D182" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E182" s="66" t="s">
@@ -5372,13 +5451,13 @@
       <c r="A183" s="40" t="n">
         <v>148</v>
       </c>
-      <c r="B183" s="63" t="n">
+      <c r="B183" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="C183" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D183" s="63" t="s">
+      <c r="C183" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D183" s="12" t="s">
         <v>106</v>
       </c>
       <c r="E183" s="66" t="s">
@@ -5389,13 +5468,13 @@
       <c r="A184" s="40" t="n">
         <v>149</v>
       </c>
-      <c r="B184" s="63" t="n">
+      <c r="B184" s="12" t="n">
         <v>75</v>
       </c>
       <c r="C184" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D184" s="63" t="s">
+      <c r="D184" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E184" s="66" t="s">
@@ -5406,13 +5485,13 @@
       <c r="A185" s="40" t="n">
         <v>150</v>
       </c>
-      <c r="B185" s="63" t="n">
+      <c r="B185" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C185" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D185" s="63" t="s">
+      <c r="C185" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D185" s="12" t="s">
         <v>129</v>
       </c>
       <c r="E185" s="66" t="s">
@@ -5423,13 +5502,13 @@
       <c r="A186" s="40" t="n">
         <v>151</v>
       </c>
-      <c r="B186" s="63" t="n">
+      <c r="B186" s="12" t="n">
         <v>55</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D186" s="63" t="s">
+      <c r="D186" s="12" t="s">
         <v>130</v>
       </c>
       <c r="E186" s="66" t="s">
@@ -5440,13 +5519,13 @@
       <c r="A187" s="40" t="n">
         <v>152</v>
       </c>
-      <c r="B187" s="63" t="n">
+      <c r="B187" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C187" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D187" s="63" t="n">
+      <c r="C187" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D187" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E187" s="66" t="s">
@@ -5457,13 +5536,13 @@
       <c r="A188" s="40" t="n">
         <v>153</v>
       </c>
-      <c r="B188" s="63" t="n">
+      <c r="B188" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C188" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D188" s="63" t="s">
+      <c r="C188" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D188" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E188" s="66" t="s">
@@ -5474,13 +5553,13 @@
       <c r="A189" s="40" t="n">
         <v>154</v>
       </c>
-      <c r="B189" s="63" t="n">
+      <c r="B189" s="12" t="n">
         <v>60</v>
       </c>
       <c r="C189" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D189" s="63" t="s">
+      <c r="D189" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E189" s="66" t="s">
@@ -5491,13 +5570,13 @@
       <c r="A190" s="40" t="n">
         <v>155</v>
       </c>
-      <c r="B190" s="63" t="n">
+      <c r="B190" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="C190" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D190" s="63" t="s">
+      <c r="C190" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D190" s="12" t="s">
         <v>131</v>
       </c>
       <c r="E190" s="66" t="s">
@@ -5508,13 +5587,13 @@
       <c r="A191" s="40" t="n">
         <v>156</v>
       </c>
-      <c r="B191" s="63" t="n">
+      <c r="B191" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C191" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D191" s="63" t="s">
+      <c r="C191" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D191" s="12" t="s">
         <v>132</v>
       </c>
       <c r="E191" s="66" t="s">
@@ -5525,13 +5604,13 @@
       <c r="A192" s="40" t="n">
         <v>157</v>
       </c>
-      <c r="B192" s="63" t="n">
+      <c r="B192" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="C192" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D192" s="63" t="n">
+      <c r="C192" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D192" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E192" s="66" t="s">
@@ -5542,13 +5621,13 @@
       <c r="A193" s="40" t="n">
         <v>158</v>
       </c>
-      <c r="B193" s="63" t="n">
+      <c r="B193" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="C193" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D193" s="63" t="s">
+      <c r="C193" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D193" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E193" s="66" t="s">
@@ -5559,13 +5638,13 @@
       <c r="A194" s="40" t="n">
         <v>159</v>
       </c>
-      <c r="B194" s="63" t="n">
+      <c r="B194" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="C194" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D194" s="63" t="s">
+      <c r="C194" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D194" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E194" s="66" t="s">
@@ -5576,13 +5655,13 @@
       <c r="A195" s="40" t="n">
         <v>160</v>
       </c>
-      <c r="B195" s="63" t="n">
+      <c r="B195" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="C195" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D195" s="63" t="s">
+      <c r="C195" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D195" s="12" t="s">
         <v>134</v>
       </c>
       <c r="E195" s="66" t="s">
@@ -5593,13 +5672,13 @@
       <c r="A196" s="40" t="n">
         <v>161</v>
       </c>
-      <c r="B196" s="63" t="n">
+      <c r="B196" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="C196" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D196" s="63" t="n">
+      <c r="C196" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D196" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E196" s="66" t="s">
@@ -5610,13 +5689,13 @@
       <c r="A197" s="40" t="n">
         <v>162</v>
       </c>
-      <c r="B197" s="63" t="n">
+      <c r="B197" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="C197" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D197" s="63" t="s">
+      <c r="C197" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D197" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E197" s="66" t="s">
@@ -5627,13 +5706,13 @@
       <c r="A198" s="40" t="n">
         <v>163</v>
       </c>
-      <c r="B198" s="63" t="n">
+      <c r="B198" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="C198" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D198" s="63" t="s">
+      <c r="C198" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D198" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E198" s="66" t="s">
@@ -5644,13 +5723,13 @@
       <c r="A199" s="40" t="n">
         <v>164</v>
       </c>
-      <c r="B199" s="63" t="n">
+      <c r="B199" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="C199" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D199" s="63" t="s">
+      <c r="C199" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D199" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E199" s="66" t="s">
@@ -5661,13 +5740,13 @@
       <c r="A200" s="40" t="n">
         <v>165</v>
       </c>
-      <c r="B200" s="63" t="n">
+      <c r="B200" s="12" t="n">
         <v>85</v>
       </c>
-      <c r="C200" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D200" s="63" t="s">
+      <c r="C200" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D200" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E200" s="66" t="s">
@@ -5678,13 +5757,13 @@
       <c r="A201" s="40" t="n">
         <v>166</v>
       </c>
-      <c r="B201" s="63" t="n">
+      <c r="B201" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="C201" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D201" s="63" t="s">
+      <c r="C201" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D201" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E201" s="66" t="s">
@@ -5695,13 +5774,13 @@
       <c r="A202" s="40" t="n">
         <v>167</v>
       </c>
-      <c r="B202" s="63" t="n">
+      <c r="B202" s="12" t="n">
         <v>85</v>
       </c>
-      <c r="C202" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D202" s="63" t="s">
+      <c r="C202" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D202" s="12" t="s">
         <v>136</v>
       </c>
       <c r="E202" s="66" t="s">
@@ -5712,13 +5791,13 @@
       <c r="A203" s="40" t="n">
         <v>168</v>
       </c>
-      <c r="B203" s="63" t="n">
+      <c r="B203" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="C203" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D203" s="63" t="s">
+      <c r="C203" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D203" s="12" t="s">
         <v>137</v>
       </c>
       <c r="E203" s="66" t="s">
@@ -5729,13 +5808,13 @@
       <c r="A204" s="40" t="n">
         <v>169</v>
       </c>
-      <c r="B204" s="63" t="n">
+      <c r="B204" s="12" t="n">
         <v>45</v>
       </c>
       <c r="C204" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D204" s="63" t="s">
+      <c r="D204" s="12" t="s">
         <v>138</v>
       </c>
       <c r="E204" s="66" t="s">
@@ -5746,13 +5825,13 @@
       <c r="A205" s="40" t="n">
         <v>170</v>
       </c>
-      <c r="B205" s="63" t="n">
+      <c r="B205" s="12" t="n">
         <v>65</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D205" s="63" t="n">
+      <c r="D205" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E205" s="66" t="s">
@@ -5763,13 +5842,13 @@
       <c r="A206" s="40" t="n">
         <v>171</v>
       </c>
-      <c r="B206" s="63" t="n">
+      <c r="B206" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="C206" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D206" s="63" t="s">
+      <c r="C206" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D206" s="12" t="s">
         <v>139</v>
       </c>
       <c r="E206" s="66" t="s">
@@ -5780,13 +5859,13 @@
       <c r="A207" s="40" t="n">
         <v>172</v>
       </c>
-      <c r="B207" s="63" t="n">
+      <c r="B207" s="12" t="n">
         <v>63</v>
       </c>
-      <c r="C207" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D207" s="63" t="n">
+      <c r="C207" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D207" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E207" s="66" t="s">
@@ -5797,13 +5876,13 @@
       <c r="A208" s="40" t="n">
         <v>173</v>
       </c>
-      <c r="B208" s="63" t="n">
+      <c r="B208" s="12" t="n">
         <v>40</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D208" s="63" t="s">
+      <c r="D208" s="12" t="s">
         <v>140</v>
       </c>
       <c r="E208" s="66" t="s">
@@ -5814,13 +5893,13 @@
       <c r="A209" s="40" t="n">
         <v>174</v>
       </c>
-      <c r="B209" s="63" t="n">
+      <c r="B209" s="12" t="n">
         <v>59</v>
       </c>
       <c r="C209" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D209" s="63" t="n">
+      <c r="D209" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E209" s="66" t="s">
@@ -5831,13 +5910,13 @@
       <c r="A210" s="40" t="n">
         <v>175</v>
       </c>
-      <c r="B210" s="63" t="n">
+      <c r="B210" s="12" t="n">
         <v>31</v>
       </c>
-      <c r="C210" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D210" s="63" t="n">
+      <c r="C210" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D210" s="12" t="n">
         <v>20</v>
       </c>
       <c r="E210" s="66" t="s">
@@ -5848,13 +5927,13 @@
       <c r="A211" s="40" t="n">
         <v>176</v>
       </c>
-      <c r="B211" s="63" t="n">
+      <c r="B211" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="C211" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D211" s="63" t="n">
+      <c r="C211" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D211" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E211" s="66" t="s">
@@ -5865,13 +5944,13 @@
       <c r="A212" s="40" t="n">
         <v>177</v>
       </c>
-      <c r="B212" s="63" t="n">
+      <c r="B212" s="12" t="n">
         <v>32</v>
       </c>
       <c r="C212" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D212" s="63" t="n">
+      <c r="D212" s="12" t="n">
         <v>18</v>
       </c>
       <c r="E212" s="66" t="s">
@@ -5882,13 +5961,13 @@
       <c r="A213" s="40" t="n">
         <v>178</v>
       </c>
-      <c r="B213" s="63" t="n">
+      <c r="B213" s="12" t="n">
         <v>53</v>
       </c>
       <c r="C213" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D213" s="63" t="s">
+      <c r="D213" s="12" t="s">
         <v>141</v>
       </c>
       <c r="E213" s="66" t="s">
@@ -5899,13 +5978,13 @@
       <c r="A214" s="40" t="n">
         <v>179</v>
       </c>
-      <c r="B214" s="63" t="n">
+      <c r="B214" s="12" t="n">
         <v>47</v>
       </c>
       <c r="C214" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D214" s="63" t="s">
+      <c r="D214" s="12" t="s">
         <v>142</v>
       </c>
       <c r="E214" s="66" t="s">
@@ -5916,13 +5995,13 @@
       <c r="A215" s="40" t="n">
         <v>180</v>
       </c>
-      <c r="B215" s="63" t="n">
+      <c r="B215" s="12" t="n">
         <v>47</v>
       </c>
       <c r="C215" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D215" s="63" t="n">
+      <c r="D215" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E215" s="66" t="s">
@@ -5933,13 +6012,13 @@
       <c r="A216" s="40" t="n">
         <v>181</v>
       </c>
-      <c r="B216" s="63" t="n">
+      <c r="B216" s="12" t="n">
         <v>28</v>
       </c>
       <c r="C216" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D216" s="63" t="s">
+      <c r="D216" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E216" s="66" t="s">
@@ -5950,13 +6029,13 @@
       <c r="A217" s="40" t="n">
         <v>182</v>
       </c>
-      <c r="B217" s="63" t="n">
+      <c r="B217" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="C217" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D217" s="63" t="n">
+      <c r="C217" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D217" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E217" s="66" t="s">
@@ -5967,13 +6046,13 @@
       <c r="A218" s="40" t="n">
         <v>183</v>
       </c>
-      <c r="B218" s="63" t="n">
+      <c r="B218" s="12" t="n">
         <v>35</v>
       </c>
       <c r="C218" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D218" s="63" t="s">
+      <c r="D218" s="12" t="s">
         <v>143</v>
       </c>
       <c r="E218" s="66" t="s">
@@ -5984,13 +6063,13 @@
       <c r="A219" s="40" t="n">
         <v>184</v>
       </c>
-      <c r="B219" s="63" t="n">
+      <c r="B219" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C219" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D219" s="63" t="s">
+      <c r="C219" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D219" s="12" t="s">
         <v>118</v>
       </c>
       <c r="E219" s="66" t="s">
@@ -6001,13 +6080,13 @@
       <c r="A220" s="40" t="n">
         <v>185</v>
       </c>
-      <c r="B220" s="63" t="n">
-        <v>54</v>
-      </c>
-      <c r="C220" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D220" s="63" t="s">
+      <c r="B220" s="12" t="n">
+        <v>54</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D220" s="12" t="s">
         <v>144</v>
       </c>
       <c r="E220" s="66" t="s">
@@ -6018,13 +6097,13 @@
       <c r="A221" s="40" t="n">
         <v>186</v>
       </c>
-      <c r="B221" s="63" t="n">
+      <c r="B221" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C221" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D221" s="63" t="s">
+      <c r="C221" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D221" s="12" t="s">
         <v>145</v>
       </c>
       <c r="E221" s="66" t="s">
@@ -6035,13 +6114,13 @@
       <c r="A222" s="40" t="n">
         <v>187</v>
       </c>
-      <c r="B222" s="63" t="n">
+      <c r="B222" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="C222" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D222" s="63" t="n">
+      <c r="C222" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D222" s="12" t="n">
         <v>20</v>
       </c>
       <c r="E222" s="66" t="s">
@@ -6052,13 +6131,13 @@
       <c r="A223" s="40" t="n">
         <v>188</v>
       </c>
-      <c r="B223" s="63" t="n">
+      <c r="B223" s="12" t="n">
         <v>52</v>
       </c>
       <c r="C223" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D223" s="63" t="n">
+      <c r="D223" s="12" t="n">
         <v>11</v>
       </c>
       <c r="E223" s="66" t="s">
@@ -6069,13 +6148,13 @@
       <c r="A224" s="40" t="n">
         <v>189</v>
       </c>
-      <c r="B224" s="63" t="n">
+      <c r="B224" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="C224" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D224" s="63" t="n">
+      <c r="C224" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D224" s="12" t="n">
         <v>13</v>
       </c>
       <c r="E224" s="66" t="s">
@@ -6086,13 +6165,13 @@
       <c r="A225" s="40" t="n">
         <v>190</v>
       </c>
-      <c r="B225" s="63" t="n">
+      <c r="B225" s="12" t="n">
         <v>42</v>
       </c>
       <c r="C225" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D225" s="63" t="n">
+      <c r="D225" s="12" t="n">
         <v>23</v>
       </c>
       <c r="E225" s="66" t="s">
@@ -6103,13 +6182,13 @@
       <c r="A226" s="40" t="n">
         <v>191</v>
       </c>
-      <c r="B226" s="63" t="n">
+      <c r="B226" s="12" t="n">
         <v>68</v>
       </c>
       <c r="C226" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D226" s="63" t="s">
+      <c r="D226" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E226" s="66" t="s">
@@ -6120,13 +6199,13 @@
       <c r="A227" s="40" t="n">
         <v>192</v>
       </c>
-      <c r="B227" s="63" t="n">
+      <c r="B227" s="12" t="n">
         <v>61</v>
       </c>
       <c r="C227" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D227" s="63" t="n">
+      <c r="D227" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E227" s="66" t="s">
@@ -6137,13 +6216,13 @@
       <c r="A228" s="40" t="n">
         <v>193</v>
       </c>
-      <c r="B228" s="63" t="n">
+      <c r="B228" s="12" t="n">
         <v>55</v>
       </c>
       <c r="C228" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D228" s="63" t="s">
+      <c r="D228" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E228" s="66" t="s">
@@ -6154,13 +6233,13 @@
       <c r="A229" s="40" t="n">
         <v>194</v>
       </c>
-      <c r="B229" s="63" t="n">
+      <c r="B229" s="12" t="n">
         <v>55</v>
       </c>
       <c r="C229" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D229" s="63" t="n">
+      <c r="D229" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E229" s="66" t="s">
@@ -6171,13 +6250,13 @@
       <c r="A230" s="40" t="n">
         <v>195</v>
       </c>
-      <c r="B230" s="63" t="n">
+      <c r="B230" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C230" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D230" s="63" t="s">
+      <c r="C230" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D230" s="12" t="s">
         <v>146</v>
       </c>
       <c r="E230" s="66" t="s">
@@ -6188,13 +6267,13 @@
       <c r="A231" s="40" t="n">
         <v>196</v>
       </c>
-      <c r="B231" s="63" t="n">
+      <c r="B231" s="12" t="n">
         <v>50</v>
       </c>
       <c r="C231" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D231" s="63" t="n">
+      <c r="D231" s="12" t="n">
         <v>20</v>
       </c>
       <c r="E231" s="66" t="s">
@@ -6205,13 +6284,13 @@
       <c r="A232" s="40" t="n">
         <v>197</v>
       </c>
-      <c r="B232" s="63" t="n">
+      <c r="B232" s="12" t="n">
         <v>50</v>
       </c>
       <c r="C232" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D232" s="63" t="s">
+      <c r="D232" s="12" t="s">
         <v>147</v>
       </c>
       <c r="E232" s="66" t="s">
@@ -6222,13 +6301,13 @@
       <c r="A233" s="40" t="n">
         <v>198</v>
       </c>
-      <c r="B233" s="63" t="n">
+      <c r="B233" s="12" t="n">
         <v>70</v>
       </c>
       <c r="C233" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D233" s="63" t="n">
+      <c r="D233" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E233" s="66" t="s">
@@ -6239,13 +6318,13 @@
       <c r="A234" s="40" t="n">
         <v>199</v>
       </c>
-      <c r="B234" s="63" t="n">
+      <c r="B234" s="12" t="n">
         <v>70</v>
       </c>
       <c r="C234" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D234" s="63" t="n">
+      <c r="D234" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E234" s="66" t="s">
@@ -6256,13 +6335,13 @@
       <c r="A235" s="40" t="n">
         <v>200</v>
       </c>
-      <c r="B235" s="63" t="n">
+      <c r="B235" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C235" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D235" s="63" t="n">
+      <c r="C235" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D235" s="12" t="n">
         <v>20</v>
       </c>
       <c r="E235" s="66" t="s">
@@ -6273,13 +6352,13 @@
       <c r="A236" s="40" t="n">
         <v>201</v>
       </c>
-      <c r="B236" s="63" t="n">
+      <c r="B236" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="C236" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D236" s="63" t="s">
+      <c r="C236" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D236" s="12" t="s">
         <v>148</v>
       </c>
       <c r="E236" s="66" t="s">
@@ -6290,13 +6369,13 @@
       <c r="A237" s="40" t="n">
         <v>202</v>
       </c>
-      <c r="B237" s="63" t="n">
+      <c r="B237" s="12" t="n">
         <v>25</v>
       </c>
       <c r="C237" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D237" s="63" t="s">
+      <c r="D237" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E237" s="66" t="s">
@@ -6307,13 +6386,13 @@
       <c r="A238" s="40" t="n">
         <v>203</v>
       </c>
-      <c r="B238" s="63" t="n">
+      <c r="B238" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C238" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D238" s="63" t="s">
+      <c r="C238" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D238" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E238" s="66" t="s">
@@ -6324,13 +6403,13 @@
       <c r="A239" s="40" t="n">
         <v>204</v>
       </c>
-      <c r="B239" s="63" t="n">
+      <c r="B239" s="12" t="n">
         <v>55</v>
       </c>
       <c r="C239" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D239" s="63" t="n">
+      <c r="D239" s="12" t="n">
         <v>20</v>
       </c>
       <c r="E239" s="66" t="s">
@@ -6341,13 +6420,13 @@
       <c r="A240" s="40" t="n">
         <v>205</v>
       </c>
-      <c r="B240" s="63" t="n">
+      <c r="B240" s="12" t="n">
         <v>45</v>
       </c>
       <c r="C240" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D240" s="63" t="s">
+      <c r="D240" s="12" t="s">
         <v>150</v>
       </c>
       <c r="E240" s="66" t="s">
@@ -6358,13 +6437,13 @@
       <c r="A241" s="40" t="n">
         <v>206</v>
       </c>
-      <c r="B241" s="63" t="n">
+      <c r="B241" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="C241" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D241" s="63" t="s">
+      <c r="C241" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D241" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E241" s="66" t="s">
@@ -6375,13 +6454,13 @@
       <c r="A242" s="40" t="n">
         <v>207</v>
       </c>
-      <c r="B242" s="63" t="n">
+      <c r="B242" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="C242" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D242" s="63" t="s">
+      <c r="C242" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D242" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E242" s="66" t="s">
@@ -6392,13 +6471,13 @@
       <c r="A243" s="40" t="n">
         <v>208</v>
       </c>
-      <c r="B243" s="63" t="n">
+      <c r="B243" s="12" t="n">
         <v>60</v>
       </c>
       <c r="C243" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D243" s="63" t="s">
+      <c r="D243" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E243" s="66" t="s">
@@ -6409,13 +6488,13 @@
       <c r="A244" s="40" t="n">
         <v>209</v>
       </c>
-      <c r="B244" s="63" t="n">
+      <c r="B244" s="12" t="n">
         <v>45</v>
       </c>
       <c r="C244" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D244" s="63" t="s">
+      <c r="D244" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E244" s="66" t="s">
@@ -6426,13 +6505,13 @@
       <c r="A245" s="40" t="n">
         <v>210</v>
       </c>
-      <c r="B245" s="63" t="n">
+      <c r="B245" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="C245" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D245" s="63" t="n">
+      <c r="C245" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D245" s="12" t="n">
         <v>12</v>
       </c>
       <c r="E245" s="66" t="s">
@@ -6443,13 +6522,13 @@
       <c r="A246" s="40" t="n">
         <v>211</v>
       </c>
-      <c r="B246" s="63" t="n">
+      <c r="B246" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="C246" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D246" s="63" t="s">
+      <c r="C246" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D246" s="12" t="s">
         <v>151</v>
       </c>
       <c r="E246" s="66" t="s">
@@ -6460,13 +6539,13 @@
       <c r="A247" s="40" t="n">
         <v>212</v>
       </c>
-      <c r="B247" s="63" t="n">
+      <c r="B247" s="12" t="n">
         <v>61</v>
       </c>
       <c r="C247" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D247" s="63" t="s">
+      <c r="D247" s="12" t="s">
         <v>152</v>
       </c>
       <c r="E247" s="66" t="s">
@@ -6477,13 +6556,13 @@
       <c r="A248" s="40" t="n">
         <v>213</v>
       </c>
-      <c r="B248" s="63" t="n">
+      <c r="B248" s="12" t="n">
         <v>68</v>
       </c>
-      <c r="C248" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D248" s="63" t="n">
+      <c r="C248" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D248" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E248" s="66" t="s">
@@ -6494,13 +6573,13 @@
       <c r="A249" s="40" t="n">
         <v>214</v>
       </c>
-      <c r="B249" s="63" t="n">
+      <c r="B249" s="12" t="n">
         <v>73</v>
       </c>
       <c r="C249" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D249" s="63" t="n">
+      <c r="D249" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E249" s="66" t="s">
@@ -6511,13 +6590,13 @@
       <c r="A250" s="40" t="n">
         <v>215</v>
       </c>
-      <c r="B250" s="63" t="n">
+      <c r="B250" s="12" t="n">
         <v>33</v>
       </c>
       <c r="C250" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D250" s="63" t="s">
+      <c r="D250" s="12" t="s">
         <v>153</v>
       </c>
       <c r="E250" s="66" t="s">
@@ -6528,13 +6607,13 @@
       <c r="A251" s="40" t="n">
         <v>216</v>
       </c>
-      <c r="B251" s="63" t="n">
-        <v>57</v>
-      </c>
-      <c r="C251" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D251" s="63" t="s">
+      <c r="B251" s="12" t="n">
+        <v>57</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D251" s="12" t="s">
         <v>136</v>
       </c>
       <c r="E251" s="66" t="s">
@@ -6545,13 +6624,13 @@
       <c r="A252" s="40" t="n">
         <v>217</v>
       </c>
-      <c r="B252" s="63" t="n">
+      <c r="B252" s="12" t="n">
         <v>66</v>
       </c>
-      <c r="C252" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D252" s="63" t="n">
+      <c r="C252" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D252" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E252" s="66" t="s">
@@ -6562,13 +6641,13 @@
       <c r="A253" s="40" t="n">
         <v>218</v>
       </c>
-      <c r="B253" s="63" t="n">
+      <c r="B253" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="C253" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D253" s="63" t="n">
+      <c r="C253" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D253" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E253" s="66" t="s">
@@ -6579,13 +6658,13 @@
       <c r="A254" s="40" t="n">
         <v>219</v>
       </c>
-      <c r="B254" s="63" t="n">
+      <c r="B254" s="12" t="n">
         <v>42</v>
       </c>
       <c r="C254" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D254" s="63" t="n">
+      <c r="D254" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E254" s="66" t="s">
@@ -6596,13 +6675,13 @@
       <c r="A255" s="40" t="n">
         <v>220</v>
       </c>
-      <c r="B255" s="63" t="n">
+      <c r="B255" s="12" t="n">
         <v>55</v>
       </c>
       <c r="C255" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D255" s="63" t="s">
+      <c r="D255" s="12" t="s">
         <v>115</v>
       </c>
       <c r="E255" s="66" t="s">
@@ -6613,13 +6692,13 @@
       <c r="A256" s="40" t="n">
         <v>221</v>
       </c>
-      <c r="B256" s="63" t="n">
+      <c r="B256" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="C256" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D256" s="63" t="n">
+      <c r="C256" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D256" s="12" t="n">
         <v>14</v>
       </c>
       <c r="E256" s="66" t="s">
@@ -6630,13 +6709,13 @@
       <c r="A257" s="40" t="n">
         <v>222</v>
       </c>
-      <c r="B257" s="63" t="n">
+      <c r="B257" s="12" t="n">
         <v>60</v>
       </c>
-      <c r="C257" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D257" s="63" t="s">
+      <c r="C257" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D257" s="12" t="s">
         <v>123</v>
       </c>
       <c r="E257" s="66" t="s">
@@ -6647,13 +6726,13 @@
       <c r="A258" s="40" t="n">
         <v>223</v>
       </c>
-      <c r="B258" s="63" t="n">
+      <c r="B258" s="12" t="n">
         <v>40</v>
       </c>
       <c r="C258" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D258" s="63" t="n">
+      <c r="D258" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E258" s="66" t="s">
@@ -6664,13 +6743,13 @@
       <c r="A259" s="40" t="n">
         <v>224</v>
       </c>
-      <c r="B259" s="63" t="n">
+      <c r="B259" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="C259" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D259" s="63" t="s">
+      <c r="C259" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D259" s="12" t="s">
         <v>154</v>
       </c>
       <c r="E259" s="66" t="s">
@@ -6681,13 +6760,13 @@
       <c r="A260" s="40" t="n">
         <v>225</v>
       </c>
-      <c r="B260" s="63" t="n">
+      <c r="B260" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="C260" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D260" s="63" t="s">
+      <c r="C260" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D260" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E260" s="66" t="s">
@@ -6698,13 +6777,13 @@
       <c r="A261" s="40" t="n">
         <v>226</v>
       </c>
-      <c r="B261" s="63" t="n">
+      <c r="B261" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="C261" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D261" s="63" t="n">
+      <c r="C261" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D261" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E261" s="66" t="s">
@@ -6715,13 +6794,13 @@
       <c r="A262" s="40" t="n">
         <v>227</v>
       </c>
-      <c r="B262" s="63" t="n">
+      <c r="B262" s="12" t="n">
         <v>62</v>
       </c>
       <c r="C262" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D262" s="63" t="s">
+      <c r="D262" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E262" s="66" t="s">
@@ -6732,13 +6811,13 @@
       <c r="A263" s="40" t="n">
         <v>228</v>
       </c>
-      <c r="B263" s="63" t="n">
+      <c r="B263" s="12" t="n">
         <v>62</v>
       </c>
       <c r="C263" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D263" s="63" t="n">
+      <c r="D263" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E263" s="66" t="s">
@@ -6749,13 +6828,13 @@
       <c r="A264" s="40" t="n">
         <v>229</v>
       </c>
-      <c r="B264" s="63" t="n">
+      <c r="B264" s="12" t="n">
         <v>63</v>
       </c>
-      <c r="C264" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D264" s="63" t="s">
+      <c r="C264" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D264" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E264" s="66" t="s">
@@ -6766,13 +6845,13 @@
       <c r="A265" s="40" t="n">
         <v>230</v>
       </c>
-      <c r="B265" s="63" t="n">
+      <c r="B265" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="C265" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D265" s="63" t="n">
+      <c r="C265" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D265" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E265" s="66" t="s">
@@ -6783,13 +6862,13 @@
       <c r="A266" s="40" t="n">
         <v>231</v>
       </c>
-      <c r="B266" s="63" t="n">
+      <c r="B266" s="12" t="n">
         <v>68</v>
       </c>
       <c r="C266" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D266" s="63" t="n">
+      <c r="D266" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E266" s="66" t="s">
@@ -6800,13 +6879,13 @@
       <c r="A267" s="40" t="n">
         <v>232</v>
       </c>
-      <c r="B267" s="63" t="n">
+      <c r="B267" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="C267" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D267" s="63" t="n">
+      <c r="C267" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D267" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E267" s="66" t="s">
@@ -6817,13 +6896,13 @@
       <c r="A268" s="40" t="n">
         <v>233</v>
       </c>
-      <c r="B268" s="63" t="n">
+      <c r="B268" s="12" t="n">
         <v>37</v>
       </c>
       <c r="C268" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D268" s="63" t="n">
+      <c r="D268" s="12" t="n">
         <v>20</v>
       </c>
       <c r="E268" s="66" t="s">
@@ -6834,13 +6913,13 @@
       <c r="A269" s="40" t="n">
         <v>234</v>
       </c>
-      <c r="B269" s="63" t="n">
+      <c r="B269" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="C269" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D269" s="63" t="s">
+      <c r="C269" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D269" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E269" s="66" t="s">
@@ -6851,13 +6930,13 @@
       <c r="A270" s="40" t="n">
         <v>235</v>
       </c>
-      <c r="B270" s="63" t="n">
+      <c r="B270" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="C270" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D270" s="63" t="s">
+      <c r="C270" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D270" s="12" t="s">
         <v>155</v>
       </c>
       <c r="E270" s="66" t="s">
@@ -6868,13 +6947,13 @@
       <c r="A271" s="40" t="n">
         <v>236</v>
       </c>
-      <c r="B271" s="63" t="n">
+      <c r="B271" s="12" t="n">
         <v>80</v>
       </c>
-      <c r="C271" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D271" s="63" t="n">
+      <c r="C271" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D271" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E271" s="66" t="s">
@@ -6885,13 +6964,13 @@
       <c r="A272" s="40" t="n">
         <v>237</v>
       </c>
-      <c r="B272" s="63" t="n">
+      <c r="B272" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C272" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D272" s="63" t="s">
+      <c r="D272" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E272" s="66" t="s">
@@ -6902,13 +6981,13 @@
       <c r="A273" s="40" t="n">
         <v>238</v>
       </c>
-      <c r="B273" s="63" t="n">
+      <c r="B273" s="12" t="n">
         <v>64</v>
       </c>
       <c r="C273" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D273" s="63" t="n">
+      <c r="D273" s="12" t="n">
         <v>20</v>
       </c>
       <c r="E273" s="66" t="s">
@@ -6919,13 +6998,13 @@
       <c r="A274" s="40" t="n">
         <v>239</v>
       </c>
-      <c r="B274" s="63" t="n">
+      <c r="B274" s="12" t="n">
         <v>60</v>
       </c>
-      <c r="C274" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D274" s="63" t="s">
+      <c r="C274" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D274" s="12" t="s">
         <v>156</v>
       </c>
       <c r="E274" s="66" t="s">
@@ -6936,13 +7015,13 @@
       <c r="A275" s="40" t="n">
         <v>240</v>
       </c>
-      <c r="B275" s="63" t="n">
+      <c r="B275" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="C275" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D275" s="63" t="s">
+      <c r="C275" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D275" s="12" t="s">
         <v>157</v>
       </c>
       <c r="E275" s="66" t="s">
@@ -6953,13 +7032,13 @@
       <c r="A276" s="40" t="n">
         <v>241</v>
       </c>
-      <c r="B276" s="63" t="n">
+      <c r="B276" s="12" t="n">
         <v>56</v>
       </c>
       <c r="C276" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D276" s="63" t="n">
+      <c r="D276" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E276" s="66" t="s">
@@ -6970,13 +7049,13 @@
       <c r="A277" s="40" t="n">
         <v>242</v>
       </c>
-      <c r="B277" s="63" t="n">
+      <c r="B277" s="12" t="n">
         <v>28</v>
       </c>
       <c r="C277" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D277" s="63" t="s">
+      <c r="D277" s="12" t="s">
         <v>138</v>
       </c>
       <c r="E277" s="66" t="s">
@@ -6987,13 +7066,13 @@
       <c r="A278" s="40" t="n">
         <v>243</v>
       </c>
-      <c r="B278" s="63" t="n">
+      <c r="B278" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="C278" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D278" s="63" t="s">
+      <c r="C278" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D278" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E278" s="66" t="s">
@@ -7004,13 +7083,13 @@
       <c r="A279" s="40" t="n">
         <v>244</v>
       </c>
-      <c r="B279" s="63" t="n">
+      <c r="B279" s="12" t="n">
         <v>55</v>
       </c>
       <c r="C279" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D279" s="63" t="s">
+      <c r="D279" s="12" t="s">
         <v>159</v>
       </c>
       <c r="E279" s="66" t="s">
@@ -7021,13 +7100,13 @@
       <c r="A280" s="40" t="n">
         <v>245</v>
       </c>
-      <c r="B280" s="63" t="n">
+      <c r="B280" s="12" t="n">
         <v>63</v>
       </c>
       <c r="C280" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D280" s="63" t="s">
+      <c r="D280" s="12" t="s">
         <v>160</v>
       </c>
       <c r="E280" s="66" t="s">
@@ -7038,13 +7117,13 @@
       <c r="A281" s="40" t="n">
         <v>246</v>
       </c>
-      <c r="B281" s="63" t="n">
+      <c r="B281" s="12" t="n">
         <v>65</v>
       </c>
       <c r="C281" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D281" s="63" t="s">
+      <c r="D281" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E281" s="66" t="s">
@@ -7055,13 +7134,13 @@
       <c r="A282" s="40" t="n">
         <v>247</v>
       </c>
-      <c r="B282" s="63" t="n">
+      <c r="B282" s="12" t="n">
         <v>58</v>
       </c>
-      <c r="C282" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D282" s="63" t="s">
+      <c r="C282" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D282" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E282" s="66" t="s">
@@ -7072,13 +7151,13 @@
       <c r="A283" s="40" t="n">
         <v>248</v>
       </c>
-      <c r="B283" s="63" t="n">
+      <c r="B283" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="C283" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D283" s="63" t="s">
+      <c r="C283" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D283" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E283" s="66" t="s">
@@ -7089,13 +7168,13 @@
       <c r="A284" s="40" t="n">
         <v>249</v>
       </c>
-      <c r="B284" s="63" t="n">
+      <c r="B284" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="C284" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D284" s="63" t="s">
+      <c r="C284" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D284" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E284" s="66" t="s">
@@ -7106,13 +7185,13 @@
       <c r="A285" s="40" t="n">
         <v>250</v>
       </c>
-      <c r="B285" s="63" t="n">
+      <c r="B285" s="12" t="n">
         <v>70</v>
       </c>
-      <c r="C285" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D285" s="63" t="s">
+      <c r="C285" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D285" s="12" t="s">
         <v>161</v>
       </c>
       <c r="E285" s="66" t="s">
@@ -7123,13 +7202,13 @@
       <c r="A286" s="40" t="n">
         <v>251</v>
       </c>
-      <c r="B286" s="63" t="n">
+      <c r="B286" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="C286" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D286" s="63" t="n">
+      <c r="C286" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D286" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E286" s="66" t="s">
@@ -7140,13 +7219,13 @@
       <c r="A287" s="40" t="n">
         <v>252</v>
       </c>
-      <c r="B287" s="63" t="n">
+      <c r="B287" s="12" t="n">
         <v>43</v>
       </c>
-      <c r="C287" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D287" s="63" t="s">
+      <c r="C287" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D287" s="12" t="s">
         <v>162</v>
       </c>
       <c r="E287" s="66" t="s">
@@ -7157,13 +7236,13 @@
       <c r="A288" s="40" t="n">
         <v>253</v>
       </c>
-      <c r="B288" s="63" t="n">
+      <c r="B288" s="12" t="n">
         <v>67</v>
       </c>
       <c r="C288" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D288" s="63" t="s">
+      <c r="D288" s="12" t="s">
         <v>163</v>
       </c>
       <c r="E288" s="66" t="s">
@@ -7174,13 +7253,13 @@
       <c r="A289" s="40" t="n">
         <v>254</v>
       </c>
-      <c r="B289" s="63" t="n">
+      <c r="B289" s="12" t="n">
         <v>37</v>
       </c>
-      <c r="C289" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D289" s="63" t="n">
+      <c r="C289" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D289" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E289" s="66" t="s">
@@ -7191,13 +7270,13 @@
       <c r="A290" s="40" t="n">
         <v>255</v>
       </c>
-      <c r="B290" s="63" t="n">
+      <c r="B290" s="12" t="n">
         <v>70</v>
       </c>
-      <c r="C290" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D290" s="63" t="n">
+      <c r="C290" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D290" s="12" t="n">
         <v>20</v>
       </c>
       <c r="E290" s="66" t="s">
@@ -7208,13 +7287,13 @@
       <c r="A291" s="40" t="n">
         <v>256</v>
       </c>
-      <c r="B291" s="63" t="n">
+      <c r="B291" s="12" t="n">
         <v>69</v>
       </c>
-      <c r="C291" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D291" s="63" t="s">
+      <c r="C291" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D291" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E291" s="66" t="s">
@@ -7225,13 +7304,13 @@
       <c r="A292" s="40" t="n">
         <v>257</v>
       </c>
-      <c r="B292" s="63" t="n">
+      <c r="B292" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="C292" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D292" s="63" t="s">
+      <c r="C292" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D292" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E292" s="66" t="s">
@@ -7242,13 +7321,13 @@
       <c r="A293" s="40" t="n">
         <v>258</v>
       </c>
-      <c r="B293" s="63" t="n">
+      <c r="B293" s="12" t="n">
         <v>46</v>
       </c>
       <c r="C293" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D293" s="63" t="s">
+      <c r="D293" s="12" t="s">
         <v>164</v>
       </c>
       <c r="E293" s="66" t="s">
@@ -7259,13 +7338,13 @@
       <c r="A294" s="40" t="n">
         <v>259</v>
       </c>
-      <c r="B294" s="63" t="n">
+      <c r="B294" s="12" t="n">
         <v>32</v>
       </c>
       <c r="C294" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D294" s="63" t="s">
+      <c r="D294" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E294" s="66" t="s">
@@ -7276,13 +7355,13 @@
       <c r="A295" s="40" t="n">
         <v>260</v>
       </c>
-      <c r="B295" s="63" t="n">
+      <c r="B295" s="12" t="n">
         <v>60</v>
       </c>
       <c r="C295" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D295" s="63" t="n">
+      <c r="D295" s="12" t="n">
         <v>20</v>
       </c>
       <c r="E295" s="66" t="s">
@@ -7293,13 +7372,13 @@
       <c r="A296" s="40" t="n">
         <v>261</v>
       </c>
-      <c r="B296" s="63" t="n">
+      <c r="B296" s="12" t="n">
         <v>49</v>
       </c>
       <c r="C296" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D296" s="63" t="s">
+      <c r="D296" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E296" s="66" t="s">
@@ -7310,13 +7389,13 @@
       <c r="A297" s="40" t="n">
         <v>262</v>
       </c>
-      <c r="B297" s="63" t="n">
+      <c r="B297" s="12" t="n">
         <v>21</v>
       </c>
       <c r="C297" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D297" s="63" t="n">
+      <c r="D297" s="12" t="n">
         <v>20</v>
       </c>
       <c r="E297" s="66" t="s">
@@ -7327,13 +7406,13 @@
       <c r="A298" s="40" t="n">
         <v>263</v>
       </c>
-      <c r="B298" s="63" t="n">
+      <c r="B298" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="C298" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D298" s="63" t="n">
+      <c r="C298" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D298" s="12" t="n">
         <v>16</v>
       </c>
       <c r="E298" s="66" t="s">
@@ -7344,13 +7423,13 @@
       <c r="A299" s="40" t="n">
         <v>264</v>
       </c>
-      <c r="B299" s="63" t="n">
+      <c r="B299" s="12" t="n">
         <v>80</v>
       </c>
-      <c r="C299" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D299" s="63" t="s">
+      <c r="C299" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D299" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E299" s="66" t="s">
@@ -7361,13 +7440,13 @@
       <c r="A300" s="40" t="n">
         <v>265</v>
       </c>
-      <c r="B300" s="63" t="n">
+      <c r="B300" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="C300" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D300" s="63" t="s">
+      <c r="C300" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D300" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E300" s="66" t="s">
@@ -7378,13 +7457,13 @@
       <c r="A301" s="40" t="n">
         <v>266</v>
       </c>
-      <c r="B301" s="63" t="n">
+      <c r="B301" s="12" t="n">
         <v>70</v>
       </c>
       <c r="C301" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D301" s="63" t="n">
+      <c r="D301" s="12" t="n">
         <v>19</v>
       </c>
       <c r="E301" s="66" t="s">
@@ -7395,13 +7474,13 @@
       <c r="A302" s="40" t="n">
         <v>267</v>
       </c>
-      <c r="B302" s="63" t="n">
+      <c r="B302" s="12" t="n">
         <v>89</v>
       </c>
       <c r="C302" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D302" s="63" t="n">
+      <c r="D302" s="12" t="n">
         <v>20</v>
       </c>
       <c r="E302" s="66" t="s">
@@ -7412,13 +7491,13 @@
       <c r="A303" s="40" t="n">
         <v>268</v>
       </c>
-      <c r="B303" s="63" t="n">
+      <c r="B303" s="12" t="n">
         <v>44</v>
       </c>
-      <c r="C303" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D303" s="63" t="s">
+      <c r="C303" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D303" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E303" s="66" t="s">
@@ -7429,13 +7508,13 @@
       <c r="A304" s="40" t="n">
         <v>269</v>
       </c>
-      <c r="B304" s="63" t="n">
+      <c r="B304" s="12" t="n">
         <v>32</v>
       </c>
       <c r="C304" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D304" s="63" t="n">
+      <c r="D304" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E304" s="66" t="s">
@@ -7443,19 +7522,716 @@
       </c>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305" s="58" t="n">
+      <c r="A305" s="40" t="n">
         <v>270</v>
       </c>
-      <c r="B305" s="64" t="n">
+      <c r="B305" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="C305" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D305" s="64" t="n">
+      <c r="C305" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D305" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="E305" s="70" t="s">
+      <c r="E305" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="40" t="n">
+        <v>271</v>
+      </c>
+      <c r="B306" s="63" t="n">
+        <v>27</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D306" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E306" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="40" t="n">
+        <v>272</v>
+      </c>
+      <c r="B307" s="63" t="n">
+        <v>28</v>
+      </c>
+      <c r="C307" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D307" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="E307" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="40" t="n">
+        <v>273</v>
+      </c>
+      <c r="B308" s="63" t="n">
+        <v>49</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D308" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E308" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="40" t="n">
+        <v>274</v>
+      </c>
+      <c r="B309" s="63" t="n">
+        <v>65</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D309" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E309" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="40" t="n">
+        <v>275</v>
+      </c>
+      <c r="B310" s="63" t="n">
+        <v>63</v>
+      </c>
+      <c r="C310" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D310" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E310" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="40" t="n">
+        <v>276</v>
+      </c>
+      <c r="B311" s="63" t="n">
+        <v>32</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D311" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="E311" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="40" t="n">
+        <v>277</v>
+      </c>
+      <c r="B312" s="63" t="n">
+        <v>80</v>
+      </c>
+      <c r="C312" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D312" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E312" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="40" t="n">
+        <v>278</v>
+      </c>
+      <c r="B313" s="63" t="n">
+        <v>43</v>
+      </c>
+      <c r="C313" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D313" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E313" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="40" t="n">
+        <v>279</v>
+      </c>
+      <c r="B314" s="63" t="n">
+        <v>26</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D314" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E314" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="40" t="n">
+        <v>280</v>
+      </c>
+      <c r="B315" s="63" t="n">
+        <v>28</v>
+      </c>
+      <c r="C315" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D315" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E315" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="40" t="n">
+        <v>281</v>
+      </c>
+      <c r="B316" s="63" t="n">
+        <v>33</v>
+      </c>
+      <c r="C316" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D316" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="E316" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="40" t="n">
+        <v>282</v>
+      </c>
+      <c r="B317" s="63" t="n">
+        <v>50</v>
+      </c>
+      <c r="C317" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D317" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="E317" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="40" t="n">
+        <v>283</v>
+      </c>
+      <c r="B318" s="63" t="n">
+        <v>39</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D318" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E318" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="40" t="n">
+        <v>284</v>
+      </c>
+      <c r="B319" s="63" t="n">
+        <v>19</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D319" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E319" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="40" t="n">
+        <v>285</v>
+      </c>
+      <c r="B320" s="63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C320" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D320" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E320" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="40" t="n">
+        <v>286</v>
+      </c>
+      <c r="B321" s="63" t="n">
+        <v>53</v>
+      </c>
+      <c r="C321" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D321" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E321" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="40" t="n">
+        <v>287</v>
+      </c>
+      <c r="B322" s="63" t="n">
+        <v>29</v>
+      </c>
+      <c r="C322" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D322" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="E322" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="40" t="n">
+        <v>288</v>
+      </c>
+      <c r="B323" s="63" t="n">
+        <v>76</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D323" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="E323" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="40" t="n">
+        <v>289</v>
+      </c>
+      <c r="B324" s="63" t="n">
+        <v>40</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D324" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E324" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="40" t="n">
+        <v>290</v>
+      </c>
+      <c r="B325" s="63" t="n">
+        <v>60</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D325" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E325" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="40" t="n">
+        <v>291</v>
+      </c>
+      <c r="B326" s="63" t="n">
+        <v>71</v>
+      </c>
+      <c r="C326" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D326" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E326" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="40" t="n">
+        <v>292</v>
+      </c>
+      <c r="B327" s="63" t="n">
+        <v>79</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D327" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="E327" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="40" t="n">
+        <v>293</v>
+      </c>
+      <c r="B328" s="63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D328" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E328" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="40" t="n">
+        <v>294</v>
+      </c>
+      <c r="B329" s="63" t="n">
+        <v>72</v>
+      </c>
+      <c r="C329" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D329" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="E329" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="40" t="n">
+        <v>295</v>
+      </c>
+      <c r="B330" s="63" t="n">
+        <v>50</v>
+      </c>
+      <c r="C330" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D330" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="E330" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="40" t="n">
+        <v>296</v>
+      </c>
+      <c r="B331" s="63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C331" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D331" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="E331" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="40" t="n">
+        <v>297</v>
+      </c>
+      <c r="B332" s="63" t="n">
+        <v>47</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D332" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E332" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="40" t="n">
+        <v>298</v>
+      </c>
+      <c r="B333" s="63" t="n">
+        <v>71</v>
+      </c>
+      <c r="C333" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D333" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E333" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="40" t="n">
+        <v>299</v>
+      </c>
+      <c r="B334" s="63" t="n">
+        <v>34</v>
+      </c>
+      <c r="C334" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D334" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E334" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="40" t="n">
+        <v>300</v>
+      </c>
+      <c r="B335" s="63" t="n">
+        <v>63</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D335" s="63" t="n">
+        <v>21</v>
+      </c>
+      <c r="E335" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="40" t="n">
+        <v>301</v>
+      </c>
+      <c r="B336" s="63" t="n">
+        <v>42</v>
+      </c>
+      <c r="C336" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D336" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="E336" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="40" t="n">
+        <v>302</v>
+      </c>
+      <c r="B337" s="63" t="n">
+        <v>55</v>
+      </c>
+      <c r="C337" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D337" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E337" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="40" t="n">
+        <v>303</v>
+      </c>
+      <c r="B338" s="63" t="n">
+        <v>33</v>
+      </c>
+      <c r="C338" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D338" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="E338" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="40" t="n">
+        <v>304</v>
+      </c>
+      <c r="B339" s="63" t="n">
+        <v>73</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D339" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="E339" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="40" t="n">
+        <v>305</v>
+      </c>
+      <c r="B340" s="63" t="n">
+        <v>49</v>
+      </c>
+      <c r="C340" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D340" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="E340" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="40" t="n">
+        <v>306</v>
+      </c>
+      <c r="B341" s="63" t="n">
+        <v>67</v>
+      </c>
+      <c r="C341" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D341" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E341" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="40" t="n">
+        <v>307</v>
+      </c>
+      <c r="B342" s="63" t="n">
+        <v>30</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D342" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E342" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="40" t="n">
+        <v>308</v>
+      </c>
+      <c r="B343" s="63" t="n">
+        <v>30</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D343" s="63" t="n">
+        <v>21</v>
+      </c>
+      <c r="E343" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="40" t="n">
+        <v>309</v>
+      </c>
+      <c r="B344" s="63" t="n">
+        <v>44</v>
+      </c>
+      <c r="C344" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D344" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E344" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="40" t="n">
+        <v>310</v>
+      </c>
+      <c r="B345" s="63" t="n">
+        <v>65</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D345" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E345" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="58" t="n">
+        <v>311</v>
+      </c>
+      <c r="B346" s="64" t="n">
+        <v>52</v>
+      </c>
+      <c r="C346" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D346" s="64" t="n">
+        <v>21</v>
+      </c>
+      <c r="E346" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7469,7 +8245,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1588791772" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1588954570" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7478,16 +8254,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1588791772" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1588791772" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1588791772" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1588791772" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1588954570" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1588954570" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1588954570" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1588954570" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1588791772" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1588954570" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1588954570" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1588954570" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1588954570" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1588954570"/>
+      <pm:revision xmlns:pm="smNativeData" day="1589227222" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1589227222" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1589227222" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1589227222"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="197">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -596,6 +596,24 @@
   </si>
   <si>
     <t xml:space="preserve"> 12, 20, 21, 26</t>
+  </si>
+  <si>
+    <t>10, 16, 18</t>
+  </si>
+  <si>
+    <t>10, 11, 15, 18,  23</t>
+  </si>
+  <si>
+    <t>15, 21</t>
+  </si>
+  <si>
+    <t>14, 18, 23</t>
+  </si>
+  <si>
+    <t>11, 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14, 20, 21 </t>
   </si>
 </sst>
 </file>
@@ -620,7 +638,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1588954570" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589227222" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -636,7 +654,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1588954570" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589227222" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -670,7 +688,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -681,7 +699,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -692,7 +710,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -703,7 +721,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -717,7 +735,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -734,7 +752,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -757,7 +775,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -768,7 +786,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -779,7 +797,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -802,7 +820,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -813,7 +831,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -851,7 +869,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -862,7 +880,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -879,7 +897,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1588954570" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -919,7 +937,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570"/>
+          <pm:border xmlns:pm="smNativeData" id="1589227222"/>
         </ext>
       </extLst>
     </border>
@@ -938,7 +956,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -962,7 +980,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -986,7 +1004,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1009,7 +1027,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1031,7 +1049,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1055,7 +1073,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1079,7 +1097,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1103,7 +1121,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1127,7 +1145,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1150,7 +1168,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1174,7 +1192,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1197,7 +1215,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1221,7 +1239,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1245,7 +1263,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1268,7 +1286,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1292,7 +1310,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1316,7 +1334,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1340,7 +1358,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1363,7 +1381,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1386,7 +1404,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1409,7 +1427,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1433,7 +1451,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1457,7 +1475,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1481,7 +1499,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1504,7 +1522,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1527,7 +1545,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1550,7 +1568,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1573,7 +1591,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1594,7 +1612,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1617,7 +1635,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1641,7 +1659,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1665,7 +1683,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1688,7 +1706,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1710,7 +1728,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1733,7 +1751,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1757,7 +1775,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1780,7 +1798,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1803,7 +1821,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1826,7 +1844,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1848,7 +1866,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570"/>
+          <pm:border xmlns:pm="smNativeData" id="1589227222"/>
         </ext>
       </extLst>
     </border>
@@ -1867,7 +1885,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1889,7 +1907,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1910,7 +1928,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1931,7 +1949,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1953,7 +1971,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1974,7 +1992,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1588954570">
+          <pm:border xmlns:pm="smNativeData" id="1589227222">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2186,10 +2204,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1588954570" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1589227222" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1588954570" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1589227222" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2456,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H346"/>
+  <dimension ref="A1:H356"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F333" sqref="F333"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="F338" sqref="F338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -7542,13 +7560,13 @@
       <c r="A306" s="40" t="n">
         <v>271</v>
       </c>
-      <c r="B306" s="63" t="n">
+      <c r="B306" s="12" t="n">
         <v>27</v>
       </c>
       <c r="C306" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D306" s="63" t="s">
+      <c r="D306" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E306" s="66" t="s">
@@ -7559,13 +7577,13 @@
       <c r="A307" s="40" t="n">
         <v>272</v>
       </c>
-      <c r="B307" s="63" t="n">
+      <c r="B307" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="C307" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D307" s="63" t="s">
+      <c r="C307" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D307" s="12" t="s">
         <v>165</v>
       </c>
       <c r="E307" s="66" t="s">
@@ -7576,13 +7594,13 @@
       <c r="A308" s="40" t="n">
         <v>273</v>
       </c>
-      <c r="B308" s="63" t="n">
+      <c r="B308" s="12" t="n">
         <v>49</v>
       </c>
       <c r="C308" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D308" s="63" t="s">
+      <c r="D308" s="12" t="s">
         <v>166</v>
       </c>
       <c r="E308" s="66" t="s">
@@ -7593,13 +7611,13 @@
       <c r="A309" s="40" t="n">
         <v>274</v>
       </c>
-      <c r="B309" s="63" t="n">
+      <c r="B309" s="12" t="n">
         <v>65</v>
       </c>
       <c r="C309" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D309" s="63" t="s">
+      <c r="D309" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E309" s="66" t="s">
@@ -7610,13 +7628,13 @@
       <c r="A310" s="40" t="n">
         <v>275</v>
       </c>
-      <c r="B310" s="63" t="n">
+      <c r="B310" s="12" t="n">
         <v>63</v>
       </c>
-      <c r="C310" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D310" s="63" t="s">
+      <c r="C310" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D310" s="12" t="s">
         <v>167</v>
       </c>
       <c r="E310" s="66" t="s">
@@ -7627,13 +7645,13 @@
       <c r="A311" s="40" t="n">
         <v>276</v>
       </c>
-      <c r="B311" s="63" t="n">
+      <c r="B311" s="12" t="n">
         <v>32</v>
       </c>
       <c r="C311" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D311" s="63" t="s">
+      <c r="D311" s="12" t="s">
         <v>168</v>
       </c>
       <c r="E311" s="66" t="s">
@@ -7644,13 +7662,13 @@
       <c r="A312" s="40" t="n">
         <v>277</v>
       </c>
-      <c r="B312" s="63" t="n">
+      <c r="B312" s="12" t="n">
         <v>80</v>
       </c>
-      <c r="C312" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D312" s="63" t="s">
+      <c r="C312" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D312" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E312" s="66" t="s">
@@ -7661,13 +7679,13 @@
       <c r="A313" s="40" t="n">
         <v>278</v>
       </c>
-      <c r="B313" s="63" t="n">
+      <c r="B313" s="12" t="n">
         <v>43</v>
       </c>
-      <c r="C313" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D313" s="63" t="s">
+      <c r="C313" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D313" s="12" t="s">
         <v>169</v>
       </c>
       <c r="E313" s="66" t="s">
@@ -7678,13 +7696,13 @@
       <c r="A314" s="40" t="n">
         <v>279</v>
       </c>
-      <c r="B314" s="63" t="n">
+      <c r="B314" s="12" t="n">
         <v>26</v>
       </c>
       <c r="C314" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D314" s="63" t="s">
+      <c r="D314" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E314" s="66" t="s">
@@ -7695,13 +7713,13 @@
       <c r="A315" s="40" t="n">
         <v>280</v>
       </c>
-      <c r="B315" s="63" t="n">
+      <c r="B315" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="C315" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D315" s="63" t="s">
+      <c r="C315" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D315" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E315" s="66" t="s">
@@ -7712,13 +7730,13 @@
       <c r="A316" s="40" t="n">
         <v>281</v>
       </c>
-      <c r="B316" s="63" t="n">
+      <c r="B316" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="C316" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D316" s="63" t="s">
+      <c r="C316" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D316" s="12" t="s">
         <v>170</v>
       </c>
       <c r="E316" s="66" t="s">
@@ -7729,13 +7747,13 @@
       <c r="A317" s="40" t="n">
         <v>282</v>
       </c>
-      <c r="B317" s="63" t="n">
+      <c r="B317" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="C317" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D317" s="63" t="s">
+      <c r="C317" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D317" s="12" t="s">
         <v>168</v>
       </c>
       <c r="E317" s="66" t="s">
@@ -7746,13 +7764,13 @@
       <c r="A318" s="40" t="n">
         <v>283</v>
       </c>
-      <c r="B318" s="63" t="n">
+      <c r="B318" s="12" t="n">
         <v>39</v>
       </c>
       <c r="C318" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D318" s="63" t="s">
+      <c r="D318" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E318" s="66" t="s">
@@ -7763,13 +7781,13 @@
       <c r="A319" s="40" t="n">
         <v>284</v>
       </c>
-      <c r="B319" s="63" t="n">
+      <c r="B319" s="12" t="n">
         <v>19</v>
       </c>
       <c r="C319" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D319" s="63" t="s">
+      <c r="D319" s="12" t="s">
         <v>171</v>
       </c>
       <c r="E319" s="66" t="s">
@@ -7780,13 +7798,13 @@
       <c r="A320" s="40" t="n">
         <v>285</v>
       </c>
-      <c r="B320" s="63" t="n">
+      <c r="B320" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="C320" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D320" s="63" t="s">
+      <c r="C320" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D320" s="12" t="s">
         <v>172</v>
       </c>
       <c r="E320" s="66" t="s">
@@ -7797,13 +7815,13 @@
       <c r="A321" s="40" t="n">
         <v>286</v>
       </c>
-      <c r="B321" s="63" t="n">
+      <c r="B321" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="C321" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D321" s="63" t="s">
+      <c r="C321" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D321" s="12" t="s">
         <v>173</v>
       </c>
       <c r="E321" s="66" t="s">
@@ -7814,13 +7832,13 @@
       <c r="A322" s="40" t="n">
         <v>287</v>
       </c>
-      <c r="B322" s="63" t="n">
+      <c r="B322" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="C322" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D322" s="63" t="s">
+      <c r="C322" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D322" s="12" t="s">
         <v>174</v>
       </c>
       <c r="E322" s="66" t="s">
@@ -7831,13 +7849,13 @@
       <c r="A323" s="40" t="n">
         <v>288</v>
       </c>
-      <c r="B323" s="63" t="n">
+      <c r="B323" s="12" t="n">
         <v>76</v>
       </c>
       <c r="C323" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D323" s="63" t="s">
+      <c r="D323" s="12" t="s">
         <v>175</v>
       </c>
       <c r="E323" s="66" t="s">
@@ -7848,13 +7866,13 @@
       <c r="A324" s="40" t="n">
         <v>289</v>
       </c>
-      <c r="B324" s="63" t="n">
+      <c r="B324" s="12" t="n">
         <v>40</v>
       </c>
       <c r="C324" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D324" s="63" t="s">
+      <c r="D324" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E324" s="66" t="s">
@@ -7865,13 +7883,13 @@
       <c r="A325" s="40" t="n">
         <v>290</v>
       </c>
-      <c r="B325" s="63" t="n">
+      <c r="B325" s="12" t="n">
         <v>60</v>
       </c>
       <c r="C325" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D325" s="63" t="s">
+      <c r="D325" s="12" t="s">
         <v>176</v>
       </c>
       <c r="E325" s="66" t="s">
@@ -7882,13 +7900,13 @@
       <c r="A326" s="40" t="n">
         <v>291</v>
       </c>
-      <c r="B326" s="63" t="n">
+      <c r="B326" s="12" t="n">
         <v>71</v>
       </c>
-      <c r="C326" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D326" s="63" t="s">
+      <c r="C326" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D326" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E326" s="66" t="s">
@@ -7899,13 +7917,13 @@
       <c r="A327" s="40" t="n">
         <v>292</v>
       </c>
-      <c r="B327" s="63" t="n">
+      <c r="B327" s="12" t="n">
         <v>79</v>
       </c>
       <c r="C327" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D327" s="63" t="s">
+      <c r="D327" s="12" t="s">
         <v>178</v>
       </c>
       <c r="E327" s="66" t="s">
@@ -7916,13 +7934,13 @@
       <c r="A328" s="40" t="n">
         <v>293</v>
       </c>
-      <c r="B328" s="63" t="n">
+      <c r="B328" s="12" t="n">
         <v>64</v>
       </c>
       <c r="C328" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D328" s="63" t="s">
+      <c r="D328" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E328" s="66" t="s">
@@ -7933,13 +7951,13 @@
       <c r="A329" s="40" t="n">
         <v>294</v>
       </c>
-      <c r="B329" s="63" t="n">
+      <c r="B329" s="12" t="n">
         <v>72</v>
       </c>
-      <c r="C329" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D329" s="63" t="s">
+      <c r="C329" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D329" s="12" t="s">
         <v>179</v>
       </c>
       <c r="E329" s="66" t="s">
@@ -7950,13 +7968,13 @@
       <c r="A330" s="40" t="n">
         <v>295</v>
       </c>
-      <c r="B330" s="63" t="n">
+      <c r="B330" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="C330" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D330" s="63" t="s">
+      <c r="C330" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D330" s="12" t="s">
         <v>180</v>
       </c>
       <c r="E330" s="66" t="s">
@@ -7967,13 +7985,13 @@
       <c r="A331" s="40" t="n">
         <v>296</v>
       </c>
-      <c r="B331" s="63" t="n">
+      <c r="B331" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="C331" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D331" s="63" t="s">
+      <c r="C331" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D331" s="12" t="s">
         <v>181</v>
       </c>
       <c r="E331" s="66" t="s">
@@ -7984,13 +8002,13 @@
       <c r="A332" s="40" t="n">
         <v>297</v>
       </c>
-      <c r="B332" s="63" t="n">
+      <c r="B332" s="12" t="n">
         <v>47</v>
       </c>
       <c r="C332" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D332" s="63" t="s">
+      <c r="D332" s="12" t="s">
         <v>182</v>
       </c>
       <c r="E332" s="66" t="s">
@@ -8001,13 +8019,13 @@
       <c r="A333" s="40" t="n">
         <v>298</v>
       </c>
-      <c r="B333" s="63" t="n">
+      <c r="B333" s="12" t="n">
         <v>71</v>
       </c>
       <c r="C333" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D333" s="63" t="s">
+      <c r="D333" s="12" t="s">
         <v>183</v>
       </c>
       <c r="E333" s="66" t="s">
@@ -8018,13 +8036,13 @@
       <c r="A334" s="40" t="n">
         <v>299</v>
       </c>
-      <c r="B334" s="63" t="n">
+      <c r="B334" s="12" t="n">
         <v>34</v>
       </c>
       <c r="C334" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D334" s="63" t="s">
+      <c r="D334" s="12" t="s">
         <v>184</v>
       </c>
       <c r="E334" s="66" t="s">
@@ -8035,13 +8053,13 @@
       <c r="A335" s="40" t="n">
         <v>300</v>
       </c>
-      <c r="B335" s="63" t="n">
+      <c r="B335" s="12" t="n">
         <v>63</v>
       </c>
       <c r="C335" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D335" s="63" t="n">
+      <c r="D335" s="12" t="n">
         <v>21</v>
       </c>
       <c r="E335" s="66" t="s">
@@ -8052,13 +8070,13 @@
       <c r="A336" s="40" t="n">
         <v>301</v>
       </c>
-      <c r="B336" s="63" t="n">
+      <c r="B336" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="C336" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D336" s="63" t="s">
+      <c r="C336" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D336" s="12" t="s">
         <v>185</v>
       </c>
       <c r="E336" s="66" t="s">
@@ -8069,13 +8087,13 @@
       <c r="A337" s="40" t="n">
         <v>302</v>
       </c>
-      <c r="B337" s="63" t="n">
+      <c r="B337" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="C337" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D337" s="63" t="s">
+      <c r="C337" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D337" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E337" s="66" t="s">
@@ -8086,13 +8104,13 @@
       <c r="A338" s="40" t="n">
         <v>303</v>
       </c>
-      <c r="B338" s="63" t="n">
+      <c r="B338" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="C338" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D338" s="63" t="s">
+      <c r="C338" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D338" s="12" t="s">
         <v>186</v>
       </c>
       <c r="E338" s="66" t="s">
@@ -8103,13 +8121,13 @@
       <c r="A339" s="40" t="n">
         <v>304</v>
       </c>
-      <c r="B339" s="63" t="n">
+      <c r="B339" s="12" t="n">
         <v>73</v>
       </c>
       <c r="C339" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D339" s="63" t="s">
+      <c r="D339" s="12" t="s">
         <v>185</v>
       </c>
       <c r="E339" s="66" t="s">
@@ -8120,13 +8138,13 @@
       <c r="A340" s="40" t="n">
         <v>305</v>
       </c>
-      <c r="B340" s="63" t="n">
+      <c r="B340" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="C340" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D340" s="63" t="s">
+      <c r="C340" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D340" s="12" t="s">
         <v>187</v>
       </c>
       <c r="E340" s="66" t="s">
@@ -8137,13 +8155,13 @@
       <c r="A341" s="40" t="n">
         <v>306</v>
       </c>
-      <c r="B341" s="63" t="n">
+      <c r="B341" s="12" t="n">
         <v>67</v>
       </c>
-      <c r="C341" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D341" s="63" t="s">
+      <c r="C341" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D341" s="12" t="s">
         <v>188</v>
       </c>
       <c r="E341" s="66" t="s">
@@ -8154,13 +8172,13 @@
       <c r="A342" s="40" t="n">
         <v>307</v>
       </c>
-      <c r="B342" s="63" t="n">
+      <c r="B342" s="12" t="n">
         <v>30</v>
       </c>
       <c r="C342" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D342" s="63" t="s">
+      <c r="D342" s="12" t="s">
         <v>189</v>
       </c>
       <c r="E342" s="66" t="s">
@@ -8171,13 +8189,13 @@
       <c r="A343" s="40" t="n">
         <v>308</v>
       </c>
-      <c r="B343" s="63" t="n">
+      <c r="B343" s="12" t="n">
         <v>30</v>
       </c>
       <c r="C343" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D343" s="63" t="n">
+      <c r="D343" s="12" t="n">
         <v>21</v>
       </c>
       <c r="E343" s="66" t="s">
@@ -8188,13 +8206,13 @@
       <c r="A344" s="40" t="n">
         <v>309</v>
       </c>
-      <c r="B344" s="63" t="n">
+      <c r="B344" s="12" t="n">
         <v>44</v>
       </c>
-      <c r="C344" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D344" s="63" t="s">
+      <c r="C344" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D344" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E344" s="66" t="s">
@@ -8205,13 +8223,13 @@
       <c r="A345" s="40" t="n">
         <v>310</v>
       </c>
-      <c r="B345" s="63" t="n">
+      <c r="B345" s="12" t="n">
         <v>65</v>
       </c>
       <c r="C345" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D345" s="63" t="s">
+      <c r="D345" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E345" s="66" t="s">
@@ -8219,19 +8237,189 @@
       </c>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="58" t="n">
+      <c r="A346" s="40" t="n">
         <v>311</v>
       </c>
-      <c r="B346" s="64" t="n">
-        <v>52</v>
-      </c>
-      <c r="C346" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D346" s="64" t="n">
+      <c r="B346" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D346" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="E346" s="70" t="s">
+      <c r="E346" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="40" t="n">
+        <v>312</v>
+      </c>
+      <c r="B347" s="63" t="n">
+        <v>52</v>
+      </c>
+      <c r="C347" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D347" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E347" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="40" t="n">
+        <v>313</v>
+      </c>
+      <c r="B348" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C348" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D348" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E348" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="40" t="n">
+        <v>314</v>
+      </c>
+      <c r="B349" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C349" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D349" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E349" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="40" t="n">
+        <v>315</v>
+      </c>
+      <c r="B350" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D350" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="E350" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="40" t="n">
+        <v>316</v>
+      </c>
+      <c r="B351" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C351" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D351" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E351" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="40" t="n">
+        <v>317</v>
+      </c>
+      <c r="B352" s="63" t="n">
+        <v>44</v>
+      </c>
+      <c r="C352" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D352" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E352" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="40" t="n">
+        <v>318</v>
+      </c>
+      <c r="B353" s="63" t="n">
+        <v>33</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D353" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E353" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="40" t="n">
+        <v>319</v>
+      </c>
+      <c r="B354" s="63" t="n">
+        <v>29</v>
+      </c>
+      <c r="C354" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D354" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="E354" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="40" t="n">
+        <v>320</v>
+      </c>
+      <c r="B355" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D355" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="E355" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="58" t="n">
+        <v>321</v>
+      </c>
+      <c r="B356" s="64" t="n">
+        <v>72</v>
+      </c>
+      <c r="C356" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D356" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="E356" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8245,7 +8433,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1588954570" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1589227222" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8254,16 +8442,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1588954570" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1588954570" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1588954570" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1588954570" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1589227222" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1589227222" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589227222" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589227222" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1588954570" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589227222" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1589227222" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1589227222" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1589227222" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1589227222"/>
+      <pm:revision xmlns:pm="smNativeData" day="1589307941" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1589307941" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1589307941" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1589307941"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="202">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -205,22 +205,16 @@
     <t>11, 12, 14</t>
   </si>
   <si>
-    <t>COVID-20</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
     <t>10, 11, 14</t>
   </si>
   <si>
-    <t>0005</t>
+    <t>0002</t>
   </si>
   <si>
     <t>13, 14</t>
   </si>
   <si>
-    <t>0006</t>
+    <t>0003</t>
   </si>
   <si>
     <t>10, 20, 21</t>
@@ -614,6 +608,27 @@
   </si>
   <si>
     <t xml:space="preserve">14, 20, 21 </t>
+  </si>
+  <si>
+    <t>10, 26, 14, 16, 18</t>
+  </si>
+  <si>
+    <t>10, 19</t>
+  </si>
+  <si>
+    <t>21, 16, 17, 10, 14, 12</t>
+  </si>
+  <si>
+    <t>16, 17</t>
+  </si>
+  <si>
+    <t>21, 10, 19</t>
+  </si>
+  <si>
+    <t>10, 19, 14, 21</t>
+  </si>
+  <si>
+    <t>18, 19, 12, 16</t>
   </si>
 </sst>
 </file>
@@ -638,7 +653,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589227222" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589307941" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -654,7 +669,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589227222" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589307941" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -663,7 +678,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,7 +703,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -699,7 +714,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -710,7 +725,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -721,7 +736,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -735,7 +750,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -752,7 +767,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -775,7 +790,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -786,7 +801,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -797,7 +812,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -820,7 +835,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -831,7 +846,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -869,7 +884,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -880,7 +895,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -897,7 +912,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589227222" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -911,17 +926,8 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="44">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -937,7 +943,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222"/>
+          <pm:border xmlns:pm="smNativeData" id="1589307941"/>
         </ext>
       </extLst>
     </border>
@@ -956,7 +962,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -980,7 +986,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1004,7 +1010,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1027,7 +1033,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1049,7 +1055,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1073,7 +1079,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1097,7 +1103,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1121,7 +1127,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1145,7 +1151,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1168,7 +1174,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1192,7 +1198,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1215,7 +1221,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1239,7 +1245,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1263,7 +1269,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1286,7 +1292,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1310,7 +1316,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1334,7 +1340,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1358,7 +1364,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1381,7 +1387,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1404,7 +1410,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1427,7 +1433,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1451,7 +1457,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1475,7 +1481,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1499,7 +1505,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1522,7 +1528,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1545,7 +1551,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1568,7 +1574,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1591,7 +1597,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1612,7 +1618,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1635,7 +1641,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1659,7 +1665,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1683,7 +1689,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1706,7 +1712,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1728,7 +1734,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1751,7 +1757,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1775,7 +1781,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1798,7 +1804,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1821,7 +1827,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1844,7 +1850,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1866,61 +1872,63 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222"/>
+          <pm:border xmlns:pm="smNativeData" id="1589307941"/>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
+      <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="thick">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
-            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
+      <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="none">
@@ -1928,73 +1936,9 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589227222">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1589307941">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -2003,7 +1947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2194,6 +2138,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2204,10 +2151,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1589227222" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1589307941" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1589227222" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1589307941" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2474,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H356"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="F338" sqref="F338"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="F363" sqref="F363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -3050,10 +2997,10 @@
         <v>54</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H41" s="67" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3067,7 +3014,7 @@
         <v>52</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>54</v>
@@ -3076,7 +3023,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3090,7 +3037,7 @@
         <v>57</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E43" s="66" t="s">
         <v>54</v>
@@ -3099,7 +3046,7 @@
         <v>16</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3113,7 +3060,7 @@
         <v>52</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44" s="66" t="s">
         <v>54</v>
@@ -3130,7 +3077,7 @@
         <v>52</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45" s="66" t="s">
         <v>54</v>
@@ -3147,7 +3094,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E46" s="66" t="s">
         <v>54</v>
@@ -3158,13 +3105,13 @@
         <v>12</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E47" s="66" t="s">
         <v>54</v>
@@ -3175,13 +3122,13 @@
         <v>13</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="E48" s="66" t="s">
         <v>54</v>
@@ -3192,13 +3139,13 @@
         <v>14</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E49" s="66" t="s">
         <v>54</v>
@@ -3209,13 +3156,13 @@
         <v>15</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E50" s="66" t="s">
         <v>54</v>
@@ -3226,7 +3173,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>57</v>
@@ -3249,7 +3196,7 @@
         <v>52</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E52" s="66" t="s">
         <v>54</v>
@@ -3266,7 +3213,7 @@
         <v>57</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E53" s="66" t="s">
         <v>54</v>
@@ -3283,7 +3230,7 @@
         <v>52</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E54" s="66" t="s">
         <v>54</v>
@@ -3300,7 +3247,7 @@
         <v>52</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E55" s="66" t="s">
         <v>54</v>
@@ -3317,7 +3264,7 @@
         <v>57</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>54</v>
@@ -3334,7 +3281,7 @@
         <v>57</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E57" s="66" t="s">
         <v>54</v>
@@ -3351,7 +3298,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E58" s="66" t="s">
         <v>54</v>
@@ -3368,7 +3315,7 @@
         <v>57</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E59" s="66" t="s">
         <v>54</v>
@@ -3385,7 +3332,7 @@
         <v>52</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E60" s="66" t="s">
         <v>54</v>
@@ -3402,7 +3349,7 @@
         <v>52</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E61" s="66" t="s">
         <v>54</v>
@@ -3419,7 +3366,7 @@
         <v>57</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E62" s="66" t="s">
         <v>54</v>
@@ -3470,7 +3417,7 @@
         <v>52</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E65" s="66" t="s">
         <v>54</v>
@@ -3521,7 +3468,7 @@
         <v>52</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E68" s="66" t="s">
         <v>54</v>
@@ -3589,7 +3536,7 @@
         <v>52</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E72" s="66" t="s">
         <v>54</v>
@@ -3606,7 +3553,7 @@
         <v>57</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E73" s="66" t="s">
         <v>54</v>
@@ -3742,7 +3689,7 @@
         <v>52</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E81" s="66" t="s">
         <v>54</v>
@@ -3776,7 +3723,7 @@
         <v>52</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E83" s="66" t="s">
         <v>54</v>
@@ -3793,7 +3740,7 @@
         <v>57</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E84" s="66" t="s">
         <v>54</v>
@@ -3810,7 +3757,7 @@
         <v>57</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E85" s="66" t="s">
         <v>54</v>
@@ -3827,7 +3774,7 @@
         <v>52</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E86" s="66" t="s">
         <v>54</v>
@@ -3861,7 +3808,7 @@
         <v>52</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E88" s="66" t="s">
         <v>54</v>
@@ -3929,7 +3876,7 @@
         <v>52</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E92" s="66" t="s">
         <v>54</v>
@@ -3963,7 +3910,7 @@
         <v>52</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E94" s="66" t="s">
         <v>54</v>
@@ -3980,7 +3927,7 @@
         <v>52</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E95" s="66" t="s">
         <v>54</v>
@@ -4031,7 +3978,7 @@
         <v>52</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E98" s="66" t="s">
         <v>54</v>
@@ -4082,7 +4029,7 @@
         <v>52</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E101" s="66" t="s">
         <v>54</v>
@@ -4116,7 +4063,7 @@
         <v>52</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E103" s="66" t="s">
         <v>54</v>
@@ -4167,7 +4114,7 @@
         <v>52</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E106" s="66" t="s">
         <v>54</v>
@@ -4184,7 +4131,7 @@
         <v>52</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E107" s="66" t="s">
         <v>54</v>
@@ -4201,7 +4148,7 @@
         <v>52</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E108" s="66" t="s">
         <v>54</v>
@@ -4218,7 +4165,7 @@
         <v>52</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E109" s="66" t="s">
         <v>54</v>
@@ -4235,7 +4182,7 @@
         <v>57</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E110" s="66" t="s">
         <v>54</v>
@@ -4252,7 +4199,7 @@
         <v>57</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E111" s="66" t="s">
         <v>54</v>
@@ -4269,7 +4216,7 @@
         <v>57</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E112" s="66" t="s">
         <v>54</v>
@@ -4286,7 +4233,7 @@
         <v>52</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E113" s="66" t="s">
         <v>54</v>
@@ -4320,7 +4267,7 @@
         <v>52</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E115" s="66" t="s">
         <v>54</v>
@@ -4422,7 +4369,7 @@
         <v>57</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E121" s="66" t="s">
         <v>54</v>
@@ -4439,7 +4386,7 @@
         <v>57</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E122" s="66" t="s">
         <v>54</v>
@@ -4473,7 +4420,7 @@
         <v>52</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E124" s="66" t="s">
         <v>54</v>
@@ -4490,7 +4437,7 @@
         <v>52</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E125" s="66" t="s">
         <v>54</v>
@@ -4507,7 +4454,7 @@
         <v>57</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E126" s="66" t="s">
         <v>54</v>
@@ -4524,7 +4471,7 @@
         <v>52</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E127" s="66" t="s">
         <v>54</v>
@@ -4541,7 +4488,7 @@
         <v>52</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E128" s="66" t="s">
         <v>54</v>
@@ -4558,7 +4505,7 @@
         <v>52</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E129" s="66" t="s">
         <v>54</v>
@@ -4592,7 +4539,7 @@
         <v>57</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E131" s="66" t="s">
         <v>54</v>
@@ -4609,7 +4556,7 @@
         <v>57</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E132" s="66" t="s">
         <v>54</v>
@@ -4643,7 +4590,7 @@
         <v>52</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E134" s="66" t="s">
         <v>54</v>
@@ -4677,7 +4624,7 @@
         <v>57</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E136" s="66" t="s">
         <v>54</v>
@@ -4694,7 +4641,7 @@
         <v>57</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E137" s="66" t="s">
         <v>54</v>
@@ -4711,7 +4658,7 @@
         <v>57</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E138" s="66" t="s">
         <v>54</v>
@@ -4745,7 +4692,7 @@
         <v>57</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E140" s="66" t="s">
         <v>54</v>
@@ -4779,7 +4726,7 @@
         <v>52</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E142" s="66" t="s">
         <v>54</v>
@@ -4847,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E146" s="66" t="s">
         <v>54</v>
@@ -4898,7 +4845,7 @@
         <v>52</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E149" s="66" t="s">
         <v>54</v>
@@ -4915,7 +4862,7 @@
         <v>52</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E150" s="66" t="s">
         <v>54</v>
@@ -4932,7 +4879,7 @@
         <v>52</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E151" s="66" t="s">
         <v>54</v>
@@ -4949,7 +4896,7 @@
         <v>57</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E152" s="66" t="s">
         <v>54</v>
@@ -5017,7 +4964,7 @@
         <v>52</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E156" s="66" t="s">
         <v>54</v>
@@ -5034,7 +4981,7 @@
         <v>52</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E157" s="66" t="s">
         <v>54</v>
@@ -5051,7 +4998,7 @@
         <v>52</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E158" s="66" t="s">
         <v>54</v>
@@ -5068,7 +5015,7 @@
         <v>52</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E159" s="66" t="s">
         <v>54</v>
@@ -5085,7 +5032,7 @@
         <v>57</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E160" s="66" t="s">
         <v>54</v>
@@ -5102,7 +5049,7 @@
         <v>57</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E161" s="66" t="s">
         <v>54</v>
@@ -5119,7 +5066,7 @@
         <v>57</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E162" s="66" t="s">
         <v>54</v>
@@ -5136,7 +5083,7 @@
         <v>52</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E163" s="66" t="s">
         <v>54</v>
@@ -5238,7 +5185,7 @@
         <v>57</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E169" s="66" t="s">
         <v>54</v>
@@ -5306,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E173" s="66" t="s">
         <v>54</v>
@@ -5323,7 +5270,7 @@
         <v>57</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E174" s="66" t="s">
         <v>54</v>
@@ -5357,7 +5304,7 @@
         <v>57</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E176" s="66" t="s">
         <v>54</v>
@@ -5374,7 +5321,7 @@
         <v>57</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E177" s="66" t="s">
         <v>54</v>
@@ -5408,7 +5355,7 @@
         <v>57</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E179" s="66" t="s">
         <v>54</v>
@@ -5425,7 +5372,7 @@
         <v>52</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E180" s="66" t="s">
         <v>54</v>
@@ -5442,7 +5389,7 @@
         <v>52</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E181" s="66" t="s">
         <v>54</v>
@@ -5459,7 +5406,7 @@
         <v>52</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E182" s="66" t="s">
         <v>54</v>
@@ -5476,7 +5423,7 @@
         <v>52</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E183" s="66" t="s">
         <v>54</v>
@@ -5493,7 +5440,7 @@
         <v>57</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E184" s="66" t="s">
         <v>54</v>
@@ -5510,7 +5457,7 @@
         <v>52</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E185" s="66" t="s">
         <v>54</v>
@@ -5527,7 +5474,7 @@
         <v>57</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E186" s="66" t="s">
         <v>54</v>
@@ -5561,7 +5508,7 @@
         <v>52</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E188" s="66" t="s">
         <v>54</v>
@@ -5578,7 +5525,7 @@
         <v>57</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E189" s="66" t="s">
         <v>54</v>
@@ -5595,7 +5542,7 @@
         <v>52</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E190" s="66" t="s">
         <v>54</v>
@@ -5612,7 +5559,7 @@
         <v>52</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E191" s="66" t="s">
         <v>54</v>
@@ -5646,7 +5593,7 @@
         <v>52</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E193" s="66" t="s">
         <v>54</v>
@@ -5663,7 +5610,7 @@
         <v>52</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E194" s="66" t="s">
         <v>54</v>
@@ -5680,7 +5627,7 @@
         <v>52</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E195" s="66" t="s">
         <v>54</v>
@@ -5731,7 +5678,7 @@
         <v>52</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E198" s="66" t="s">
         <v>54</v>
@@ -5782,7 +5729,7 @@
         <v>52</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E201" s="66" t="s">
         <v>54</v>
@@ -5799,7 +5746,7 @@
         <v>52</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E202" s="66" t="s">
         <v>54</v>
@@ -5816,7 +5763,7 @@
         <v>52</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E203" s="66" t="s">
         <v>54</v>
@@ -5833,7 +5780,7 @@
         <v>57</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E204" s="66" t="s">
         <v>54</v>
@@ -5867,7 +5814,7 @@
         <v>52</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E206" s="66" t="s">
         <v>54</v>
@@ -5901,7 +5848,7 @@
         <v>57</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E208" s="66" t="s">
         <v>54</v>
@@ -5986,7 +5933,7 @@
         <v>57</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E213" s="66" t="s">
         <v>54</v>
@@ -6003,7 +5950,7 @@
         <v>57</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E214" s="66" t="s">
         <v>54</v>
@@ -6037,7 +5984,7 @@
         <v>57</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E216" s="66" t="s">
         <v>54</v>
@@ -6071,7 +6018,7 @@
         <v>57</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E218" s="66" t="s">
         <v>54</v>
@@ -6088,7 +6035,7 @@
         <v>52</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E219" s="66" t="s">
         <v>54</v>
@@ -6105,7 +6052,7 @@
         <v>52</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E220" s="66" t="s">
         <v>54</v>
@@ -6122,7 +6069,7 @@
         <v>52</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E221" s="66" t="s">
         <v>54</v>
@@ -6207,7 +6154,7 @@
         <v>57</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E226" s="66" t="s">
         <v>54</v>
@@ -6241,7 +6188,7 @@
         <v>57</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E228" s="66" t="s">
         <v>54</v>
@@ -6275,7 +6222,7 @@
         <v>52</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E230" s="66" t="s">
         <v>54</v>
@@ -6309,7 +6256,7 @@
         <v>57</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E232" s="66" t="s">
         <v>54</v>
@@ -6377,7 +6324,7 @@
         <v>52</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E236" s="66" t="s">
         <v>54</v>
@@ -6394,7 +6341,7 @@
         <v>57</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E237" s="66" t="s">
         <v>54</v>
@@ -6445,7 +6392,7 @@
         <v>57</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E240" s="66" t="s">
         <v>54</v>
@@ -6462,7 +6409,7 @@
         <v>52</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E241" s="66" t="s">
         <v>54</v>
@@ -6547,7 +6494,7 @@
         <v>52</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E246" s="66" t="s">
         <v>54</v>
@@ -6564,7 +6511,7 @@
         <v>57</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E247" s="66" t="s">
         <v>54</v>
@@ -6615,7 +6562,7 @@
         <v>57</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E250" s="66" t="s">
         <v>54</v>
@@ -6632,7 +6579,7 @@
         <v>52</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E251" s="66" t="s">
         <v>54</v>
@@ -6700,7 +6647,7 @@
         <v>57</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E255" s="66" t="s">
         <v>54</v>
@@ -6734,7 +6681,7 @@
         <v>52</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E257" s="66" t="s">
         <v>54</v>
@@ -6768,7 +6715,7 @@
         <v>52</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E259" s="66" t="s">
         <v>54</v>
@@ -6938,7 +6885,7 @@
         <v>52</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E269" s="66" t="s">
         <v>54</v>
@@ -6955,7 +6902,7 @@
         <v>52</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E270" s="66" t="s">
         <v>54</v>
@@ -7023,7 +6970,7 @@
         <v>52</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E274" s="66" t="s">
         <v>54</v>
@@ -7040,7 +6987,7 @@
         <v>52</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E275" s="66" t="s">
         <v>54</v>
@@ -7074,7 +7021,7 @@
         <v>57</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E277" s="66" t="s">
         <v>54</v>
@@ -7091,7 +7038,7 @@
         <v>52</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E278" s="66" t="s">
         <v>54</v>
@@ -7108,7 +7055,7 @@
         <v>57</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E279" s="66" t="s">
         <v>54</v>
@@ -7125,7 +7072,7 @@
         <v>57</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E280" s="66" t="s">
         <v>54</v>
@@ -7210,7 +7157,7 @@
         <v>52</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E285" s="66" t="s">
         <v>54</v>
@@ -7244,7 +7191,7 @@
         <v>52</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E287" s="66" t="s">
         <v>54</v>
@@ -7261,7 +7208,7 @@
         <v>57</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E288" s="66" t="s">
         <v>54</v>
@@ -7312,7 +7259,7 @@
         <v>52</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E291" s="66" t="s">
         <v>54</v>
@@ -7329,7 +7276,7 @@
         <v>52</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E292" s="66" t="s">
         <v>54</v>
@@ -7346,7 +7293,7 @@
         <v>57</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E293" s="66" t="s">
         <v>54</v>
@@ -7397,7 +7344,7 @@
         <v>57</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E296" s="66" t="s">
         <v>54</v>
@@ -7516,7 +7463,7 @@
         <v>52</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E303" s="66" t="s">
         <v>54</v>
@@ -7567,7 +7514,7 @@
         <v>57</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E306" s="66" t="s">
         <v>54</v>
@@ -7584,7 +7531,7 @@
         <v>52</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E307" s="66" t="s">
         <v>54</v>
@@ -7601,7 +7548,7 @@
         <v>57</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E308" s="66" t="s">
         <v>54</v>
@@ -7618,7 +7565,7 @@
         <v>57</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E309" s="66" t="s">
         <v>54</v>
@@ -7635,7 +7582,7 @@
         <v>52</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E310" s="66" t="s">
         <v>54</v>
@@ -7652,7 +7599,7 @@
         <v>57</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E311" s="66" t="s">
         <v>54</v>
@@ -7669,7 +7616,7 @@
         <v>52</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E312" s="66" t="s">
         <v>54</v>
@@ -7686,7 +7633,7 @@
         <v>52</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E313" s="66" t="s">
         <v>54</v>
@@ -7703,7 +7650,7 @@
         <v>57</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E314" s="66" t="s">
         <v>54</v>
@@ -7720,7 +7667,7 @@
         <v>52</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E315" s="66" t="s">
         <v>54</v>
@@ -7737,7 +7684,7 @@
         <v>52</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E316" s="66" t="s">
         <v>54</v>
@@ -7754,7 +7701,7 @@
         <v>52</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E317" s="66" t="s">
         <v>54</v>
@@ -7771,7 +7718,7 @@
         <v>57</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E318" s="66" t="s">
         <v>54</v>
@@ -7788,7 +7735,7 @@
         <v>57</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E319" s="66" t="s">
         <v>54</v>
@@ -7805,7 +7752,7 @@
         <v>52</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E320" s="66" t="s">
         <v>54</v>
@@ -7822,7 +7769,7 @@
         <v>52</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E321" s="66" t="s">
         <v>54</v>
@@ -7839,7 +7786,7 @@
         <v>52</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E322" s="66" t="s">
         <v>54</v>
@@ -7856,7 +7803,7 @@
         <v>57</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E323" s="66" t="s">
         <v>54</v>
@@ -7873,7 +7820,7 @@
         <v>52</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E324" s="66" t="s">
         <v>54</v>
@@ -7890,7 +7837,7 @@
         <v>57</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E325" s="66" t="s">
         <v>54</v>
@@ -7907,7 +7854,7 @@
         <v>52</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E326" s="66" t="s">
         <v>54</v>
@@ -7924,7 +7871,7 @@
         <v>57</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E327" s="66" t="s">
         <v>54</v>
@@ -7941,7 +7888,7 @@
         <v>57</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E328" s="66" t="s">
         <v>54</v>
@@ -7958,7 +7905,7 @@
         <v>52</v>
       </c>
       <c r="D329" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E329" s="66" t="s">
         <v>54</v>
@@ -7975,7 +7922,7 @@
         <v>52</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E330" s="66" t="s">
         <v>54</v>
@@ -7992,7 +7939,7 @@
         <v>52</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E331" s="66" t="s">
         <v>54</v>
@@ -8009,7 +7956,7 @@
         <v>57</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E332" s="66" t="s">
         <v>54</v>
@@ -8026,7 +7973,7 @@
         <v>57</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E333" s="66" t="s">
         <v>54</v>
@@ -8043,7 +7990,7 @@
         <v>57</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E334" s="66" t="s">
         <v>54</v>
@@ -8077,7 +8024,7 @@
         <v>52</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E336" s="66" t="s">
         <v>54</v>
@@ -8094,7 +8041,7 @@
         <v>52</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E337" s="66" t="s">
         <v>54</v>
@@ -8111,7 +8058,7 @@
         <v>52</v>
       </c>
       <c r="D338" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E338" s="66" t="s">
         <v>54</v>
@@ -8128,7 +8075,7 @@
         <v>57</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E339" s="66" t="s">
         <v>54</v>
@@ -8145,7 +8092,7 @@
         <v>52</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E340" s="66" t="s">
         <v>54</v>
@@ -8162,7 +8109,7 @@
         <v>52</v>
       </c>
       <c r="D341" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E341" s="66" t="s">
         <v>54</v>
@@ -8179,7 +8126,7 @@
         <v>57</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E342" s="66" t="s">
         <v>54</v>
@@ -8213,7 +8160,7 @@
         <v>52</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E344" s="66" t="s">
         <v>54</v>
@@ -8230,7 +8177,7 @@
         <v>57</v>
       </c>
       <c r="D345" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E345" s="66" t="s">
         <v>54</v>
@@ -8257,14 +8204,14 @@
       <c r="A347" s="40" t="n">
         <v>312</v>
       </c>
-      <c r="B347" s="63" t="n">
-        <v>52</v>
-      </c>
-      <c r="C347" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D347" s="63" t="s">
-        <v>149</v>
+      <c r="B347" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="C347" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D347" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="E347" s="66" t="s">
         <v>54</v>
@@ -8274,14 +8221,14 @@
       <c r="A348" s="40" t="n">
         <v>313</v>
       </c>
-      <c r="B348" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C348" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D348" s="63" t="s">
-        <v>191</v>
+      <c r="B348" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D348" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="E348" s="66" t="s">
         <v>54</v>
@@ -8291,14 +8238,14 @@
       <c r="A349" s="40" t="n">
         <v>314</v>
       </c>
-      <c r="B349" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C349" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D349" s="63" t="s">
-        <v>192</v>
+      <c r="B349" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D349" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="E349" s="66" t="s">
         <v>54</v>
@@ -8308,14 +8255,14 @@
       <c r="A350" s="40" t="n">
         <v>315</v>
       </c>
-      <c r="B350" s="63" t="s">
-        <v>69</v>
+      <c r="B350" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C350" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D350" s="63" t="s">
-        <v>193</v>
+      <c r="D350" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="E350" s="66" t="s">
         <v>54</v>
@@ -8325,14 +8272,14 @@
       <c r="A351" s="40" t="n">
         <v>316</v>
       </c>
-      <c r="B351" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C351" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D351" s="63" t="s">
-        <v>137</v>
+      <c r="B351" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D351" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="E351" s="66" t="s">
         <v>54</v>
@@ -8342,14 +8289,14 @@
       <c r="A352" s="40" t="n">
         <v>317</v>
       </c>
-      <c r="B352" s="63" t="n">
+      <c r="B352" s="12" t="n">
         <v>44</v>
       </c>
-      <c r="C352" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D352" s="63" t="s">
-        <v>182</v>
+      <c r="C352" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D352" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="E352" s="66" t="s">
         <v>54</v>
@@ -8359,13 +8306,13 @@
       <c r="A353" s="40" t="n">
         <v>318</v>
       </c>
-      <c r="B353" s="63" t="n">
+      <c r="B353" s="12" t="n">
         <v>33</v>
       </c>
       <c r="C353" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D353" s="63" t="s">
+      <c r="D353" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E353" s="66" t="s">
@@ -8376,14 +8323,14 @@
       <c r="A354" s="40" t="n">
         <v>319</v>
       </c>
-      <c r="B354" s="63" t="n">
+      <c r="B354" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="C354" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D354" s="63" t="s">
-        <v>194</v>
+      <c r="C354" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D354" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="E354" s="66" t="s">
         <v>54</v>
@@ -8393,34 +8340,221 @@
       <c r="A355" s="40" t="n">
         <v>320</v>
       </c>
-      <c r="B355" s="63" t="s">
-        <v>69</v>
+      <c r="B355" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C355" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D355" s="63" t="s">
+      <c r="D355" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E355" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="40" t="n">
+        <v>321</v>
+      </c>
+      <c r="B356" s="12" t="n">
+        <v>72</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D356" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E356" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="40" t="n">
+        <v>322</v>
+      </c>
+      <c r="B357" s="63" t="n">
+        <v>19</v>
+      </c>
+      <c r="C357" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D357" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="E355" s="66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="58" t="n">
-        <v>321</v>
-      </c>
-      <c r="B356" s="64" t="n">
-        <v>72</v>
-      </c>
-      <c r="C356" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D356" s="64" t="s">
+      <c r="E357" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="40" t="n">
+        <v>323</v>
+      </c>
+      <c r="B358" s="63" t="n">
+        <v>73</v>
+      </c>
+      <c r="C358" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D358" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="E358" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="40" t="n">
+        <v>324</v>
+      </c>
+      <c r="B359" s="63" t="n">
+        <v>65</v>
+      </c>
+      <c r="C359" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D359" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="E356" s="70" t="s">
-        <v>54</v>
+      <c r="E359" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="40" t="n">
+        <v>325</v>
+      </c>
+      <c r="B360" s="63" t="n">
+        <v>67</v>
+      </c>
+      <c r="C360" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D360" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E360" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="40" t="n">
+        <v>326</v>
+      </c>
+      <c r="B361" s="63" t="n">
+        <v>58</v>
+      </c>
+      <c r="C361" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D361" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="E361" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="40" t="n">
+        <v>327</v>
+      </c>
+      <c r="B362" s="63" t="n">
+        <v>29</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D362" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E362" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="40" t="n">
+        <v>328</v>
+      </c>
+      <c r="B363" s="63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C363" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D363" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="E363" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="40" t="n">
+        <v>329</v>
+      </c>
+      <c r="B364" s="63" t="n">
+        <v>45</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D364" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E364" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="40" t="n">
+        <v>330</v>
+      </c>
+      <c r="B365" s="63" t="n">
+        <v>12</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D365" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E365" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="40" t="n">
+        <v>331</v>
+      </c>
+      <c r="B366" s="63" t="n">
+        <v>20</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D366" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E366" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="58" t="n">
+        <v>332</v>
+      </c>
+      <c r="B367" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C367" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D367" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E367" s="71" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8433,7 +8567,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1589227222" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1589307941" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8442,16 +8576,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1589227222" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1589227222" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589227222" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589227222" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1589307941" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1589307941" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589307941" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589307941" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589227222" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589307941" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1589307941" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1589307941" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1589307941" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1589307941"/>
+      <pm:revision xmlns:pm="smNativeData" day="1589319356" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1589319356" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1589319356" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1589319356"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="212">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -629,6 +629,36 @@
   </si>
   <si>
     <t>18, 19, 12, 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19, 12, 14 </t>
+  </si>
+  <si>
+    <t>10, 19, 16, 17, 14, 12, 21</t>
+  </si>
+  <si>
+    <t>23, 10, 14, 21</t>
+  </si>
+  <si>
+    <t>11, 12, 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 16, 14, 19, 13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 14, 12, 19, 16 </t>
+  </si>
+  <si>
+    <t>10, 23, 21, 20, 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 21, 16, 12</t>
+  </si>
+  <si>
+    <t>14, 22, 26, 20, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 12, 21</t>
   </si>
 </sst>
 </file>
@@ -653,7 +683,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589307941" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589319356" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -669,7 +699,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589307941" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589319356" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -678,7 +708,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,7 +733,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -714,7 +744,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -725,7 +755,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -736,7 +766,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -750,7 +780,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -767,7 +797,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -790,7 +820,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -801,7 +831,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -812,7 +842,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -835,7 +865,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -846,7 +876,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -884,7 +914,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -895,7 +925,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -912,7 +942,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589307941" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -926,8 +956,17 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="47">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -943,7 +982,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941"/>
+          <pm:border xmlns:pm="smNativeData" id="1589319356"/>
         </ext>
       </extLst>
     </border>
@@ -962,7 +1001,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -986,7 +1025,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1010,7 +1049,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1033,7 +1072,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1055,7 +1094,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1079,7 +1118,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1103,7 +1142,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1127,7 +1166,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1151,7 +1190,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1174,7 +1213,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1198,7 +1237,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1221,7 +1260,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1245,7 +1284,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1269,7 +1308,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1292,7 +1331,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1316,7 +1355,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1340,7 +1379,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1364,7 +1403,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1387,7 +1426,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1410,7 +1449,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1433,7 +1472,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1457,7 +1496,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1481,7 +1520,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1505,7 +1544,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1528,7 +1567,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1551,7 +1590,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1574,7 +1613,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1597,7 +1636,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1618,7 +1657,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1641,7 +1680,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1665,7 +1704,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1689,7 +1728,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1712,7 +1751,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1734,7 +1773,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1757,7 +1796,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1781,7 +1820,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1804,7 +1843,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1827,7 +1866,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1850,7 +1889,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1872,63 +1911,61 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941"/>
+          <pm:border xmlns:pm="smNativeData" id="1589319356"/>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="thin">
+      <left style="none">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
+            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
+            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="thin">
+      <left style="none">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
       <bottom style="none">
@@ -1936,9 +1973,73 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589307941">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
+            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
+            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
+            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589319356">
+            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -1947,7 +2048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2138,9 +2239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2151,10 +2249,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1589307941" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1589319356" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1589307941" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1589319356" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2421,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H377"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="F363" sqref="F363"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="F361" sqref="F361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -8374,16 +8472,16 @@
       <c r="A357" s="40" t="n">
         <v>322</v>
       </c>
-      <c r="B357" s="63" t="n">
+      <c r="B357" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="C357" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D357" s="63" t="s">
+      <c r="C357" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D357" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E357" s="70" t="s">
+      <c r="E357" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8391,16 +8489,16 @@
       <c r="A358" s="40" t="n">
         <v>323</v>
       </c>
-      <c r="B358" s="63" t="n">
+      <c r="B358" s="12" t="n">
         <v>73</v>
       </c>
-      <c r="C358" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D358" s="63" t="s">
+      <c r="C358" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D358" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E358" s="70" t="s">
+      <c r="E358" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8408,16 +8506,16 @@
       <c r="A359" s="40" t="n">
         <v>324</v>
       </c>
-      <c r="B359" s="63" t="n">
+      <c r="B359" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="C359" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D359" s="63" t="s">
+      <c r="C359" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D359" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="E359" s="70" t="s">
+      <c r="E359" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8425,16 +8523,16 @@
       <c r="A360" s="40" t="n">
         <v>325</v>
       </c>
-      <c r="B360" s="63" t="n">
+      <c r="B360" s="12" t="n">
         <v>67</v>
       </c>
-      <c r="C360" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D360" s="63" t="s">
+      <c r="C360" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D360" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="E360" s="70" t="s">
+      <c r="E360" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8442,16 +8540,16 @@
       <c r="A361" s="40" t="n">
         <v>326</v>
       </c>
-      <c r="B361" s="63" t="n">
+      <c r="B361" s="12" t="n">
         <v>58</v>
       </c>
-      <c r="C361" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D361" s="63" t="s">
+      <c r="C361" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D361" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E361" s="70" t="s">
+      <c r="E361" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8459,16 +8557,16 @@
       <c r="A362" s="40" t="n">
         <v>327</v>
       </c>
-      <c r="B362" s="63" t="n">
+      <c r="B362" s="12" t="n">
         <v>29</v>
       </c>
       <c r="C362" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D362" s="63" t="s">
+      <c r="D362" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E362" s="70" t="s">
+      <c r="E362" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8476,16 +8574,16 @@
       <c r="A363" s="40" t="n">
         <v>328</v>
       </c>
-      <c r="B363" s="63" t="n">
+      <c r="B363" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C363" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D363" s="63" t="s">
+      <c r="C363" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D363" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E363" s="70" t="s">
+      <c r="E363" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8493,16 +8591,16 @@
       <c r="A364" s="40" t="n">
         <v>329</v>
       </c>
-      <c r="B364" s="63" t="n">
+      <c r="B364" s="12" t="n">
         <v>45</v>
       </c>
       <c r="C364" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D364" s="63" t="s">
+      <c r="D364" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E364" s="70" t="s">
+      <c r="E364" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8510,16 +8608,16 @@
       <c r="A365" s="40" t="n">
         <v>330</v>
       </c>
-      <c r="B365" s="63" t="n">
+      <c r="B365" s="12" t="n">
         <v>12</v>
       </c>
       <c r="C365" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D365" s="63" t="s">
+      <c r="D365" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E365" s="70" t="s">
+      <c r="E365" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8527,33 +8625,203 @@
       <c r="A366" s="40" t="n">
         <v>331</v>
       </c>
-      <c r="B366" s="63" t="n">
+      <c r="B366" s="12" t="n">
         <v>20</v>
       </c>
       <c r="C366" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D366" s="63" t="s">
+      <c r="D366" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E366" s="70" t="s">
+      <c r="E366" s="66" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="367" spans="1:5">
-      <c r="A367" s="58" t="n">
+      <c r="A367" s="40" t="n">
         <v>332</v>
       </c>
-      <c r="B367" s="64" t="s">
+      <c r="B367" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C367" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D367" s="64" t="s">
+      <c r="C367" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D367" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E367" s="71" t="s">
+      <c r="E367" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="40" t="n">
+        <v>333</v>
+      </c>
+      <c r="B368" s="63" t="n">
+        <v>22</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D368" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="E368" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="40" t="n">
+        <v>334</v>
+      </c>
+      <c r="B369" s="63" t="n">
+        <v>35</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D369" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E369" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="40" t="n">
+        <v>335</v>
+      </c>
+      <c r="B370" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D370" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="E370" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="40" t="n">
+        <v>336</v>
+      </c>
+      <c r="B371" s="63" t="n">
+        <v>56</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D371" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="E371" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="40" t="n">
+        <v>337</v>
+      </c>
+      <c r="B372" s="63" t="n">
+        <v>28</v>
+      </c>
+      <c r="C372" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D372" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="E372" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="40" t="n">
+        <v>338</v>
+      </c>
+      <c r="B373" s="63" t="n">
+        <v>23</v>
+      </c>
+      <c r="C373" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D373" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="E373" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="40" t="n">
+        <v>339</v>
+      </c>
+      <c r="B374" s="63" t="n">
+        <v>24</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D374" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="E374" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="40" t="n">
+        <v>340</v>
+      </c>
+      <c r="B375" s="63" t="n">
+        <v>24</v>
+      </c>
+      <c r="C375" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D375" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="E375" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="40" t="n">
+        <v>341</v>
+      </c>
+      <c r="B376" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C376" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D376" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="E376" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="58" t="n">
+        <v>342</v>
+      </c>
+      <c r="B377" s="64" t="n">
+        <v>37</v>
+      </c>
+      <c r="C377" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D377" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="E377" s="70" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8567,7 +8835,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1589307941" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1589319356" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8576,16 +8844,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1589307941" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1589307941" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589307941" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589307941" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1589319356" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1589319356" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589319356" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589319356" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589307941" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589319356" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1589319356" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1589319356" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1589319356" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1589319356"/>
+      <pm:revision xmlns:pm="smNativeData" day="1589550027" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1589550027" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1589550027" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1589550027"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="226">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -659,6 +659,48 @@
   </si>
   <si>
     <t xml:space="preserve"> 10, 12, 21</t>
+  </si>
+  <si>
+    <t>18, 13, 11, 10, 21, 15, 24</t>
+  </si>
+  <si>
+    <t>11, 14, 12, 10, 21</t>
+  </si>
+  <si>
+    <t>10, 11, 12, 14, 21</t>
+  </si>
+  <si>
+    <t>10, 11, 12, 21</t>
+  </si>
+  <si>
+    <t>10, 14, 20, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 11, 12, 20, 15, 21, 24</t>
+  </si>
+  <si>
+    <t>10, 13, 20, 22, 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14, 10, 20, 21</t>
+  </si>
+  <si>
+    <t>12, 20, 21</t>
+  </si>
+  <si>
+    <t>13, 20, 21</t>
+  </si>
+  <si>
+    <t>10, 18, 21</t>
+  </si>
+  <si>
+    <t>18, 20, 12, 11, 10, 21, 22</t>
+  </si>
+  <si>
+    <t>17, 20, 22</t>
+  </si>
+  <si>
+    <t>10, 12, 24</t>
   </si>
 </sst>
 </file>
@@ -683,7 +725,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589319356" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589550027" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -699,7 +741,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589319356" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589550027" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -708,7 +750,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="57">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,7 +775,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -744,7 +786,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -755,7 +797,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -766,7 +808,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -780,7 +822,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -797,7 +839,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -820,7 +862,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -831,7 +873,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -842,7 +884,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -865,7 +907,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -876,7 +918,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -914,7 +956,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -925,7 +967,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -942,7 +984,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589319356" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -965,8 +1007,35 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="56">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -982,7 +1051,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356"/>
+          <pm:border xmlns:pm="smNativeData" id="1589550027"/>
         </ext>
       </extLst>
     </border>
@@ -1001,7 +1070,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1025,7 +1094,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1049,7 +1118,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1072,7 +1141,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1094,7 +1163,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1118,7 +1187,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1142,7 +1211,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1166,7 +1235,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1190,7 +1259,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1213,7 +1282,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1237,7 +1306,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1260,7 +1329,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1284,7 +1353,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1308,7 +1377,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1331,7 +1400,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1355,7 +1424,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1379,7 +1448,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1403,7 +1472,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1426,7 +1495,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1449,7 +1518,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1472,7 +1541,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1496,7 +1565,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1520,7 +1589,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1544,7 +1613,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1567,7 +1636,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1590,7 +1659,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1613,7 +1682,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1636,7 +1705,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1657,7 +1726,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1680,7 +1749,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1704,7 +1773,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1728,7 +1797,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1751,7 +1820,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1773,7 +1842,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1796,7 +1865,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1820,7 +1889,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1843,7 +1912,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1866,7 +1935,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1889,7 +1958,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1911,7 +1980,53 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356"/>
+          <pm:border xmlns:pm="smNativeData" id="1589550027"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
         </ext>
       </extLst>
     </border>
@@ -1919,18 +2034,40 @@
       <left style="none">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
+      <right style="none">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1938,10 +2075,10 @@
       </extLst>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="none">
@@ -1952,8 +2089,30 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -1973,7 +2132,136 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
+            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1989,20 +2277,19 @@
       <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thick">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="none">
@@ -2016,30 +2303,9 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
+          <pm:border xmlns:pm="smNativeData" id="1589550027">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589319356">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -2048,7 +2314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2239,6 +2505,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2249,10 +2518,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1589319356" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1589550027" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1589319356" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1589550027" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2519,10 +2788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H377"/>
+  <dimension ref="A1:H397"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="F361" sqref="F361"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="G380" sqref="G380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -8659,13 +8928,13 @@
       <c r="A368" s="40" t="n">
         <v>333</v>
       </c>
-      <c r="B368" s="63" t="n">
+      <c r="B368" s="12" t="n">
         <v>22</v>
       </c>
       <c r="C368" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D368" s="63" t="s">
+      <c r="D368" s="12" t="s">
         <v>202</v>
       </c>
       <c r="E368" s="66" t="s">
@@ -8676,13 +8945,13 @@
       <c r="A369" s="40" t="n">
         <v>334</v>
       </c>
-      <c r="B369" s="63" t="n">
+      <c r="B369" s="12" t="n">
         <v>35</v>
       </c>
       <c r="C369" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D369" s="63" t="s">
+      <c r="D369" s="12" t="s">
         <v>203</v>
       </c>
       <c r="E369" s="66" t="s">
@@ -8693,13 +8962,13 @@
       <c r="A370" s="40" t="n">
         <v>335</v>
       </c>
-      <c r="B370" s="63" t="s">
+      <c r="B370" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C370" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D370" s="63" t="s">
+      <c r="D370" s="12" t="s">
         <v>204</v>
       </c>
       <c r="E370" s="66" t="s">
@@ -8710,13 +8979,13 @@
       <c r="A371" s="40" t="n">
         <v>336</v>
       </c>
-      <c r="B371" s="63" t="n">
+      <c r="B371" s="12" t="n">
         <v>56</v>
       </c>
       <c r="C371" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D371" s="63" t="s">
+      <c r="D371" s="12" t="s">
         <v>205</v>
       </c>
       <c r="E371" s="66" t="s">
@@ -8727,13 +8996,13 @@
       <c r="A372" s="40" t="n">
         <v>337</v>
       </c>
-      <c r="B372" s="63" t="n">
+      <c r="B372" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="C372" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D372" s="63" t="s">
+      <c r="C372" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D372" s="12" t="s">
         <v>206</v>
       </c>
       <c r="E372" s="66" t="s">
@@ -8744,13 +9013,13 @@
       <c r="A373" s="40" t="n">
         <v>338</v>
       </c>
-      <c r="B373" s="63" t="n">
+      <c r="B373" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="C373" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D373" s="63" t="s">
+      <c r="C373" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D373" s="12" t="s">
         <v>207</v>
       </c>
       <c r="E373" s="66" t="s">
@@ -8761,13 +9030,13 @@
       <c r="A374" s="40" t="n">
         <v>339</v>
       </c>
-      <c r="B374" s="63" t="n">
+      <c r="B374" s="12" t="n">
         <v>24</v>
       </c>
       <c r="C374" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D374" s="63" t="s">
+      <c r="D374" s="12" t="s">
         <v>208</v>
       </c>
       <c r="E374" s="66" t="s">
@@ -8778,13 +9047,13 @@
       <c r="A375" s="40" t="n">
         <v>340</v>
       </c>
-      <c r="B375" s="63" t="n">
+      <c r="B375" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="C375" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D375" s="63" t="s">
+      <c r="C375" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D375" s="12" t="s">
         <v>209</v>
       </c>
       <c r="E375" s="66" t="s">
@@ -8795,13 +9064,13 @@
       <c r="A376" s="40" t="n">
         <v>341</v>
       </c>
-      <c r="B376" s="63" t="s">
+      <c r="B376" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C376" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D376" s="63" t="s">
+      <c r="C376" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D376" s="12" t="s">
         <v>210</v>
       </c>
       <c r="E376" s="66" t="s">
@@ -8809,20 +9078,360 @@
       </c>
     </row>
     <row r="377" spans="1:5">
-      <c r="A377" s="58" t="n">
+      <c r="A377" s="40" t="n">
         <v>342</v>
       </c>
-      <c r="B377" s="64" t="n">
+      <c r="B377" s="12" t="n">
         <v>37</v>
       </c>
-      <c r="C377" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D377" s="64" t="s">
+      <c r="C377" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D377" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E377" s="70" t="s">
+      <c r="E377" s="66" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="40" t="n">
+        <v>343</v>
+      </c>
+      <c r="B378" s="63" t="n">
+        <v>24</v>
+      </c>
+      <c r="C378" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D378" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E378" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="40" t="n">
+        <v>344</v>
+      </c>
+      <c r="B379" s="63" t="n">
+        <v>32</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D379" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="E379" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="40" t="n">
+        <v>345</v>
+      </c>
+      <c r="B380" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D380" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E380" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="40" t="n">
+        <v>346</v>
+      </c>
+      <c r="B381" s="63" t="n">
+        <v>42</v>
+      </c>
+      <c r="C381" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D381" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="E381" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="40" t="n">
+        <v>347</v>
+      </c>
+      <c r="B382" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D382" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="E382" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="40" t="n">
+        <v>348</v>
+      </c>
+      <c r="B383" s="63" t="n">
+        <v>42</v>
+      </c>
+      <c r="C383" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D383" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E383" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="40" t="n">
+        <v>349</v>
+      </c>
+      <c r="B384" s="63" t="n">
+        <v>43</v>
+      </c>
+      <c r="C384" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D384" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="E384" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="40" t="n">
+        <v>350</v>
+      </c>
+      <c r="B385" s="63" t="n">
+        <v>28</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D385" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="E385" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="40" t="n">
+        <v>351</v>
+      </c>
+      <c r="B386" s="63" t="n">
+        <v>21</v>
+      </c>
+      <c r="C386" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D386" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="E386" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="40" t="n">
+        <v>352</v>
+      </c>
+      <c r="B387" s="63" t="n">
+        <v>44</v>
+      </c>
+      <c r="C387" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D387" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="E387" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="40" t="n">
+        <v>353</v>
+      </c>
+      <c r="B388" s="63" t="n">
+        <v>40</v>
+      </c>
+      <c r="C388" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D388" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E388" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="40" t="n">
+        <v>354</v>
+      </c>
+      <c r="B389" s="63" t="n">
+        <v>47</v>
+      </c>
+      <c r="C389" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D389" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="E389" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="40" t="n">
+        <v>355</v>
+      </c>
+      <c r="B390" s="63" t="n">
+        <v>44</v>
+      </c>
+      <c r="C390" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D390" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E390" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="40" t="n">
+        <v>356</v>
+      </c>
+      <c r="B391" s="63" t="n">
+        <v>41</v>
+      </c>
+      <c r="C391" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D391" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E391" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="40" t="n">
+        <v>357</v>
+      </c>
+      <c r="B392" s="63" t="n">
+        <v>32</v>
+      </c>
+      <c r="C392" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D392" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E392" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="40" t="n">
+        <v>358</v>
+      </c>
+      <c r="B393" s="63" t="n">
+        <v>21</v>
+      </c>
+      <c r="C393" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D393" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="E393" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="40" t="n">
+        <v>359</v>
+      </c>
+      <c r="B394" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D394" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="E394" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="40" t="n">
+        <v>360</v>
+      </c>
+      <c r="B395" s="63" t="n">
+        <v>24</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D395" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="E395" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="40" t="n">
+        <v>361</v>
+      </c>
+      <c r="B396" s="63" t="n">
+        <v>27</v>
+      </c>
+      <c r="C396" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D396" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="E396" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="58" t="n">
+        <v>362</v>
+      </c>
+      <c r="B397" s="64" t="n">
+        <v>40</v>
+      </c>
+      <c r="C397" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D397" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E397" s="71" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -8835,7 +9444,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1589319356" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1589550027" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8844,16 +9453,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1589319356" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1589319356" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589319356" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589319356" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1589550027" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1589550027" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589550027" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589550027" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589319356" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589550027" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1589550027" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1589550027" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1589550027" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1589550027"/>
+      <pm:revision xmlns:pm="smNativeData" day="1589743694" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1589743694" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1589743694" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1589743694"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="249">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -701,6 +701,75 @@
   </si>
   <si>
     <t>10, 12, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 18, 20, 21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21, 10, 20, 24, 12, 11</t>
+  </si>
+  <si>
+    <t>14, 21, 26</t>
+  </si>
+  <si>
+    <t>14, 12, 10, 24, 22, 26</t>
+  </si>
+  <si>
+    <t>11, 21, 24, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 21, 14</t>
+  </si>
+  <si>
+    <t>10, 24, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12, 10, 20, 21</t>
+  </si>
+  <si>
+    <t>20, 10, 14, 24</t>
+  </si>
+  <si>
+    <t>24, 14, 20</t>
+  </si>
+  <si>
+    <t>11, 10, 21</t>
+  </si>
+  <si>
+    <t>20, 12, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20, 21, 10, 14</t>
+  </si>
+  <si>
+    <t>21, 10, 20</t>
+  </si>
+  <si>
+    <t>11, 26</t>
+  </si>
+  <si>
+    <t>24, 14</t>
+  </si>
+  <si>
+    <t>11, 14, 10, 24</t>
+  </si>
+  <si>
+    <t>20, 17, 16, 10, 21, 25</t>
+  </si>
+  <si>
+    <t>14, 21, 13, 11</t>
+  </si>
+  <si>
+    <t>10, 17, 20</t>
+  </si>
+  <si>
+    <t>10, 18, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11, 21, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 11, 21</t>
   </si>
 </sst>
 </file>
@@ -725,7 +794,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589550027" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589743694" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -741,7 +810,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589550027" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589743694" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -750,7 +819,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="57">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,7 +844,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -786,7 +855,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -797,7 +866,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -808,7 +877,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -822,7 +891,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -839,7 +908,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -862,7 +931,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -873,7 +942,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -884,7 +953,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -907,7 +976,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -918,7 +987,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -956,7 +1025,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -967,7 +1036,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -984,7 +1053,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589550027" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1007,35 +1076,8 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
-  <borders count="56">
+  <borders count="47">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1051,7 +1093,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027"/>
+          <pm:border xmlns:pm="smNativeData" id="1589743694"/>
         </ext>
       </extLst>
     </border>
@@ -1070,7 +1112,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1094,7 +1136,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1118,7 +1160,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1141,7 +1183,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1163,7 +1205,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1187,7 +1229,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1211,7 +1253,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1235,7 +1277,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1259,7 +1301,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1282,7 +1324,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1306,7 +1348,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1329,7 +1371,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1353,7 +1395,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1377,7 +1419,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1400,7 +1442,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1424,7 +1466,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1448,7 +1490,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1472,7 +1514,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1495,7 +1537,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1518,7 +1560,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1541,7 +1583,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1565,7 +1607,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1589,7 +1631,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1613,7 +1655,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1636,7 +1678,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1659,7 +1701,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1682,7 +1724,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1705,7 +1747,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1726,7 +1768,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1749,7 +1791,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1773,7 +1815,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1797,7 +1839,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1820,7 +1862,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1842,7 +1884,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1865,7 +1907,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1889,7 +1931,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1912,7 +1954,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1935,7 +1977,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1958,7 +2000,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1980,53 +2022,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
-            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
-            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
+          <pm:border xmlns:pm="smNativeData" id="1589743694"/>
         </ext>
       </extLst>
     </border>
@@ -2034,40 +2030,18 @@
       <left style="none">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
-            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2075,10 +2049,10 @@
       </extLst>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="none">
         <color rgb="FF000000"/>
       </right>
       <top style="none">
@@ -2089,30 +2063,8 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
+            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -2132,30 +2084,30 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
+            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -2167,79 +2119,15 @@
       <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2260,52 +2148,9 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
+          <pm:border xmlns:pm="smNativeData" id="1589743694">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589550027">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -2518,10 +2363,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1589550027" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1589743694" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1589550027" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1589743694" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2788,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H397"/>
+  <dimension ref="A1:H425"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="G380" sqref="G380"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="F412" sqref="F412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -9098,16 +8943,16 @@
       <c r="A378" s="40" t="n">
         <v>343</v>
       </c>
-      <c r="B378" s="63" t="n">
+      <c r="B378" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="C378" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D378" s="63" t="s">
+      <c r="C378" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D378" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="E378" s="70" t="s">
+      <c r="E378" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9115,16 +8960,16 @@
       <c r="A379" s="40" t="n">
         <v>344</v>
       </c>
-      <c r="B379" s="63" t="n">
+      <c r="B379" s="12" t="n">
         <v>32</v>
       </c>
       <c r="C379" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D379" s="63" t="s">
+      <c r="D379" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E379" s="70" t="s">
+      <c r="E379" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9132,16 +8977,16 @@
       <c r="A380" s="40" t="n">
         <v>345</v>
       </c>
-      <c r="B380" s="63" t="s">
+      <c r="B380" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C380" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D380" s="63" t="s">
+      <c r="D380" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E380" s="70" t="s">
+      <c r="E380" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9149,16 +8994,16 @@
       <c r="A381" s="40" t="n">
         <v>346</v>
       </c>
-      <c r="B381" s="63" t="n">
+      <c r="B381" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="C381" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D381" s="63" t="s">
+      <c r="C381" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D381" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E381" s="70" t="s">
+      <c r="E381" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9166,16 +9011,16 @@
       <c r="A382" s="40" t="n">
         <v>347</v>
       </c>
-      <c r="B382" s="63" t="s">
+      <c r="B382" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C382" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D382" s="63" t="s">
+      <c r="D382" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E382" s="70" t="s">
+      <c r="E382" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9183,16 +9028,16 @@
       <c r="A383" s="40" t="n">
         <v>348</v>
       </c>
-      <c r="B383" s="63" t="n">
+      <c r="B383" s="12" t="n">
         <v>42</v>
       </c>
       <c r="C383" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D383" s="63" t="s">
+      <c r="D383" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E383" s="70" t="s">
+      <c r="E383" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9200,16 +9045,16 @@
       <c r="A384" s="40" t="n">
         <v>349</v>
       </c>
-      <c r="B384" s="63" t="n">
+      <c r="B384" s="12" t="n">
         <v>43</v>
       </c>
-      <c r="C384" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D384" s="63" t="s">
+      <c r="C384" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D384" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E384" s="70" t="s">
+      <c r="E384" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9217,16 +9062,16 @@
       <c r="A385" s="40" t="n">
         <v>350</v>
       </c>
-      <c r="B385" s="63" t="n">
+      <c r="B385" s="12" t="n">
         <v>28</v>
       </c>
       <c r="C385" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D385" s="63" t="s">
+      <c r="D385" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E385" s="70" t="s">
+      <c r="E385" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9234,16 +9079,16 @@
       <c r="A386" s="40" t="n">
         <v>351</v>
       </c>
-      <c r="B386" s="63" t="n">
+      <c r="B386" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="C386" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D386" s="63" t="s">
+      <c r="C386" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D386" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="E386" s="70" t="s">
+      <c r="E386" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9251,16 +9096,16 @@
       <c r="A387" s="40" t="n">
         <v>352</v>
       </c>
-      <c r="B387" s="63" t="n">
+      <c r="B387" s="12" t="n">
         <v>44</v>
       </c>
-      <c r="C387" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D387" s="63" t="s">
+      <c r="C387" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D387" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E387" s="70" t="s">
+      <c r="E387" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9268,16 +9113,16 @@
       <c r="A388" s="40" t="n">
         <v>353</v>
       </c>
-      <c r="B388" s="63" t="n">
+      <c r="B388" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="C388" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D388" s="63" t="s">
+      <c r="C388" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D388" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E388" s="70" t="s">
+      <c r="E388" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9285,16 +9130,16 @@
       <c r="A389" s="40" t="n">
         <v>354</v>
       </c>
-      <c r="B389" s="63" t="n">
+      <c r="B389" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="C389" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D389" s="63" t="s">
+      <c r="C389" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D389" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E389" s="70" t="s">
+      <c r="E389" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9302,16 +9147,16 @@
       <c r="A390" s="40" t="n">
         <v>355</v>
       </c>
-      <c r="B390" s="63" t="n">
+      <c r="B390" s="12" t="n">
         <v>44</v>
       </c>
-      <c r="C390" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D390" s="63" t="s">
+      <c r="C390" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D390" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E390" s="70" t="s">
+      <c r="E390" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9319,16 +9164,16 @@
       <c r="A391" s="40" t="n">
         <v>356</v>
       </c>
-      <c r="B391" s="63" t="n">
+      <c r="B391" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="C391" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D391" s="63" t="s">
+      <c r="C391" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D391" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E391" s="70" t="s">
+      <c r="E391" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9336,16 +9181,16 @@
       <c r="A392" s="40" t="n">
         <v>357</v>
       </c>
-      <c r="B392" s="63" t="n">
+      <c r="B392" s="12" t="n">
         <v>32</v>
       </c>
       <c r="C392" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D392" s="63" t="s">
+      <c r="D392" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E392" s="70" t="s">
+      <c r="E392" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9353,16 +9198,16 @@
       <c r="A393" s="40" t="n">
         <v>358</v>
       </c>
-      <c r="B393" s="63" t="n">
+      <c r="B393" s="12" t="n">
         <v>21</v>
       </c>
       <c r="C393" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D393" s="63" t="s">
+      <c r="D393" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="E393" s="70" t="s">
+      <c r="E393" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9370,16 +9215,16 @@
       <c r="A394" s="40" t="n">
         <v>359</v>
       </c>
-      <c r="B394" s="63" t="s">
+      <c r="B394" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C394" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D394" s="63" t="s">
+      <c r="D394" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E394" s="70" t="s">
+      <c r="E394" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9387,16 +9232,16 @@
       <c r="A395" s="40" t="n">
         <v>360</v>
       </c>
-      <c r="B395" s="63" t="n">
+      <c r="B395" s="12" t="n">
         <v>24</v>
       </c>
       <c r="C395" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D395" s="63" t="s">
+      <c r="D395" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E395" s="70" t="s">
+      <c r="E395" s="66" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9404,33 +9249,509 @@
       <c r="A396" s="40" t="n">
         <v>361</v>
       </c>
-      <c r="B396" s="63" t="n">
+      <c r="B396" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="C396" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D396" s="63" t="s">
+      <c r="C396" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D396" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E396" s="70" t="s">
+      <c r="E396" s="66" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="58" t="n">
+      <c r="A397" s="40" t="n">
         <v>362</v>
       </c>
-      <c r="B397" s="64" t="n">
+      <c r="B397" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="C397" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D397" s="64" t="s">
+      <c r="C397" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D397" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E397" s="71" t="s">
+      <c r="E397" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="40" t="n">
+        <v>363</v>
+      </c>
+      <c r="B398" s="63" t="n">
+        <v>45</v>
+      </c>
+      <c r="C398" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D398" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="E398" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="40" t="n">
+        <v>364</v>
+      </c>
+      <c r="B399" s="63" t="n">
+        <v>35</v>
+      </c>
+      <c r="C399" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D399" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="E399" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="40" t="n">
+        <v>365</v>
+      </c>
+      <c r="B400" s="63" t="n">
+        <v>91</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D400" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="E400" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="40" t="n">
+        <v>366</v>
+      </c>
+      <c r="B401" s="63" t="n">
+        <v>31</v>
+      </c>
+      <c r="C401" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D401" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="E401" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="40" t="n">
+        <v>367</v>
+      </c>
+      <c r="B402" s="63" t="n">
+        <v>42</v>
+      </c>
+      <c r="C402" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D402" s="63" t="n">
+        <v>21</v>
+      </c>
+      <c r="E402" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="40" t="n">
+        <v>368</v>
+      </c>
+      <c r="B403" s="63" t="n">
+        <v>54</v>
+      </c>
+      <c r="C403" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D403" s="63" t="n">
+        <v>21</v>
+      </c>
+      <c r="E403" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="40" t="n">
+        <v>369</v>
+      </c>
+      <c r="B404" s="63" t="n">
+        <v>31</v>
+      </c>
+      <c r="C404" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D404" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="E404" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="40" t="n">
+        <v>370</v>
+      </c>
+      <c r="B405" s="63" t="n">
+        <v>40</v>
+      </c>
+      <c r="C405" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D405" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="E405" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="40" t="n">
+        <v>371</v>
+      </c>
+      <c r="B406" s="63" t="n">
+        <v>60</v>
+      </c>
+      <c r="C406" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D406" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E406" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="40" t="n">
+        <v>372</v>
+      </c>
+      <c r="B407" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C407" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D407" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="E407" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="40" t="n">
+        <v>373</v>
+      </c>
+      <c r="B408" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C408" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D408" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="E408" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="40" t="n">
+        <v>374</v>
+      </c>
+      <c r="B409" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D409" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E409" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="40" t="n">
+        <v>375</v>
+      </c>
+      <c r="B410" s="63" t="n">
+        <v>77</v>
+      </c>
+      <c r="C410" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D410" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="E410" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="40" t="n">
+        <v>376</v>
+      </c>
+      <c r="B411" s="63" t="n">
+        <v>20</v>
+      </c>
+      <c r="C411" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D411" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E411" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="40" t="n">
+        <v>377</v>
+      </c>
+      <c r="B412" s="63" t="n">
+        <v>39</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D412" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E412" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="40" t="n">
+        <v>378</v>
+      </c>
+      <c r="B413" s="63" t="n">
+        <v>29</v>
+      </c>
+      <c r="C413" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D413" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="E413" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="40" t="n">
+        <v>379</v>
+      </c>
+      <c r="B414" s="63" t="n">
+        <v>56</v>
+      </c>
+      <c r="C414" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D414" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="E414" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="40" t="n">
+        <v>380</v>
+      </c>
+      <c r="B415" s="63" t="n">
+        <v>107</v>
+      </c>
+      <c r="C415" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D415" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E415" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="40" t="n">
+        <v>381</v>
+      </c>
+      <c r="B416" s="63" t="n">
+        <v>22</v>
+      </c>
+      <c r="C416" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D416" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E416" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="40" t="n">
+        <v>382</v>
+      </c>
+      <c r="B417" s="63" t="n">
+        <v>21</v>
+      </c>
+      <c r="C417" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D417" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E417" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="40" t="n">
+        <v>383</v>
+      </c>
+      <c r="B418" s="63" t="n">
+        <v>54</v>
+      </c>
+      <c r="C418" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D418" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="E418" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="40" t="n">
+        <v>384</v>
+      </c>
+      <c r="B419" s="63" t="n">
+        <v>34</v>
+      </c>
+      <c r="C419" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D419" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="E419" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="40" t="n">
+        <v>385</v>
+      </c>
+      <c r="B420" s="63" t="n">
+        <v>35</v>
+      </c>
+      <c r="C420" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D420" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="E420" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="40" t="n">
+        <v>386</v>
+      </c>
+      <c r="B421" s="63" t="n">
+        <v>33</v>
+      </c>
+      <c r="C421" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D421" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="E421" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="40" t="n">
+        <v>387</v>
+      </c>
+      <c r="B422" s="63" t="n">
+        <v>30</v>
+      </c>
+      <c r="C422" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D422" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="E422" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="40" t="n">
+        <v>388</v>
+      </c>
+      <c r="B423" s="63" t="n">
+        <v>30</v>
+      </c>
+      <c r="C423" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D423" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="E423" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="40" t="n">
+        <v>389</v>
+      </c>
+      <c r="B424" s="63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C424" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D424" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="E424" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="58" t="n">
+        <v>390</v>
+      </c>
+      <c r="B425" s="64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C425" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D425" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="E425" s="71" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9444,7 +9765,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1589550027" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1589743694" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9453,16 +9774,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1589550027" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1589550027" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589550027" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589550027" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1589743694" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1589743694" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589743694" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589743694" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589550027" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589743694" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1589743694" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1589743694" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1589743694" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1589743694"/>
+      <pm:revision xmlns:pm="smNativeData" day="1589808940" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1589808940" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1589808940" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1589808940"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="258">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -770,6 +770,33 @@
   </si>
   <si>
     <t xml:space="preserve"> 10, 11, 21</t>
+  </si>
+  <si>
+    <t>10, 23, 11, 21</t>
+  </si>
+  <si>
+    <t>10, 23, 20, 15</t>
+  </si>
+  <si>
+    <t>Sem sintomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 23, 13, 11, </t>
+  </si>
+  <si>
+    <t>10, 14, 19</t>
+  </si>
+  <si>
+    <t>10, 23, 20, 12</t>
+  </si>
+  <si>
+    <t>15, 10, 24, 20</t>
+  </si>
+  <si>
+    <t>10, 14, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 15, 13, 20</t>
   </si>
 </sst>
 </file>
@@ -794,7 +821,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589743694" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589808940" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -810,7 +837,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589743694" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1589808940" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -844,7 +871,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -855,7 +882,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -866,7 +893,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -877,7 +904,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -891,7 +918,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -908,7 +935,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -931,7 +958,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -942,7 +969,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -953,7 +980,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -976,7 +1003,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -987,7 +1014,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1025,7 +1052,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1036,7 +1063,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1053,7 +1080,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589743694" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1093,7 +1120,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694"/>
+          <pm:border xmlns:pm="smNativeData" id="1589808940"/>
         </ext>
       </extLst>
     </border>
@@ -1112,7 +1139,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1136,7 +1163,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1160,7 +1187,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1183,7 +1210,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1205,7 +1232,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1229,7 +1256,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1253,7 +1280,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1277,7 +1304,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1301,7 +1328,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1324,7 +1351,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1348,7 +1375,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1371,7 +1398,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1395,7 +1422,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1419,7 +1446,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1442,7 +1469,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1466,7 +1493,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1490,7 +1517,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1514,7 +1541,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1537,7 +1564,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1560,7 +1587,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1583,7 +1610,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1607,7 +1634,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1631,7 +1658,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1655,7 +1682,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1678,7 +1705,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1701,7 +1728,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1724,7 +1751,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1747,7 +1774,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1768,7 +1795,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1791,7 +1818,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1815,7 +1842,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1839,7 +1866,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1862,7 +1889,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1884,7 +1911,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1907,7 +1934,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1931,7 +1958,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1954,7 +1981,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1977,7 +2004,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2000,7 +2027,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2022,7 +2049,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694"/>
+          <pm:border xmlns:pm="smNativeData" id="1589808940"/>
         </ext>
       </extLst>
     </border>
@@ -2041,7 +2068,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2063,7 +2090,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2084,7 +2111,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2105,7 +2132,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2127,7 +2154,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2148,7 +2175,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589743694">
+          <pm:border xmlns:pm="smNativeData" id="1589808940">
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2159,7 +2186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2350,9 +2377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2363,10 +2387,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1589743694" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1589808940" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1589743694" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1589808940" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2633,10 +2657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H425"/>
+  <dimension ref="A1:H437"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="F412" sqref="F412"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="F428" sqref="F428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -9283,16 +9307,16 @@
       <c r="A398" s="40" t="n">
         <v>363</v>
       </c>
-      <c r="B398" s="63" t="n">
+      <c r="B398" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="C398" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D398" s="63" t="s">
+      <c r="C398" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D398" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E398" s="70" t="s">
+      <c r="E398" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9300,13 +9324,13 @@
       <c r="A399" s="40" t="n">
         <v>364</v>
       </c>
-      <c r="B399" s="63" t="n">
+      <c r="B399" s="12" t="n">
         <v>35</v>
       </c>
       <c r="C399" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D399" s="63" t="s">
+      <c r="D399" s="12" t="s">
         <v>227</v>
       </c>
       <c r="E399" s="66" t="s">
@@ -9317,13 +9341,13 @@
       <c r="A400" s="40" t="n">
         <v>365</v>
       </c>
-      <c r="B400" s="63" t="n">
+      <c r="B400" s="12" t="n">
         <v>91</v>
       </c>
       <c r="C400" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D400" s="63" t="s">
+      <c r="D400" s="12" t="s">
         <v>228</v>
       </c>
       <c r="E400" s="66" t="s">
@@ -9334,13 +9358,13 @@
       <c r="A401" s="40" t="n">
         <v>366</v>
       </c>
-      <c r="B401" s="63" t="n">
+      <c r="B401" s="12" t="n">
         <v>31</v>
       </c>
       <c r="C401" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D401" s="63" t="s">
+      <c r="D401" s="12" t="s">
         <v>229</v>
       </c>
       <c r="E401" s="66" t="s">
@@ -9351,13 +9375,13 @@
       <c r="A402" s="40" t="n">
         <v>367</v>
       </c>
-      <c r="B402" s="63" t="n">
+      <c r="B402" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="C402" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D402" s="63" t="n">
+      <c r="C402" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D402" s="12" t="n">
         <v>21</v>
       </c>
       <c r="E402" s="66" t="s">
@@ -9368,13 +9392,13 @@
       <c r="A403" s="40" t="n">
         <v>368</v>
       </c>
-      <c r="B403" s="63" t="n">
-        <v>54</v>
-      </c>
-      <c r="C403" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D403" s="63" t="n">
+      <c r="B403" s="12" t="n">
+        <v>54</v>
+      </c>
+      <c r="C403" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D403" s="12" t="n">
         <v>21</v>
       </c>
       <c r="E403" s="66" t="s">
@@ -9385,13 +9409,13 @@
       <c r="A404" s="40" t="n">
         <v>369</v>
       </c>
-      <c r="B404" s="63" t="n">
+      <c r="B404" s="12" t="n">
         <v>31</v>
       </c>
       <c r="C404" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D404" s="63" t="s">
+      <c r="D404" s="12" t="s">
         <v>230</v>
       </c>
       <c r="E404" s="66" t="s">
@@ -9402,13 +9426,13 @@
       <c r="A405" s="40" t="n">
         <v>370</v>
       </c>
-      <c r="B405" s="63" t="n">
+      <c r="B405" s="12" t="n">
         <v>40</v>
       </c>
       <c r="C405" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D405" s="63" t="s">
+      <c r="D405" s="12" t="s">
         <v>231</v>
       </c>
       <c r="E405" s="66" t="s">
@@ -9419,13 +9443,13 @@
       <c r="A406" s="40" t="n">
         <v>371</v>
       </c>
-      <c r="B406" s="63" t="n">
+      <c r="B406" s="12" t="n">
         <v>60</v>
       </c>
-      <c r="C406" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D406" s="63" t="s">
+      <c r="C406" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D406" s="12" t="s">
         <v>173</v>
       </c>
       <c r="E406" s="66" t="s">
@@ -9436,13 +9460,13 @@
       <c r="A407" s="40" t="n">
         <v>372</v>
       </c>
-      <c r="B407" s="63" t="s">
+      <c r="B407" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C407" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D407" s="63" t="s">
+      <c r="D407" s="12" t="s">
         <v>232</v>
       </c>
       <c r="E407" s="66" t="s">
@@ -9453,13 +9477,13 @@
       <c r="A408" s="40" t="n">
         <v>373</v>
       </c>
-      <c r="B408" s="63" t="s">
+      <c r="B408" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C408" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D408" s="63" t="s">
+      <c r="C408" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D408" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E408" s="66" t="s">
@@ -9470,13 +9494,13 @@
       <c r="A409" s="40" t="n">
         <v>374</v>
       </c>
-      <c r="B409" s="63" t="s">
+      <c r="B409" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C409" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D409" s="63" t="s">
+      <c r="D409" s="12" t="s">
         <v>234</v>
       </c>
       <c r="E409" s="66" t="s">
@@ -9487,13 +9511,13 @@
       <c r="A410" s="40" t="n">
         <v>375</v>
       </c>
-      <c r="B410" s="63" t="n">
+      <c r="B410" s="12" t="n">
         <v>77</v>
       </c>
-      <c r="C410" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D410" s="63" t="s">
+      <c r="C410" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D410" s="12" t="s">
         <v>235</v>
       </c>
       <c r="E410" s="66" t="s">
@@ -9504,13 +9528,13 @@
       <c r="A411" s="40" t="n">
         <v>376</v>
       </c>
-      <c r="B411" s="63" t="n">
+      <c r="B411" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="C411" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D411" s="63" t="s">
+      <c r="C411" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D411" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E411" s="66" t="s">
@@ -9521,13 +9545,13 @@
       <c r="A412" s="40" t="n">
         <v>377</v>
       </c>
-      <c r="B412" s="63" t="n">
+      <c r="B412" s="12" t="n">
         <v>39</v>
       </c>
       <c r="C412" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D412" s="63" t="s">
+      <c r="D412" s="12" t="s">
         <v>237</v>
       </c>
       <c r="E412" s="66" t="s">
@@ -9538,13 +9562,13 @@
       <c r="A413" s="40" t="n">
         <v>378</v>
       </c>
-      <c r="B413" s="63" t="n">
+      <c r="B413" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="C413" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D413" s="63" t="s">
+      <c r="C413" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D413" s="12" t="s">
         <v>238</v>
       </c>
       <c r="E413" s="66" t="s">
@@ -9555,13 +9579,13 @@
       <c r="A414" s="40" t="n">
         <v>379</v>
       </c>
-      <c r="B414" s="63" t="n">
+      <c r="B414" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="C414" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D414" s="63" t="s">
+      <c r="C414" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D414" s="12" t="s">
         <v>239</v>
       </c>
       <c r="E414" s="66" t="s">
@@ -9572,13 +9596,13 @@
       <c r="A415" s="40" t="n">
         <v>380</v>
       </c>
-      <c r="B415" s="63" t="n">
+      <c r="B415" s="12" t="n">
         <v>107</v>
       </c>
       <c r="C415" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D415" s="63" t="s">
+      <c r="D415" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E415" s="66" t="s">
@@ -9589,13 +9613,13 @@
       <c r="A416" s="40" t="n">
         <v>381</v>
       </c>
-      <c r="B416" s="63" t="n">
+      <c r="B416" s="12" t="n">
         <v>22</v>
       </c>
       <c r="C416" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D416" s="63" t="s">
+      <c r="D416" s="12" t="s">
         <v>169</v>
       </c>
       <c r="E416" s="66" t="s">
@@ -9606,13 +9630,13 @@
       <c r="A417" s="40" t="n">
         <v>382</v>
       </c>
-      <c r="B417" s="63" t="n">
+      <c r="B417" s="12" t="n">
         <v>21</v>
       </c>
       <c r="C417" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D417" s="63" t="s">
+      <c r="D417" s="12" t="s">
         <v>240</v>
       </c>
       <c r="E417" s="66" t="s">
@@ -9623,13 +9647,13 @@
       <c r="A418" s="40" t="n">
         <v>383</v>
       </c>
-      <c r="B418" s="63" t="n">
-        <v>54</v>
-      </c>
-      <c r="C418" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D418" s="63" t="s">
+      <c r="B418" s="12" t="n">
+        <v>54</v>
+      </c>
+      <c r="C418" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D418" s="12" t="s">
         <v>241</v>
       </c>
       <c r="E418" s="66" t="s">
@@ -9640,13 +9664,13 @@
       <c r="A419" s="40" t="n">
         <v>384</v>
       </c>
-      <c r="B419" s="63" t="n">
+      <c r="B419" s="12" t="n">
         <v>34</v>
       </c>
       <c r="C419" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D419" s="63" t="s">
+      <c r="D419" s="12" t="s">
         <v>242</v>
       </c>
       <c r="E419" s="66" t="s">
@@ -9657,13 +9681,13 @@
       <c r="A420" s="40" t="n">
         <v>385</v>
       </c>
-      <c r="B420" s="63" t="n">
+      <c r="B420" s="12" t="n">
         <v>35</v>
       </c>
       <c r="C420" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D420" s="63" t="s">
+      <c r="D420" s="12" t="s">
         <v>243</v>
       </c>
       <c r="E420" s="66" t="s">
@@ -9674,13 +9698,13 @@
       <c r="A421" s="40" t="n">
         <v>386</v>
       </c>
-      <c r="B421" s="63" t="n">
+      <c r="B421" s="12" t="n">
         <v>33</v>
       </c>
       <c r="C421" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D421" s="63" t="s">
+      <c r="D421" s="12" t="s">
         <v>244</v>
       </c>
       <c r="E421" s="66" t="s">
@@ -9691,13 +9715,13 @@
       <c r="A422" s="40" t="n">
         <v>387</v>
       </c>
-      <c r="B422" s="63" t="n">
+      <c r="B422" s="12" t="n">
         <v>30</v>
       </c>
       <c r="C422" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D422" s="63" t="s">
+      <c r="D422" s="12" t="s">
         <v>245</v>
       </c>
       <c r="E422" s="66" t="s">
@@ -9708,13 +9732,13 @@
       <c r="A423" s="40" t="n">
         <v>388</v>
       </c>
-      <c r="B423" s="63" t="n">
+      <c r="B423" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="C423" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D423" s="63" t="s">
+      <c r="C423" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D423" s="12" t="s">
         <v>246</v>
       </c>
       <c r="E423" s="66" t="s">
@@ -9725,13 +9749,13 @@
       <c r="A424" s="40" t="n">
         <v>389</v>
       </c>
-      <c r="B424" s="63" t="n">
+      <c r="B424" s="12" t="n">
         <v>62</v>
       </c>
-      <c r="C424" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D424" s="63" t="s">
+      <c r="C424" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D424" s="12" t="s">
         <v>247</v>
       </c>
       <c r="E424" s="66" t="s">
@@ -9739,19 +9763,223 @@
       </c>
     </row>
     <row r="425" spans="1:5">
-      <c r="A425" s="58" t="n">
+      <c r="A425" s="40" t="n">
         <v>390</v>
       </c>
-      <c r="B425" s="64" t="n">
+      <c r="B425" s="12" t="n">
         <v>62</v>
       </c>
-      <c r="C425" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D425" s="64" t="s">
+      <c r="C425" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D425" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="E425" s="71" t="s">
+      <c r="E425" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="40" t="n">
+        <v>391</v>
+      </c>
+      <c r="B426" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C426" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D426" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="E426" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="40" t="n">
+        <v>392</v>
+      </c>
+      <c r="B427" s="63" t="n">
+        <v>67</v>
+      </c>
+      <c r="C427" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D427" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E427" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="40" t="n">
+        <v>393</v>
+      </c>
+      <c r="B428" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C428" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D428" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E428" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="40" t="n">
+        <v>394</v>
+      </c>
+      <c r="B429" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C429" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D429" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="E429" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="40" t="n">
+        <v>395</v>
+      </c>
+      <c r="B430" s="63" t="n">
+        <v>39</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D430" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E430" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="40" t="n">
+        <v>396</v>
+      </c>
+      <c r="B431" s="63" t="n">
+        <v>25</v>
+      </c>
+      <c r="C431" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D431" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="E431" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="40" t="n">
+        <v>397</v>
+      </c>
+      <c r="B432" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C432" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D432" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E432" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="40" t="n">
+        <v>398</v>
+      </c>
+      <c r="B433" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C433" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D433" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="E433" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="40" t="n">
+        <v>399</v>
+      </c>
+      <c r="B434" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D434" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="E434" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="40" t="n">
+        <v>400</v>
+      </c>
+      <c r="B435" s="63" t="n">
+        <v>34</v>
+      </c>
+      <c r="C435" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D435" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="E435" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="40" t="n">
+        <v>401</v>
+      </c>
+      <c r="B436" s="63" t="n">
+        <v>26</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D436" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="E436" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="58" t="n">
+        <v>402</v>
+      </c>
+      <c r="B437" s="64" t="n">
+        <v>21</v>
+      </c>
+      <c r="C437" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D437" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="E437" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9765,7 +9993,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1589743694" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1589808940" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9774,16 +10002,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1589743694" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1589743694" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589743694" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589743694" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1589808940" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1589808940" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589808940" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1589808940" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589743694" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589808940" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1589808940" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1589808940" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1589808940" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1589808940"/>
+      <pm:revision xmlns:pm="smNativeData" day="1590242933" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1590242933" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1590242933" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1590242933"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="284">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -797,6 +797,84 @@
   </si>
   <si>
     <t xml:space="preserve"> 10, 15, 13, 20</t>
+  </si>
+  <si>
+    <t>10, 24, 20</t>
+  </si>
+  <si>
+    <t>23, 24, 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 11, 14, 24, 21</t>
+  </si>
+  <si>
+    <t>22, 12, 16</t>
+  </si>
+  <si>
+    <t>12, 14, 10, 11, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21, 13, 18, 14, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 12</t>
+  </si>
+  <si>
+    <t>23, 12, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11, 14, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11, 18, 15</t>
+  </si>
+  <si>
+    <t>18, 16, 11</t>
+  </si>
+  <si>
+    <t>12, 20, 23, 10, 11, 21</t>
+  </si>
+  <si>
+    <t>11, 18, 12, 10</t>
+  </si>
+  <si>
+    <t>16, 17, 20, 18, 23, 12, 25</t>
+  </si>
+  <si>
+    <t>14, 10, 11, 13, 22, 26, 20, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 23, 20, 21</t>
+  </si>
+  <si>
+    <t>12, 10, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26, 21, 16, 20, 10</t>
+  </si>
+  <si>
+    <t>12, 23, 10, 21, 14, 24</t>
+  </si>
+  <si>
+    <t>20, 10, 21</t>
+  </si>
+  <si>
+    <t>14, 18, 20, 10, 21</t>
+  </si>
+  <si>
+    <t>10, 12, 20, 23, 22, 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18, 20, 10, 21, 13</t>
+  </si>
+  <si>
+    <t>13, 20, 10, 23, 22, 24, 21</t>
+  </si>
+  <si>
+    <t>13, 26, 22</t>
   </si>
 </sst>
 </file>
@@ -821,7 +899,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589808940" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1590242933" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -837,7 +915,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1589808940" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1590242933" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -846,7 +924,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,7 +949,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -882,7 +960,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -893,7 +971,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -904,7 +982,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -918,7 +996,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -935,7 +1013,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -958,7 +1036,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -969,7 +1047,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -980,7 +1058,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1003,7 +1081,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1014,7 +1092,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1052,7 +1130,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1063,7 +1141,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1080,7 +1158,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1589808940" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1094,17 +1172,8 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="44">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1120,7 +1189,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940"/>
+          <pm:border xmlns:pm="smNativeData" id="1590242933"/>
         </ext>
       </extLst>
     </border>
@@ -1139,7 +1208,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1163,7 +1232,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1187,7 +1256,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1210,7 +1279,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1232,7 +1301,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1256,7 +1325,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1280,7 +1349,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1304,7 +1373,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1328,7 +1397,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1351,7 +1420,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1375,7 +1444,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1398,7 +1467,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1422,7 +1491,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1446,7 +1515,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1469,7 +1538,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1493,7 +1562,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1517,7 +1586,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1541,7 +1610,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1564,7 +1633,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1587,7 +1656,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1610,7 +1679,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1634,7 +1703,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1658,7 +1727,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1682,7 +1751,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1705,7 +1774,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1728,7 +1797,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1751,7 +1820,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1774,7 +1843,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1795,7 +1864,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1818,7 +1887,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1842,7 +1911,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1866,7 +1935,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1889,7 +1958,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1911,7 +1980,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1934,7 +2003,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1958,7 +2027,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1981,7 +2050,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2004,7 +2073,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2027,7 +2096,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2049,61 +2118,63 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940"/>
+          <pm:border xmlns:pm="smNativeData" id="1590242933"/>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
+      <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="thick">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
-            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
+      <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="none">
@@ -2111,73 +2182,9 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1589808940">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1590242933">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -2387,10 +2394,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1589808940" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1590242933" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1589808940" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1590242933" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2657,16 +2664,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H437"/>
+  <dimension ref="A1:H465"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="F428" sqref="F428"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
     <col min="1" max="3" width="20.405405" customWidth="1"/>
-    <col min="4" max="4" width="21.216216" customWidth="1"/>
+    <col min="4" max="4" width="24.324324" customWidth="1"/>
     <col min="5" max="16384" width="20.405405" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9783,13 +9790,13 @@
       <c r="A426" s="40" t="n">
         <v>391</v>
       </c>
-      <c r="B426" s="63" t="s">
+      <c r="B426" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C426" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D426" s="63" t="s">
+      <c r="D426" s="12" t="s">
         <v>249</v>
       </c>
       <c r="E426" s="66" t="s">
@@ -9800,13 +9807,13 @@
       <c r="A427" s="40" t="n">
         <v>392</v>
       </c>
-      <c r="B427" s="63" t="n">
+      <c r="B427" s="12" t="n">
         <v>67</v>
       </c>
-      <c r="C427" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D427" s="63" t="s">
+      <c r="C427" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D427" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E427" s="66" t="s">
@@ -9817,13 +9824,13 @@
       <c r="A428" s="40" t="n">
         <v>393</v>
       </c>
-      <c r="B428" s="63" t="s">
+      <c r="B428" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C428" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D428" s="63" t="s">
+      <c r="C428" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D428" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E428" s="66" t="s">
@@ -9834,13 +9841,13 @@
       <c r="A429" s="40" t="n">
         <v>394</v>
       </c>
-      <c r="B429" s="63" t="s">
+      <c r="B429" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C429" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D429" s="63" t="s">
+      <c r="D429" s="12" t="s">
         <v>251</v>
       </c>
       <c r="E429" s="66" t="s">
@@ -9851,13 +9858,13 @@
       <c r="A430" s="40" t="n">
         <v>395</v>
       </c>
-      <c r="B430" s="63" t="n">
+      <c r="B430" s="12" t="n">
         <v>39</v>
       </c>
       <c r="C430" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D430" s="63" t="s">
+      <c r="D430" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E430" s="66" t="s">
@@ -9868,13 +9875,13 @@
       <c r="A431" s="40" t="n">
         <v>396</v>
       </c>
-      <c r="B431" s="63" t="n">
+      <c r="B431" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="C431" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D431" s="63" t="s">
+      <c r="C431" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D431" s="12" t="s">
         <v>252</v>
       </c>
       <c r="E431" s="66" t="s">
@@ -9885,13 +9892,13 @@
       <c r="A432" s="40" t="n">
         <v>397</v>
       </c>
-      <c r="B432" s="63" t="s">
+      <c r="B432" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C432" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D432" s="63" t="s">
+      <c r="C432" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D432" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E432" s="66" t="s">
@@ -9902,13 +9909,13 @@
       <c r="A433" s="40" t="n">
         <v>398</v>
       </c>
-      <c r="B433" s="63" t="s">
+      <c r="B433" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C433" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D433" s="63" t="s">
+      <c r="D433" s="12" t="s">
         <v>253</v>
       </c>
       <c r="E433" s="66" t="s">
@@ -9919,13 +9926,13 @@
       <c r="A434" s="40" t="n">
         <v>399</v>
       </c>
-      <c r="B434" s="63" t="s">
+      <c r="B434" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C434" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D434" s="63" t="s">
+      <c r="D434" s="12" t="s">
         <v>254</v>
       </c>
       <c r="E434" s="66" t="s">
@@ -9936,13 +9943,13 @@
       <c r="A435" s="40" t="n">
         <v>400</v>
       </c>
-      <c r="B435" s="63" t="n">
+      <c r="B435" s="12" t="n">
         <v>34</v>
       </c>
       <c r="C435" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D435" s="63" t="s">
+      <c r="D435" s="12" t="s">
         <v>255</v>
       </c>
       <c r="E435" s="66" t="s">
@@ -9953,13 +9960,13 @@
       <c r="A436" s="40" t="n">
         <v>401</v>
       </c>
-      <c r="B436" s="63" t="n">
+      <c r="B436" s="12" t="n">
         <v>26</v>
       </c>
       <c r="C436" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D436" s="63" t="s">
+      <c r="D436" s="12" t="s">
         <v>256</v>
       </c>
       <c r="E436" s="66" t="s">
@@ -9967,19 +9974,495 @@
       </c>
     </row>
     <row r="437" spans="1:5">
-      <c r="A437" s="58" t="n">
+      <c r="A437" s="40" t="n">
         <v>402</v>
       </c>
-      <c r="B437" s="64" t="n">
+      <c r="B437" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="C437" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D437" s="64" t="s">
+      <c r="C437" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D437" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E437" s="70" t="s">
+      <c r="E437" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="40" t="n">
+        <v>403</v>
+      </c>
+      <c r="B438" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C438" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D438" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="E438" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="40" t="n">
+        <v>404</v>
+      </c>
+      <c r="B439" s="63" t="n">
+        <v>32</v>
+      </c>
+      <c r="C439" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D439" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="E439" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="40" t="n">
+        <v>405</v>
+      </c>
+      <c r="B440" s="63" t="n">
+        <v>47</v>
+      </c>
+      <c r="C440" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D440" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E440" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="40" t="n">
+        <v>406</v>
+      </c>
+      <c r="B441" s="63" t="n">
+        <v>34</v>
+      </c>
+      <c r="C441" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D441" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="E441" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="40" t="n">
+        <v>407</v>
+      </c>
+      <c r="B442" s="63" t="n">
+        <v>30</v>
+      </c>
+      <c r="C442" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D442" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="E442" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="40" t="n">
+        <v>408</v>
+      </c>
+      <c r="B443" s="63" t="n">
+        <v>38</v>
+      </c>
+      <c r="C443" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D443" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="E443" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="40" t="n">
+        <v>409</v>
+      </c>
+      <c r="B444" s="63" t="n">
+        <v>21</v>
+      </c>
+      <c r="C444" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D444" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="E444" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="40" t="n">
+        <v>410</v>
+      </c>
+      <c r="B445" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C445" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D445" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="E445" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="40" t="n">
+        <v>411</v>
+      </c>
+      <c r="B446" s="63" t="n">
+        <v>35</v>
+      </c>
+      <c r="C446" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D446" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="E446" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="40" t="n">
+        <v>412</v>
+      </c>
+      <c r="B447" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C447" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D447" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="E447" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="40" t="n">
+        <v>413</v>
+      </c>
+      <c r="B448" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C448" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D448" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E448" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="40" t="n">
+        <v>414</v>
+      </c>
+      <c r="B449" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C449" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D449" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E449" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="40" t="n">
+        <v>415</v>
+      </c>
+      <c r="B450" s="63" t="n">
+        <v>49</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D450" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E450" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="40" t="n">
+        <v>416</v>
+      </c>
+      <c r="B451" s="63" t="n">
+        <v>57</v>
+      </c>
+      <c r="C451" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D451" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="E451" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="40" t="n">
+        <v>417</v>
+      </c>
+      <c r="B452" s="63" t="n">
+        <v>26</v>
+      </c>
+      <c r="C452" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D452" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="E452" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="40" t="n">
+        <v>418</v>
+      </c>
+      <c r="B453" s="63" t="n">
+        <v>59</v>
+      </c>
+      <c r="C453" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D453" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="E453" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="40" t="n">
+        <v>419</v>
+      </c>
+      <c r="B454" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C454" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D454" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="E454" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="40" t="n">
+        <v>420</v>
+      </c>
+      <c r="B455" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C455" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D455" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="E455" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="40" t="n">
+        <v>421</v>
+      </c>
+      <c r="B456" s="63" t="n">
+        <v>39</v>
+      </c>
+      <c r="C456" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D456" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="E456" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="40" t="n">
+        <v>422</v>
+      </c>
+      <c r="B457" s="63" t="n">
+        <v>58</v>
+      </c>
+      <c r="C457" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D457" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="E457" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="40" t="n">
+        <v>423</v>
+      </c>
+      <c r="B458" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C458" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D458" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="E458" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="40" t="n">
+        <v>424</v>
+      </c>
+      <c r="B459" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C459" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D459" s="63" t="n">
+        <v>21</v>
+      </c>
+      <c r="E459" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="40" t="n">
+        <v>425</v>
+      </c>
+      <c r="B460" s="63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C460" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D460" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="E460" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="40" t="n">
+        <v>426</v>
+      </c>
+      <c r="B461" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C461" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D461" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="E461" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="40" t="n">
+        <v>427</v>
+      </c>
+      <c r="B462" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C462" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D462" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="E462" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="40" t="n">
+        <v>428</v>
+      </c>
+      <c r="B463" s="63" t="n">
+        <v>42</v>
+      </c>
+      <c r="C463" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D463" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="E463" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="40" t="n">
+        <v>429</v>
+      </c>
+      <c r="B464" s="63" t="n">
+        <v>38</v>
+      </c>
+      <c r="C464" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D464" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="E464" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="58" t="n">
+        <v>430</v>
+      </c>
+      <c r="B465" s="64" t="n">
+        <v>29</v>
+      </c>
+      <c r="C465" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D465" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="E465" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9993,7 +10476,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1589808940" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1590242933" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10002,16 +10485,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1589808940" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1589808940" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589808940" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1589808940" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1590242933" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1590242933" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1590242933" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1590242933" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1589808940" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1590242933" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1590242933" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1590242933" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1590242933" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1590242933"/>
+      <pm:revision xmlns:pm="smNativeData" day="1590435353" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1590435353" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1590435353" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1590435353"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="293">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -875,6 +875,33 @@
   </si>
   <si>
     <t>13, 26, 22</t>
+  </si>
+  <si>
+    <t>12, 10,14, 21</t>
+  </si>
+  <si>
+    <t>17, 13, 11, 18, 20, 10</t>
+  </si>
+  <si>
+    <t>10, 20, 21, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, </t>
+  </si>
+  <si>
+    <t>12, 21</t>
+  </si>
+  <si>
+    <t>11, 14, 18</t>
+  </si>
+  <si>
+    <t>10, 21, 13</t>
+  </si>
+  <si>
+    <t>21, 10, 23, 12,</t>
+  </si>
+  <si>
+    <t>14, 21, 10, 20</t>
   </si>
 </sst>
 </file>
@@ -899,7 +926,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1590242933" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1590435353" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -915,7 +942,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1590242933" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1590435353" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -924,7 +951,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -949,7 +976,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -960,7 +987,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -971,7 +998,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -982,7 +1009,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -996,7 +1023,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1013,7 +1040,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1036,7 +1063,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1047,7 +1074,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1058,7 +1085,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1081,7 +1108,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1092,7 +1119,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1130,7 +1157,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1141,7 +1168,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1158,7 +1185,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590242933" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1172,8 +1199,17 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="47">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1189,7 +1225,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933"/>
+          <pm:border xmlns:pm="smNativeData" id="1590435353"/>
         </ext>
       </extLst>
     </border>
@@ -1208,7 +1244,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1232,7 +1268,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1256,7 +1292,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1279,7 +1315,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1301,7 +1337,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1325,7 +1361,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1349,7 +1385,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1373,7 +1409,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1397,7 +1433,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1420,7 +1456,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1444,7 +1480,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1467,7 +1503,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1491,7 +1527,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1515,7 +1551,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1538,7 +1574,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1562,7 +1598,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1586,7 +1622,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1610,7 +1646,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1633,7 +1669,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1656,7 +1692,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1679,7 +1715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1703,7 +1739,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1727,7 +1763,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1751,7 +1787,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1774,7 +1810,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1797,7 +1833,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1820,7 +1856,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1843,7 +1879,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1864,7 +1900,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1887,7 +1923,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1911,7 +1947,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1935,7 +1971,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1958,7 +1994,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1980,7 +2016,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2003,7 +2039,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2027,7 +2063,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2050,7 +2086,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2073,7 +2109,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2096,7 +2132,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2118,63 +2154,61 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933"/>
+          <pm:border xmlns:pm="smNativeData" id="1590435353"/>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="thin">
+      <left style="none">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
+            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
+            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="thin">
+      <left style="none">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
       <bottom style="none">
@@ -2182,9 +2216,73 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590242933">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
+            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
+            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
+            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1590435353">
+            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -2394,10 +2492,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1590242933" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1590435353" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1590242933" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1590435353" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2664,10 +2762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H465"/>
+  <dimension ref="A1:H476"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="E476" sqref="A36:E476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -9994,13 +10092,13 @@
       <c r="A438" s="40" t="n">
         <v>403</v>
       </c>
-      <c r="B438" s="63" t="s">
+      <c r="B438" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C438" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D438" s="63" t="s">
+      <c r="C438" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D438" s="12" t="s">
         <v>258</v>
       </c>
       <c r="E438" s="66" t="s">
@@ -10011,13 +10109,13 @@
       <c r="A439" s="40" t="n">
         <v>404</v>
       </c>
-      <c r="B439" s="63" t="n">
+      <c r="B439" s="12" t="n">
         <v>32</v>
       </c>
       <c r="C439" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D439" s="63" t="s">
+      <c r="D439" s="12" t="s">
         <v>259</v>
       </c>
       <c r="E439" s="66" t="s">
@@ -10028,13 +10126,13 @@
       <c r="A440" s="40" t="n">
         <v>405</v>
       </c>
-      <c r="B440" s="63" t="n">
+      <c r="B440" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="C440" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D440" s="63" t="s">
+      <c r="C440" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D440" s="12" t="s">
         <v>260</v>
       </c>
       <c r="E440" s="66" t="s">
@@ -10045,13 +10143,13 @@
       <c r="A441" s="40" t="n">
         <v>406</v>
       </c>
-      <c r="B441" s="63" t="n">
+      <c r="B441" s="12" t="n">
         <v>34</v>
       </c>
       <c r="C441" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D441" s="63" t="s">
+      <c r="D441" s="12" t="s">
         <v>261</v>
       </c>
       <c r="E441" s="66" t="s">
@@ -10062,13 +10160,13 @@
       <c r="A442" s="40" t="n">
         <v>407</v>
       </c>
-      <c r="B442" s="63" t="n">
+      <c r="B442" s="12" t="n">
         <v>30</v>
       </c>
       <c r="C442" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D442" s="63" t="s">
+      <c r="D442" s="12" t="s">
         <v>262</v>
       </c>
       <c r="E442" s="66" t="s">
@@ -10079,13 +10177,13 @@
       <c r="A443" s="40" t="n">
         <v>408</v>
       </c>
-      <c r="B443" s="63" t="n">
+      <c r="B443" s="12" t="n">
         <v>38</v>
       </c>
       <c r="C443" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D443" s="63" t="s">
+      <c r="D443" s="12" t="s">
         <v>263</v>
       </c>
       <c r="E443" s="66" t="s">
@@ -10096,13 +10194,13 @@
       <c r="A444" s="40" t="n">
         <v>409</v>
       </c>
-      <c r="B444" s="63" t="n">
+      <c r="B444" s="12" t="n">
         <v>21</v>
       </c>
       <c r="C444" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D444" s="63" t="s">
+      <c r="D444" s="12" t="s">
         <v>264</v>
       </c>
       <c r="E444" s="66" t="s">
@@ -10113,13 +10211,13 @@
       <c r="A445" s="40" t="n">
         <v>410</v>
       </c>
-      <c r="B445" s="63" t="s">
+      <c r="B445" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C445" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D445" s="63" t="s">
+      <c r="C445" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D445" s="12" t="s">
         <v>265</v>
       </c>
       <c r="E445" s="66" t="s">
@@ -10130,13 +10228,13 @@
       <c r="A446" s="40" t="n">
         <v>411</v>
       </c>
-      <c r="B446" s="63" t="n">
+      <c r="B446" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="C446" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D446" s="63" t="s">
+      <c r="C446" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D446" s="12" t="s">
         <v>266</v>
       </c>
       <c r="E446" s="66" t="s">
@@ -10147,13 +10245,13 @@
       <c r="A447" s="40" t="n">
         <v>412</v>
       </c>
-      <c r="B447" s="63" t="s">
+      <c r="B447" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C447" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D447" s="63" t="s">
+      <c r="C447" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D447" s="12" t="s">
         <v>267</v>
       </c>
       <c r="E447" s="66" t="s">
@@ -10164,13 +10262,13 @@
       <c r="A448" s="40" t="n">
         <v>413</v>
       </c>
-      <c r="B448" s="63" t="s">
+      <c r="B448" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C448" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D448" s="63" t="s">
+      <c r="D448" s="12" t="s">
         <v>268</v>
       </c>
       <c r="E448" s="66" t="s">
@@ -10181,13 +10279,13 @@
       <c r="A449" s="40" t="n">
         <v>414</v>
       </c>
-      <c r="B449" s="63" t="s">
+      <c r="B449" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C449" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D449" s="63" t="s">
+      <c r="C449" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D449" s="12" t="s">
         <v>269</v>
       </c>
       <c r="E449" s="66" t="s">
@@ -10198,13 +10296,13 @@
       <c r="A450" s="40" t="n">
         <v>415</v>
       </c>
-      <c r="B450" s="63" t="n">
+      <c r="B450" s="12" t="n">
         <v>49</v>
       </c>
       <c r="C450" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D450" s="63" t="s">
+      <c r="D450" s="12" t="s">
         <v>270</v>
       </c>
       <c r="E450" s="66" t="s">
@@ -10215,13 +10313,13 @@
       <c r="A451" s="40" t="n">
         <v>416</v>
       </c>
-      <c r="B451" s="63" t="n">
-        <v>57</v>
-      </c>
-      <c r="C451" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D451" s="63" t="s">
+      <c r="B451" s="12" t="n">
+        <v>57</v>
+      </c>
+      <c r="C451" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D451" s="12" t="s">
         <v>271</v>
       </c>
       <c r="E451" s="66" t="s">
@@ -10232,13 +10330,13 @@
       <c r="A452" s="40" t="n">
         <v>417</v>
       </c>
-      <c r="B452" s="63" t="n">
+      <c r="B452" s="12" t="n">
         <v>26</v>
       </c>
       <c r="C452" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D452" s="63" t="s">
+      <c r="D452" s="12" t="s">
         <v>272</v>
       </c>
       <c r="E452" s="66" t="s">
@@ -10249,13 +10347,13 @@
       <c r="A453" s="40" t="n">
         <v>418</v>
       </c>
-      <c r="B453" s="63" t="n">
+      <c r="B453" s="12" t="n">
         <v>59</v>
       </c>
       <c r="C453" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D453" s="63" t="s">
+      <c r="D453" s="12" t="s">
         <v>273</v>
       </c>
       <c r="E453" s="66" t="s">
@@ -10266,13 +10364,13 @@
       <c r="A454" s="40" t="n">
         <v>419</v>
       </c>
-      <c r="B454" s="63" t="s">
+      <c r="B454" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C454" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D454" s="63" t="s">
+      <c r="D454" s="12" t="s">
         <v>274</v>
       </c>
       <c r="E454" s="66" t="s">
@@ -10283,13 +10381,13 @@
       <c r="A455" s="40" t="n">
         <v>420</v>
       </c>
-      <c r="B455" s="63" t="s">
+      <c r="B455" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C455" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D455" s="63" t="s">
+      <c r="D455" s="12" t="s">
         <v>145</v>
       </c>
       <c r="E455" s="66" t="s">
@@ -10300,13 +10398,13 @@
       <c r="A456" s="40" t="n">
         <v>421</v>
       </c>
-      <c r="B456" s="63" t="n">
+      <c r="B456" s="12" t="n">
         <v>39</v>
       </c>
       <c r="C456" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D456" s="63" t="s">
+      <c r="D456" s="12" t="s">
         <v>275</v>
       </c>
       <c r="E456" s="66" t="s">
@@ -10317,13 +10415,13 @@
       <c r="A457" s="40" t="n">
         <v>422</v>
       </c>
-      <c r="B457" s="63" t="n">
+      <c r="B457" s="12" t="n">
         <v>58</v>
       </c>
-      <c r="C457" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D457" s="63" t="s">
+      <c r="C457" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D457" s="12" t="s">
         <v>276</v>
       </c>
       <c r="E457" s="66" t="s">
@@ -10334,13 +10432,13 @@
       <c r="A458" s="40" t="n">
         <v>423</v>
       </c>
-      <c r="B458" s="63" t="s">
+      <c r="B458" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C458" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D458" s="63" t="s">
+      <c r="D458" s="12" t="s">
         <v>277</v>
       </c>
       <c r="E458" s="66" t="s">
@@ -10351,13 +10449,13 @@
       <c r="A459" s="40" t="n">
         <v>424</v>
       </c>
-      <c r="B459" s="63" t="s">
+      <c r="B459" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C459" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D459" s="63" t="n">
+      <c r="C459" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D459" s="12" t="n">
         <v>21</v>
       </c>
       <c r="E459" s="66" t="s">
@@ -10368,13 +10466,13 @@
       <c r="A460" s="40" t="n">
         <v>425</v>
       </c>
-      <c r="B460" s="63" t="n">
+      <c r="B460" s="12" t="n">
         <v>62</v>
       </c>
       <c r="C460" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D460" s="63" t="s">
+      <c r="D460" s="12" t="s">
         <v>278</v>
       </c>
       <c r="E460" s="66" t="s">
@@ -10385,13 +10483,13 @@
       <c r="A461" s="40" t="n">
         <v>426</v>
       </c>
-      <c r="B461" s="63" t="s">
+      <c r="B461" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C461" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D461" s="63" t="s">
+      <c r="D461" s="12" t="s">
         <v>279</v>
       </c>
       <c r="E461" s="66" t="s">
@@ -10402,13 +10500,13 @@
       <c r="A462" s="40" t="n">
         <v>427</v>
       </c>
-      <c r="B462" s="63" t="s">
+      <c r="B462" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C462" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D462" s="63" t="s">
+      <c r="C462" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D462" s="12" t="s">
         <v>280</v>
       </c>
       <c r="E462" s="66" t="s">
@@ -10419,13 +10517,13 @@
       <c r="A463" s="40" t="n">
         <v>428</v>
       </c>
-      <c r="B463" s="63" t="n">
+      <c r="B463" s="12" t="n">
         <v>42</v>
       </c>
       <c r="C463" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D463" s="63" t="s">
+      <c r="D463" s="12" t="s">
         <v>281</v>
       </c>
       <c r="E463" s="66" t="s">
@@ -10436,13 +10534,13 @@
       <c r="A464" s="40" t="n">
         <v>429</v>
       </c>
-      <c r="B464" s="63" t="n">
+      <c r="B464" s="12" t="n">
         <v>38</v>
       </c>
-      <c r="C464" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D464" s="63" t="s">
+      <c r="C464" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D464" s="12" t="s">
         <v>282</v>
       </c>
       <c r="E464" s="66" t="s">
@@ -10450,19 +10548,206 @@
       </c>
     </row>
     <row r="465" spans="1:5">
-      <c r="A465" s="58" t="n">
+      <c r="A465" s="40" t="n">
         <v>430</v>
       </c>
-      <c r="B465" s="64" t="n">
+      <c r="B465" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="C465" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D465" s="64" t="s">
+      <c r="C465" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D465" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E465" s="70" t="s">
+      <c r="E465" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="40" t="n">
+        <v>431</v>
+      </c>
+      <c r="B466" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C466" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D466" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="E466" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="40" t="n">
+        <v>432</v>
+      </c>
+      <c r="B467" s="63" t="n">
+        <v>25</v>
+      </c>
+      <c r="C467" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D467" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="E467" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="40" t="n">
+        <v>433</v>
+      </c>
+      <c r="B468" s="63" t="n">
+        <v>73</v>
+      </c>
+      <c r="C468" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D468" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="E468" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="40" t="n">
+        <v>434</v>
+      </c>
+      <c r="B469" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C469" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D469" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="E469" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="40" t="n">
+        <v>435</v>
+      </c>
+      <c r="B470" s="63" t="n">
+        <v>74</v>
+      </c>
+      <c r="C470" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D470" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E470" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="40" t="n">
+        <v>436</v>
+      </c>
+      <c r="B471" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C471" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D471" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E471" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="40" t="n">
+        <v>437</v>
+      </c>
+      <c r="B472" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C472" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D472" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="E472" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="40" t="n">
+        <v>438</v>
+      </c>
+      <c r="B473" s="63" t="n">
+        <v>29</v>
+      </c>
+      <c r="C473" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D473" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="E473" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="40" t="n">
+        <v>439</v>
+      </c>
+      <c r="B474" s="63" t="n">
+        <v>47</v>
+      </c>
+      <c r="C474" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D474" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="E474" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="40" t="n">
+        <v>440</v>
+      </c>
+      <c r="B475" s="63" t="n">
+        <v>57</v>
+      </c>
+      <c r="C475" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D475" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="E475" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="58" t="n">
+        <v>441</v>
+      </c>
+      <c r="B476" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C476" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D476" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="E476" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10476,7 +10761,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1590242933" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1590435353" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10485,16 +10770,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1590242933" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1590242933" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1590242933" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1590242933" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1590435353" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1590435353" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1590435353" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1590435353" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1590242933" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1590435353" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1590435353" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1590435353" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1590435353" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1590435353"/>
+      <pm:revision xmlns:pm="smNativeData" day="1590504525" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1590504525" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1590504525" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1590504525"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="303">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -902,6 +902,36 @@
   </si>
   <si>
     <t>14, 21, 10, 20</t>
+  </si>
+  <si>
+    <t>18, 11, 21, 26, 10</t>
+  </si>
+  <si>
+    <t>11, 10, 13, 20, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13, 10, 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11, 18, 16, 20, 15, 26, 25</t>
+  </si>
+  <si>
+    <t>14, 20, 10, 23, 21</t>
+  </si>
+  <si>
+    <t>10, 11, 20</t>
+  </si>
+  <si>
+    <t>12, 11, 10, 20, 22, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21, 10, 20, 12</t>
+  </si>
+  <si>
+    <t>15, 13</t>
+  </si>
+  <si>
+    <t>13, 21, 15</t>
   </si>
 </sst>
 </file>
@@ -926,7 +956,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1590435353" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1590504525" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -942,7 +972,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1590435353" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1590504525" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -951,7 +981,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,7 +1006,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -987,7 +1017,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -998,7 +1028,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1009,7 +1039,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1023,7 +1053,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1040,7 +1070,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1063,7 +1093,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1074,7 +1104,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1085,7 +1115,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1108,7 +1138,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1119,7 +1149,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1157,7 +1187,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1168,7 +1198,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1185,7 +1215,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590435353" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1199,17 +1229,8 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="44">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1225,7 +1246,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353"/>
+          <pm:border xmlns:pm="smNativeData" id="1590504525"/>
         </ext>
       </extLst>
     </border>
@@ -1244,7 +1265,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1268,7 +1289,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1292,7 +1313,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1315,7 +1336,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1337,7 +1358,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1361,7 +1382,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1385,7 +1406,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1409,7 +1430,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1433,7 +1454,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1456,7 +1477,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1480,7 +1501,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1503,7 +1524,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1527,7 +1548,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1551,7 +1572,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1574,7 +1595,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1598,7 +1619,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1622,7 +1643,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1646,7 +1667,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1669,7 +1690,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1692,7 +1713,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1715,7 +1736,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1739,7 +1760,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1763,7 +1784,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1787,7 +1808,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1810,7 +1831,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1833,7 +1854,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1856,7 +1877,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1879,7 +1900,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1900,7 +1921,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1923,7 +1944,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1947,7 +1968,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1971,7 +1992,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1994,7 +2015,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2016,7 +2037,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2039,7 +2060,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2063,7 +2084,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2086,7 +2107,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2109,7 +2130,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2132,7 +2153,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2154,61 +2175,63 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353"/>
+          <pm:border xmlns:pm="smNativeData" id="1590504525"/>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
+      <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="thick">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
-            <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
+      <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="none">
@@ -2216,73 +2239,9 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590435353">
-            <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1590504525">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -2492,10 +2451,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1590435353" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1590504525" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1590435353" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1590504525" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2762,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H476"/>
+  <dimension ref="A1:H489"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="E476" sqref="A36:E476"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="G479" sqref="G479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -10568,13 +10527,13 @@
       <c r="A466" s="40" t="n">
         <v>431</v>
       </c>
-      <c r="B466" s="63" t="s">
+      <c r="B466" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C466" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D466" s="63" t="s">
+      <c r="C466" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D466" s="12" t="s">
         <v>284</v>
       </c>
       <c r="E466" s="66" t="s">
@@ -10585,13 +10544,13 @@
       <c r="A467" s="40" t="n">
         <v>432</v>
       </c>
-      <c r="B467" s="63" t="n">
+      <c r="B467" s="12" t="n">
         <v>25</v>
       </c>
       <c r="C467" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D467" s="63" t="s">
+      <c r="D467" s="12" t="s">
         <v>285</v>
       </c>
       <c r="E467" s="66" t="s">
@@ -10602,13 +10561,13 @@
       <c r="A468" s="40" t="n">
         <v>433</v>
       </c>
-      <c r="B468" s="63" t="n">
+      <c r="B468" s="12" t="n">
         <v>73</v>
       </c>
       <c r="C468" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D468" s="63" t="s">
+      <c r="D468" s="12" t="s">
         <v>286</v>
       </c>
       <c r="E468" s="66" t="s">
@@ -10619,13 +10578,13 @@
       <c r="A469" s="40" t="n">
         <v>434</v>
       </c>
-      <c r="B469" s="63" t="s">
+      <c r="B469" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C469" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D469" s="63" t="s">
+      <c r="C469" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D469" s="12" t="s">
         <v>287</v>
       </c>
       <c r="E469" s="66" t="s">
@@ -10636,13 +10595,13 @@
       <c r="A470" s="40" t="n">
         <v>435</v>
       </c>
-      <c r="B470" s="63" t="n">
+      <c r="B470" s="12" t="n">
         <v>74</v>
       </c>
-      <c r="C470" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D470" s="63" t="s">
+      <c r="C470" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D470" s="12" t="s">
         <v>79</v>
       </c>
       <c r="E470" s="66" t="s">
@@ -10653,13 +10612,13 @@
       <c r="A471" s="40" t="n">
         <v>436</v>
       </c>
-      <c r="B471" s="63" t="s">
+      <c r="B471" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C471" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D471" s="63" t="s">
+      <c r="C471" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D471" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E471" s="66" t="s">
@@ -10670,13 +10629,13 @@
       <c r="A472" s="40" t="n">
         <v>437</v>
       </c>
-      <c r="B472" s="63" t="s">
+      <c r="B472" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C472" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D472" s="63" t="s">
+      <c r="D472" s="12" t="s">
         <v>288</v>
       </c>
       <c r="E472" s="66" t="s">
@@ -10687,13 +10646,13 @@
       <c r="A473" s="40" t="n">
         <v>438</v>
       </c>
-      <c r="B473" s="63" t="n">
+      <c r="B473" s="12" t="n">
         <v>29</v>
       </c>
       <c r="C473" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D473" s="63" t="s">
+      <c r="D473" s="12" t="s">
         <v>289</v>
       </c>
       <c r="E473" s="66" t="s">
@@ -10704,13 +10663,13 @@
       <c r="A474" s="40" t="n">
         <v>439</v>
       </c>
-      <c r="B474" s="63" t="n">
+      <c r="B474" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="C474" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D474" s="63" t="s">
+      <c r="C474" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D474" s="12" t="s">
         <v>290</v>
       </c>
       <c r="E474" s="66" t="s">
@@ -10721,13 +10680,13 @@
       <c r="A475" s="40" t="n">
         <v>440</v>
       </c>
-      <c r="B475" s="63" t="n">
-        <v>57</v>
-      </c>
-      <c r="C475" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D475" s="63" t="s">
+      <c r="B475" s="12" t="n">
+        <v>57</v>
+      </c>
+      <c r="C475" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D475" s="12" t="s">
         <v>291</v>
       </c>
       <c r="E475" s="66" t="s">
@@ -10735,19 +10694,240 @@
       </c>
     </row>
     <row r="476" spans="1:5">
-      <c r="A476" s="58" t="n">
+      <c r="A476" s="40" t="n">
         <v>441</v>
       </c>
-      <c r="B476" s="64" t="s">
+      <c r="B476" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C476" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D476" s="64" t="s">
+      <c r="C476" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D476" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E476" s="70" t="s">
+      <c r="E476" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="40" t="n">
+        <v>442</v>
+      </c>
+      <c r="B477" s="63" t="n">
+        <v>41</v>
+      </c>
+      <c r="C477" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D477" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="E477" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="40" t="n">
+        <v>443</v>
+      </c>
+      <c r="B478" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C478" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D478" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="E478" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="40" t="n">
+        <v>444</v>
+      </c>
+      <c r="B479" s="63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C479" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D479" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="E479" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="40" t="n">
+        <v>445</v>
+      </c>
+      <c r="B480" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C480" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D480" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="E480" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="40" t="n">
+        <v>446</v>
+      </c>
+      <c r="B481" s="63" t="n">
+        <v>68</v>
+      </c>
+      <c r="C481" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D481" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="E481" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="40" t="n">
+        <v>447</v>
+      </c>
+      <c r="B482" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C482" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D482" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="E482" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="40" t="n">
+        <v>448</v>
+      </c>
+      <c r="B483" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C483" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D483" s="63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E483" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="40" t="n">
+        <v>449</v>
+      </c>
+      <c r="B484" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C484" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D484" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="E484" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="40" t="n">
+        <v>450</v>
+      </c>
+      <c r="B485" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C485" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D485" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="E485" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="40" t="n">
+        <v>451</v>
+      </c>
+      <c r="B486" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C486" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D486" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="E486" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="40" t="n">
+        <v>452</v>
+      </c>
+      <c r="B487" s="63" t="n">
+        <v>27</v>
+      </c>
+      <c r="C487" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D487" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="E487" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="40" t="n">
+        <v>453</v>
+      </c>
+      <c r="B488" s="63" t="n">
+        <v>57</v>
+      </c>
+      <c r="C488" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D488" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E488" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="58" t="n">
+        <v>454</v>
+      </c>
+      <c r="B489" s="64" t="n">
+        <v>64</v>
+      </c>
+      <c r="C489" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D489" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="E489" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10761,7 +10941,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1590435353" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1590504525" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10770,16 +10950,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1590435353" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1590435353" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1590435353" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1590435353" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1590504525" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1590504525" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1590504525" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1590504525" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1590435353" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1590504525" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1590504525" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1590504525" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1590504525" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1590504525"/>
+      <pm:revision xmlns:pm="smNativeData" day="1591031226" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1591031226" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1591031226" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1591031226"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="320">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -932,6 +932,57 @@
   </si>
   <si>
     <t>13, 21, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20, 18, 12, 10, 22, 14, </t>
+  </si>
+  <si>
+    <t>20, 21, 15</t>
+  </si>
+  <si>
+    <t>14, 21</t>
+  </si>
+  <si>
+    <t>10, 22</t>
+  </si>
+  <si>
+    <t>10, 20, 21, 12,</t>
+  </si>
+  <si>
+    <t>12, 22, 10, 21, 24</t>
+  </si>
+  <si>
+    <t>12, 15</t>
+  </si>
+  <si>
+    <t>21, 10, 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14, 20, 18, 10,</t>
+  </si>
+  <si>
+    <t>14, 12, 11, 10</t>
+  </si>
+  <si>
+    <t>10, 12, 24, 15, 21</t>
+  </si>
+  <si>
+    <t>10, 12, 20, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20, 18, 21</t>
+  </si>
+  <si>
+    <t>10, 23</t>
+  </si>
+  <si>
+    <t>10, 12, 18, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18, 10, 20</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1007,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1590504525" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591031226" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -972,7 +1023,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1590504525" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591031226" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1006,7 +1057,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1017,7 +1068,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1028,7 +1079,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1039,7 +1090,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1053,7 +1104,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1070,7 +1121,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1093,7 +1144,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1104,7 +1155,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1115,7 +1166,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1138,7 +1189,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1149,7 +1200,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1187,7 +1238,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1198,7 +1249,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1215,7 +1266,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590504525" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1246,7 +1297,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525"/>
+          <pm:border xmlns:pm="smNativeData" id="1591031226"/>
         </ext>
       </extLst>
     </border>
@@ -1265,7 +1316,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1289,7 +1340,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1313,7 +1364,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1336,7 +1387,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1358,7 +1409,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1382,7 +1433,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1406,7 +1457,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1430,7 +1481,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1454,7 +1505,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1477,7 +1528,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1501,7 +1552,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1524,7 +1575,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1548,7 +1599,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1572,7 +1623,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1595,7 +1646,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1619,7 +1670,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1643,7 +1694,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1667,7 +1718,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1690,7 +1741,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1713,7 +1764,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1736,7 +1787,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1760,7 +1811,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1784,7 +1835,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1808,7 +1859,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1831,7 +1882,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1854,7 +1905,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1877,7 +1928,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1900,7 +1951,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1921,7 +1972,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1944,7 +1995,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1968,7 +2019,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1992,7 +2043,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2015,7 +2066,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2037,7 +2088,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2060,7 +2111,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2084,7 +2135,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2107,7 +2158,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2130,7 +2181,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2153,7 +2204,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2175,7 +2226,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525"/>
+          <pm:border xmlns:pm="smNativeData" id="1591031226"/>
         </ext>
       </extLst>
     </border>
@@ -2194,7 +2245,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2216,7 +2267,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2239,7 +2290,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590504525">
+          <pm:border xmlns:pm="smNativeData" id="1591031226">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2451,10 +2502,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1590504525" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1591031226" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1590504525" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1591031226" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2721,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H489"/>
+  <dimension ref="A1:H512"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="G479" sqref="G479"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="F501" sqref="F501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -10714,13 +10765,13 @@
       <c r="A477" s="40" t="n">
         <v>442</v>
       </c>
-      <c r="B477" s="63" t="n">
+      <c r="B477" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="C477" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D477" s="63" t="s">
+      <c r="C477" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D477" s="12" t="s">
         <v>293</v>
       </c>
       <c r="E477" s="66" t="s">
@@ -10731,13 +10782,13 @@
       <c r="A478" s="40" t="n">
         <v>443</v>
       </c>
-      <c r="B478" s="63" t="s">
+      <c r="B478" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C478" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D478" s="63" t="s">
+      <c r="D478" s="12" t="s">
         <v>294</v>
       </c>
       <c r="E478" s="66" t="s">
@@ -10748,13 +10799,13 @@
       <c r="A479" s="40" t="n">
         <v>444</v>
       </c>
-      <c r="B479" s="63" t="n">
+      <c r="B479" s="12" t="n">
         <v>64</v>
       </c>
       <c r="C479" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D479" s="63" t="s">
+      <c r="D479" s="12" t="s">
         <v>295</v>
       </c>
       <c r="E479" s="66" t="s">
@@ -10765,13 +10816,13 @@
       <c r="A480" s="40" t="n">
         <v>445</v>
       </c>
-      <c r="B480" s="63" t="s">
+      <c r="B480" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C480" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D480" s="63" t="s">
+      <c r="C480" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D480" s="12" t="s">
         <v>296</v>
       </c>
       <c r="E480" s="66" t="s">
@@ -10782,13 +10833,13 @@
       <c r="A481" s="40" t="n">
         <v>446</v>
       </c>
-      <c r="B481" s="63" t="n">
+      <c r="B481" s="12" t="n">
         <v>68</v>
       </c>
-      <c r="C481" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D481" s="63" t="s">
+      <c r="C481" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D481" s="12" t="s">
         <v>143</v>
       </c>
       <c r="E481" s="66" t="s">
@@ -10799,13 +10850,13 @@
       <c r="A482" s="40" t="n">
         <v>447</v>
       </c>
-      <c r="B482" s="63" t="s">
+      <c r="B482" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C482" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D482" s="63" t="s">
+      <c r="D482" s="12" t="s">
         <v>297</v>
       </c>
       <c r="E482" s="66" t="s">
@@ -10816,13 +10867,13 @@
       <c r="A483" s="40" t="n">
         <v>448</v>
       </c>
-      <c r="B483" s="63" t="s">
+      <c r="B483" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C483" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D483" s="63" t="n">
+      <c r="C483" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D483" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E483" s="66" t="s">
@@ -10833,13 +10884,13 @@
       <c r="A484" s="40" t="n">
         <v>449</v>
       </c>
-      <c r="B484" s="63" t="s">
+      <c r="B484" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C484" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D484" s="63" t="s">
+      <c r="C484" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D484" s="12" t="s">
         <v>298</v>
       </c>
       <c r="E484" s="66" t="s">
@@ -10850,13 +10901,13 @@
       <c r="A485" s="40" t="n">
         <v>450</v>
       </c>
-      <c r="B485" s="63" t="s">
+      <c r="B485" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C485" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D485" s="63" t="s">
+      <c r="C485" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D485" s="12" t="s">
         <v>299</v>
       </c>
       <c r="E485" s="66" t="s">
@@ -10867,13 +10918,13 @@
       <c r="A486" s="40" t="n">
         <v>451</v>
       </c>
-      <c r="B486" s="63" t="s">
+      <c r="B486" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C486" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D486" s="63" t="s">
+      <c r="C486" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D486" s="12" t="s">
         <v>300</v>
       </c>
       <c r="E486" s="66" t="s">
@@ -10884,13 +10935,13 @@
       <c r="A487" s="40" t="n">
         <v>452</v>
       </c>
-      <c r="B487" s="63" t="n">
+      <c r="B487" s="12" t="n">
         <v>27</v>
       </c>
       <c r="C487" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D487" s="63" t="s">
+      <c r="D487" s="12" t="s">
         <v>301</v>
       </c>
       <c r="E487" s="66" t="s">
@@ -10901,13 +10952,13 @@
       <c r="A488" s="40" t="n">
         <v>453</v>
       </c>
-      <c r="B488" s="63" t="n">
-        <v>57</v>
-      </c>
-      <c r="C488" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D488" s="63" t="s">
+      <c r="B488" s="12" t="n">
+        <v>57</v>
+      </c>
+      <c r="C488" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D488" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E488" s="66" t="s">
@@ -10915,19 +10966,410 @@
       </c>
     </row>
     <row r="489" spans="1:5">
-      <c r="A489" s="58" t="n">
+      <c r="A489" s="40" t="n">
         <v>454</v>
       </c>
-      <c r="B489" s="64" t="n">
+      <c r="B489" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="C489" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D489" s="64" t="s">
+      <c r="C489" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D489" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="E489" s="70" t="s">
+      <c r="E489" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="40" t="n">
+        <v>455</v>
+      </c>
+      <c r="B490" s="63" t="n">
+        <v>59</v>
+      </c>
+      <c r="C490" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D490" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="E490" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="40" t="n">
+        <v>456</v>
+      </c>
+      <c r="B491" s="63" t="n">
+        <v>58</v>
+      </c>
+      <c r="C491" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D491" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="E491" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="40" t="n">
+        <v>457</v>
+      </c>
+      <c r="B492" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C492" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D492" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="E492" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="40" t="n">
+        <v>458</v>
+      </c>
+      <c r="B493" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C493" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D493" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="E493" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="40" t="n">
+        <v>459</v>
+      </c>
+      <c r="B494" s="63" t="n">
+        <v>74</v>
+      </c>
+      <c r="C494" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D494" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E494" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="40" t="n">
+        <v>460</v>
+      </c>
+      <c r="B495" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C495" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D495" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="E495" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="40" t="n">
+        <v>461</v>
+      </c>
+      <c r="B496" s="63" t="n">
+        <v>41</v>
+      </c>
+      <c r="C496" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D496" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="E496" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="40" t="n">
+        <v>462</v>
+      </c>
+      <c r="B497" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C497" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D497" s="63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E497" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="40" t="n">
+        <v>463</v>
+      </c>
+      <c r="B498" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C498" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D498" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="E498" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="40" t="n">
+        <v>464</v>
+      </c>
+      <c r="B499" s="63" t="n">
+        <v>26</v>
+      </c>
+      <c r="C499" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D499" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="E499" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="40" t="n">
+        <v>465</v>
+      </c>
+      <c r="B500" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C500" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D500" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E500" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="40" t="n">
+        <v>466</v>
+      </c>
+      <c r="B501" s="63" t="n">
+        <v>39</v>
+      </c>
+      <c r="C501" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D501" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E501" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="40" t="n">
+        <v>467</v>
+      </c>
+      <c r="B502" s="63" t="n">
+        <v>60</v>
+      </c>
+      <c r="C502" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D502" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="E502" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="40" t="n">
+        <v>468</v>
+      </c>
+      <c r="B503" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C503" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D503" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="E503" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="40" t="n">
+        <v>469</v>
+      </c>
+      <c r="B504" s="63" t="n">
+        <v>67</v>
+      </c>
+      <c r="C504" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D504" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="E504" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="40" t="n">
+        <v>470</v>
+      </c>
+      <c r="B505" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C505" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D505" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="E505" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="40" t="n">
+        <v>471</v>
+      </c>
+      <c r="B506" s="63" t="n">
+        <v>25</v>
+      </c>
+      <c r="C506" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D506" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="E506" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="40" t="n">
+        <v>472</v>
+      </c>
+      <c r="B507" s="63" t="n">
+        <v>70</v>
+      </c>
+      <c r="C507" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D507" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="E507" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="40" t="n">
+        <v>473</v>
+      </c>
+      <c r="B508" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C508" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D508" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="E508" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="40" t="n">
+        <v>474</v>
+      </c>
+      <c r="B509" s="63" t="n">
+        <v>48</v>
+      </c>
+      <c r="C509" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D509" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E509" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="40" t="n">
+        <v>475</v>
+      </c>
+      <c r="B510" s="63" t="n">
+        <v>28</v>
+      </c>
+      <c r="C510" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D510" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="E510" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="40" t="n">
+        <v>476</v>
+      </c>
+      <c r="B511" s="63" t="n">
+        <v>34</v>
+      </c>
+      <c r="C511" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D511" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="E511" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="58" t="n">
+        <v>477</v>
+      </c>
+      <c r="B512" s="64" t="n">
+        <v>30</v>
+      </c>
+      <c r="C512" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D512" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="E512" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10941,7 +11383,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1590504525" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1591031226" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10950,16 +11392,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1590504525" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1590504525" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1590504525" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1590504525" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1591031226" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1591031226" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1591031226" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1591031226" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1590504525" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591031226" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/SINTOMAS CORONAVIRUS.xlsx
+++ b/SINTOMAS CORONAVIRUS.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1591031226" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1591031226" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1591031226" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1591031226"/>
+      <pm:revision xmlns:pm="smNativeData" day="1591190774" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1591190774" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1591190774" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1591190774"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="335">
   <si>
     <t>CORONAVIRUS</t>
   </si>
@@ -983,6 +983,51 @@
   </si>
   <si>
     <t xml:space="preserve"> 18, 10, 20</t>
+  </si>
+  <si>
+    <t>20, 12</t>
+  </si>
+  <si>
+    <t>10, 15, 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 20, 15</t>
+  </si>
+  <si>
+    <t>10, 23, 13, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24, 10, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 23, 12, 21</t>
+  </si>
+  <si>
+    <t>12, 23, 21</t>
+  </si>
+  <si>
+    <t>21, 16, 13, 26, 20, 10, 23, 18</t>
+  </si>
+  <si>
+    <t>23, 10, 20</t>
+  </si>
+  <si>
+    <t>12, 14, 23, 10, 26, 20, 21</t>
+  </si>
+  <si>
+    <t>18, 10, 20, 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10, 14, 13, 23, 20, </t>
+  </si>
+  <si>
+    <t>10, 12, 15, 23</t>
+  </si>
+  <si>
+    <t>10, 13, 23, 15</t>
+  </si>
+  <si>
+    <t>10, 21, 11, 23</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1052,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591031226" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591190774" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1023,7 +1068,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591031226" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591190774" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1057,7 +1102,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1068,7 +1113,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1079,7 +1124,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1090,7 +1135,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1104,7 +1149,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1121,7 +1166,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1144,7 +1189,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1155,7 +1200,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1166,7 +1211,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1189,7 +1234,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1200,7 +1245,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1238,7 +1283,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1249,7 +1294,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1266,7 +1311,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591031226" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591190774" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1297,7 +1342,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226"/>
+          <pm:border xmlns:pm="smNativeData" id="1591190774"/>
         </ext>
       </extLst>
     </border>
@@ -1316,7 +1361,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1340,7 +1385,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1364,7 +1409,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1387,7 +1432,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1409,7 +1454,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1433,7 +1478,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1457,7 +1502,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1481,7 +1526,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1505,7 +1550,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1528,7 +1573,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1552,7 +1597,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1575,7 +1620,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1599,7 +1644,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1623,7 +1668,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1646,7 +1691,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1670,7 +1715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1694,7 +1739,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1718,7 +1763,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1741,7 +1786,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1764,7 +1809,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1787,7 +1832,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1811,7 +1856,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1835,7 +1880,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1859,7 +1904,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1882,7 +1927,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1905,7 +1950,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1928,7 +1973,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1951,7 +1996,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1972,7 +2017,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -1995,7 +2040,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2019,7 +2064,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2043,7 +2088,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2066,7 +2111,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2088,7 +2133,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2111,7 +2156,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2135,7 +2180,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2158,7 +2203,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -2181,7 +2226,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2204,7 +2249,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2226,7 +2271,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226"/>
+          <pm:border xmlns:pm="smNativeData" id="1591190774"/>
         </ext>
       </extLst>
     </border>
@@ -2245,7 +2290,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2267,7 +2312,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2290,7 +2335,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591031226">
+          <pm:border xmlns:pm="smNativeData" id="1591190774">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2502,10 +2547,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1591031226" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1591190774" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1591031226" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1591190774" count="4">
         <pm:color name="Color 24" rgb="FFFF9E"/>
         <pm:color name="Color 25" rgb="FF9E9E"/>
         <pm:color name="Color 26" rgb="FFFFE0"/>
@@ -2772,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H512"/>
+  <dimension ref="A1:H530"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="F501" sqref="F501"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A499" workbookViewId="0">
+      <selection activeCell="F521" sqref="F521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -10986,13 +11031,13 @@
       <c r="A490" s="40" t="n">
         <v>455</v>
       </c>
-      <c r="B490" s="63" t="n">
+      <c r="B490" s="12" t="n">
         <v>59</v>
       </c>
       <c r="C490" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D490" s="63" t="s">
+      <c r="D490" s="12" t="s">
         <v>303</v>
       </c>
       <c r="E490" s="66" t="s">
@@ -11003,13 +11048,13 @@
       <c r="A491" s="40" t="n">
         <v>456</v>
       </c>
-      <c r="B491" s="63" t="n">
+      <c r="B491" s="12" t="n">
         <v>58</v>
       </c>
-      <c r="C491" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D491" s="63" t="s">
+      <c r="C491" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D491" s="12" t="s">
         <v>304</v>
       </c>
       <c r="E491" s="66" t="s">
@@ -11020,13 +11065,13 @@
       <c r="A492" s="40" t="n">
         <v>457</v>
       </c>
-      <c r="B492" s="63" t="s">
+      <c r="B492" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C492" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D492" s="63" t="s">
+      <c r="C492" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D492" s="12" t="s">
         <v>305</v>
       </c>
       <c r="E492" s="66" t="s">
@@ -11037,13 +11082,13 @@
       <c r="A493" s="40" t="n">
         <v>458</v>
       </c>
-      <c r="B493" s="63" t="s">
+      <c r="B493" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C493" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D493" s="63" t="s">
+      <c r="D493" s="12" t="s">
         <v>306</v>
       </c>
       <c r="E493" s="66" t="s">
@@ -11054,13 +11099,13 @@
       <c r="A494" s="40" t="n">
         <v>459</v>
       </c>
-      <c r="B494" s="63" t="n">
+      <c r="B494" s="12" t="n">
         <v>74</v>
       </c>
-      <c r="C494" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D494" s="63" t="s">
+      <c r="C494" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D494" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E494" s="66" t="s">
@@ -11071,13 +11116,13 @@
       <c r="A495" s="40" t="n">
         <v>460</v>
       </c>
-      <c r="B495" s="63" t="s">
+      <c r="B495" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C495" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D495" s="63" t="s">
+      <c r="D495" s="12" t="s">
         <v>307</v>
       </c>
       <c r="E495" s="66" t="s">
@@ -11088,13 +11133,13 @@
       <c r="A496" s="40" t="n">
         <v>461</v>
       </c>
-      <c r="B496" s="63" t="n">
+      <c r="B496" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="C496" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D496" s="63" t="s">
+      <c r="C496" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D496" s="12" t="s">
         <v>308</v>
       </c>
       <c r="E496" s="66" t="s">
@@ -11105,13 +11150,13 @@
       <c r="A497" s="40" t="n">
         <v>462</v>
       </c>
-      <c r="B497" s="63" t="s">
+      <c r="B497" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C497" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D497" s="63" t="n">
+      <c r="C497" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D497" s="12" t="n">
         <v>10</v>
       </c>
       <c r="E497" s="66" t="s">
@@ -11122,13 +11167,13 @@
       <c r="A498" s="40" t="n">
         <v>463</v>
       </c>
-      <c r="B498" s="63" t="s">
+      <c r="B498" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C498" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D498" s="63" t="s">
+      <c r="C498" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D498" s="12" t="s">
         <v>309</v>
       </c>
       <c r="E498" s="66" t="s">
@@ -11139,13 +11184,13 @@
       <c r="A499" s="40" t="n">
         <v>464</v>
       </c>
-      <c r="B499" s="63" t="n">
+      <c r="B499" s="12" t="n">
         <v>26</v>
       </c>
       <c r="C499" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D499" s="63" t="s">
+      <c r="D499" s="12" t="s">
         <v>310</v>
       </c>
       <c r="E499" s="66" t="s">
@@ -11156,13 +11201,13 @@
       <c r="A500" s="40" t="n">
         <v>465</v>
       </c>
-      <c r="B500" s="63" t="s">
+      <c r="B500" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C500" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D500" s="63" t="s">
+      <c r="D500" s="12" t="s">
         <v>90</v>
       </c>
       <c r="E500" s="66" t="s">
@@ -11173,13 +11218,13 @@
       <c r="A501" s="40" t="n">
         <v>466</v>
       </c>
-      <c r="B501" s="63" t="n">
+      <c r="B501" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="C501" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D501" s="63" t="s">
+      <c r="C501" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D501" s="12" t="s">
         <v>90</v>
       </c>
       <c r="E501" s="66" t="s">
@@ -11190,13 +11235,13 @@
       <c r="A502" s="40" t="n">
         <v>467</v>
       </c>
-      <c r="B502" s="63" t="n">
+      <c r="B502" s="12" t="n">
         <v>60</v>
       </c>
       <c r="C502" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D502" s="63" t="s">
+      <c r="D502" s="12" t="s">
         <v>311</v>
       </c>
       <c r="E502" s="66" t="s">
@@ -11207,13 +11252,13 @@
       <c r="A503" s="40" t="n">
         <v>468</v>
       </c>
-      <c r="B503" s="63" t="s">
+      <c r="B503" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C503" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D503" s="63" t="s">
+      <c r="D503" s="12" t="s">
         <v>312</v>
       </c>
       <c r="E503" s="66" t="s">
@@ -11224,13 +11269,13 @@
       <c r="A504" s="40" t="n">
         <v>469</v>
       </c>
-      <c r="B504" s="63" t="n">
+      <c r="B504" s="12" t="n">
         <v>67</v>
       </c>
-      <c r="C504" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D504" s="63" t="s">
+      <c r="C504" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D504" s="12" t="s">
         <v>313</v>
       </c>
       <c r="E504" s="66" t="s">
@@ -11241,13 +11286,13 @@
       <c r="A505" s="40" t="n">
         <v>470</v>
       </c>
-      <c r="B505" s="63" t="s">
+      <c r="B505" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C505" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D505" s="63" t="s">
+      <c r="C505" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D505" s="12" t="s">
         <v>246</v>
       </c>
       <c r="E505" s="66" t="s">
@@ -11258,13 +11303,13 @@
       <c r="A506" s="40" t="n">
         <v>471</v>
       </c>
-      <c r="B506" s="63" t="n">
+      <c r="B506" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="C506" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D506" s="63" t="s">
+      <c r="C506" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D506" s="12" t="s">
         <v>314</v>
       </c>
       <c r="E506" s="66" t="s">
@@ -11275,13 +11320,13 @@
       <c r="A507" s="40" t="n">
         <v>472</v>
       </c>
-      <c r="B507" s="63" t="n">
+      <c r="B507" s="12" t="n">
         <v>70</v>
       </c>
       <c r="C507" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D507" s="63" t="s">
+      <c r="D507" s="12" t="s">
         <v>315</v>
       </c>
       <c r="E507" s="66" t="s">
@@ -11292,13 +11337,13 @@
       <c r="A508" s="40" t="n">
         <v>473</v>
       </c>
-      <c r="B508" s="63" t="s">
+      <c r="B508" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C508" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D508" s="63" t="s">
+      <c r="C508" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D508" s="12" t="s">
         <v>316</v>
       </c>
       <c r="E508" s="66" t="s">
@@ -11309,13 +11354,13 @@
       <c r="A509" s="40" t="n">
         <v>474</v>
       </c>
-      <c r="B509" s="63" t="n">
+      <c r="B509" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="C509" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D509" s="63" t="s">
+      <c r="C509" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D509" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E509" s="66" t="s">
@@ -11326,13 +11371,13 @@
       <c r="A510" s="40" t="n">
         <v>475</v>
       </c>
-      <c r="B510" s="63" t="n">
+      <c r="B510" s="12" t="n">
         <v>28</v>
       </c>
       <c r="C510" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D510" s="63" t="s">
+      <c r="D510" s="12" t="s">
         <v>317</v>
       </c>
       <c r="E510" s="66" t="s">
@@ -11343,13 +11388,13 @@
       <c r="A511" s="40" t="n">
         <v>476</v>
       </c>
-      <c r="B511" s="63" t="n">
+      <c r="B511" s="12" t="n">
         <v>34</v>
       </c>
-      <c r="C511" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D511" s="63" t="s">
+      <c r="C511" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D511" s="12" t="s">
         <v>318</v>
       </c>
       <c r="E511" s="66" t="s">
@@ -11357,19 +11402,325 @@
       </c>
     </row>
     <row r="512" spans="1:5">
-      <c r="A512" s="58" t="n">
+      <c r="A512" s="40" t="n">
         <v>477</v>
       </c>
-      <c r="B512" s="64" t="n">
+      <c r="B512" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="C512" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D512" s="64" t="s">
+      <c r="C512" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D512" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="E512" s="70" t="s">
+      <c r="E512" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="40" t="n">
+        <v>478</v>
+      </c>
+      <c r="B513" s="63" t="n">
+        <v>32</v>
+      </c>
+      <c r="C513" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D513" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="E513" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="40" t="n">
+        <v>479</v>
+      </c>
+      <c r="B514" s="63" t="n">
+        <v>60</v>
+      </c>
+      <c r="C514" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D514" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="E514" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="40" t="n">
+        <v>480</v>
+      </c>
+      <c r="B515" s="63" t="n">
+        <v>69</v>
+      </c>
+      <c r="C515" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D515" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E515" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="40" t="n">
+        <v>481</v>
+      </c>
+      <c r="B516" s="63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C516" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D516" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="E516" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="40" t="n">
+        <v>482</v>
+      </c>
+      <c r="B517" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C517" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D517" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="E517" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="40" t="n">
+        <v>483</v>
+      </c>
+      <c r="B518" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C518" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D518" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="E518" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="40" t="n">
+        <v>484</v>
+      </c>
+      <c r="B519" s="63" t="n">
+        <v>60</v>
+      </c>
+      <c r="C519" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D519" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="E519" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="40" t="n">
+        <v>485</v>
+      </c>
+      <c r="B520" s="63" t="n">
+        <v>51</v>
+      </c>
+      <c r="C520" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D520" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="E520" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="40" t="n">
+        <v>486</v>
+      </c>
+      <c r="B521" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C521" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D521" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E521" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="40" t="n">
+        <v>487</v>
+      </c>
+      <c r="B522" s="63" t="n">
+        <v>52</v>
+      </c>
+      <c r="C522" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D522" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="E522" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="40" t="n">
+        <v>488</v>
+      </c>
+      <c r="B523" s="63" t="n">
+        <v>12</v>
+      </c>
+      <c r="C523" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D523" s="63" t="n">
+        <v>13</v>
+      </c>
+      <c r="E523" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="40" t="n">
+        <v>489</v>
+      </c>
+      <c r="B524" s="63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C524" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D524" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="E524" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="40" t="n">
+        <v>490</v>
+      </c>
+      <c r="B525" s="63" t="n">
+        <v>42</v>
+      </c>
+      <c r="C525" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D525" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="E525" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="40" t="n">
+        <v>491</v>
+      </c>
+      <c r="B526" s="63" t="n">
+        <v>65</v>
+      </c>
+      <c r="C526" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D526" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="E526" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="40" t="n">
+        <v>492</v>
+      </c>
+      <c r="B527" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C527" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D527" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E527" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="40" t="n">
+        <v>493</v>
+      </c>
+      <c r="B528" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C528" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D528" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="E528" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="40" t="n">
+        <v>494</v>
+      </c>
+      <c r="B529" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C529" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D529" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="E529" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="58" t="n">
+        <v>495</v>
+      </c>
+      <c r="B530" s="64" t="n">
+        <v>57</v>
+      </c>
+      <c r="C530" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D530" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="E530" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -11383,7 +11734,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1591031226" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1591190774" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11392,16 +11743,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1591031226" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1591031226" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1591031226" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1591031226" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1591190774" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1591190774" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1591190774" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1591190774" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591031226" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591190774" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
